--- a/financial_models/opportunities/0590.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CE9922-03F5-49C8-ABB9-E46E0ED57824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4AAD374-8E1C-4384-A4BB-3F1D09AB9E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2144,7 +2144,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="171">
-        <v>14.72</v>
+        <v>15.319999694824219</v>
       </c>
       <c r="H3" s="173" t="s">
         <v>2</v>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="G5" s="197">
         <f>G3*G4/1000000</f>
-        <v>8642.2275520000003</v>
+        <v>8994.4920828289032</v>
       </c>
       <c r="H5" s="197"/>
       <c r="I5" s="38"/>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.67182027966950619</v>
+        <v>0.69920424453217089</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>0.10304367128054998</v>
+        <v>9.9008020330583923E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>9.2391304347826081E-2</v>
+        <v>8.8772847721365733E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6880,11 +6880,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>E49-I49-E53</f>
-        <v>3750774.8183804494</v>
+        <v>3751513.1448410768</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.70842626252319096</v>
+        <v>0.70836886728726567</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6905,7 +6905,7 @@
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>6.3885618602790766</v>
+        <v>6.3898194255809679</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -7867,11 +7867,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>0.67182027966950619</v>
+        <v>0.69920424453217089</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>-18113.618380449225</v>
+        <v>-18851.944841076391</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>

--- a/financial_models/opportunities/0590.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4AAD374-8E1C-4384-A4BB-3F1D09AB9E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F05CD80-3BC1-4A67-B7CC-B5417DD8C7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2144,7 +2144,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="171">
-        <v>15.319999694824219</v>
+        <v>15.279999732971191</v>
       </c>
       <c r="H3" s="173" t="s">
         <v>2</v>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="G5" s="197">
         <f>G3*G4/1000000</f>
-        <v>8994.4920828289032</v>
+        <v>8971.0077912252909</v>
       </c>
       <c r="H5" s="197"/>
       <c r="I5" s="38"/>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.69920424453217089</v>
+        <v>0.69737864768713886</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>9.9008020330583923E-2</v>
+        <v>9.9267203387231592E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>8.8772847721365733E-2</v>
+        <v>8.9005237157523717E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6880,11 +6880,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>E49-I49-E53</f>
-        <v>3751513.1448410768</v>
+        <v>3751463.9230989409</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.70836886728726567</v>
+        <v>0.70837269363462452</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6905,7 +6905,7 @@
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>6.3898194255809679</v>
+        <v>6.3897355879314865</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -7867,11 +7867,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>0.69920424453217089</v>
+        <v>0.69737864768713886</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>-18851.944841076391</v>
+        <v>-18802.723098940638</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>

--- a/financial_models/opportunities/0590.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F05CD80-3BC1-4A67-B7CC-B5417DD8C7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F28D1636-795D-4B6A-B402-1ED31B785239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2144,7 +2144,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="171">
-        <v>15.279999732971191</v>
+        <v>15.039999961853027</v>
       </c>
       <c r="H3" s="173" t="s">
         <v>2</v>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="G5" s="197">
         <f>G3*G4/1000000</f>
-        <v>8971.0077912252909</v>
+        <v>8830.1020416036135</v>
       </c>
       <c r="H5" s="197"/>
       <c r="I5" s="38"/>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="G23" s="188">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>0.69737864768713886</v>
+        <v>0.68642506661694713</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="G24" s="182">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>9.9267203387231592E-2</v>
+        <v>0.10085125299846182</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="G26" s="182">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>8.9005237157523717E-2</v>
+        <v>9.0425532144246021E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6880,11 +6880,11 @@
       <c r="C6" s="94"/>
       <c r="D6" s="75">
         <f>E49-I49-E53</f>
-        <v>3751463.9230989409</v>
+        <v>3751168.5926461262</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>0.70837269363462452</v>
+        <v>0.70839565171877716</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
@@ -6905,7 +6905,7 @@
       <c r="C7" s="94"/>
       <c r="D7" s="70">
         <f>MAX((D6*Exchange_Rate*Data!E3)/Common_Shares, 0)</f>
-        <v>6.3897355879314865</v>
+        <v>6.3892325620346009</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -7867,11 +7867,11 @@
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>0.69737864768713886</v>
+        <v>0.68642506661694713</v>
       </c>
       <c r="E53" s="95">
         <f>MAX(C53,C53*Dashboard!G23)</f>
-        <v>-18802.723098940638</v>
+        <v>-18507.392646126129</v>
       </c>
       <c r="F53" s="94"/>
       <c r="G53" s="94"/>

--- a/financial_models/opportunities/0590.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F28D1636-795D-4B6A-B402-1ED31B785239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDC4ECED-44E8-D64D-ACA0-E6EDC697528A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="740" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -802,16 +813,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00\x"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1273,7 +1284,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="213">
@@ -1329,8 +1340,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1353,14 +1364,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1385,7 +1396,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1402,7 +1413,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1410,7 +1421,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1457,7 +1468,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1531,7 +1542,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1610,10 +1621,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1624,16 +1635,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1697,7 +1708,7 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1706,10 +1717,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1724,7 +1735,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1738,7 +1749,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1746,13 +1757,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1762,9 +1773,9 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2095,19 +2106,19 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2116,7 +2127,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2131,7 +2142,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>222</v>
       </c>
@@ -2150,7 +2161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
         <v>223</v>
       </c>
@@ -2168,7 +2179,7 @@
       <c r="H4" s="205"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>180</v>
       </c>
@@ -2188,7 +2199,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2212,7 +2223,7 @@
       <c r="H6" s="198"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="93" t="s">
         <v>220</v>
       </c>
@@ -2234,8 +2245,8 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="180" t="s">
         <v>218</v>
       </c>
@@ -2243,7 +2254,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>199</v>
       </c>
@@ -2254,12 +2265,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="147" t="s">
         <v>203</v>
       </c>
       <c r="C11" s="184">
-        <v>5.2900000000000003E-2</v>
+        <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="177" t="s">
         <v>216</v>
@@ -2268,7 +2279,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2280,8 +2291,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>200</v>
       </c>
@@ -2292,7 +2303,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>212</v>
       </c>
@@ -2303,7 +2314,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="147" t="s">
         <v>213</v>
       </c>
@@ -2317,7 +2328,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="94" t="s">
         <v>205</v>
       </c>
@@ -2326,8 +2337,8 @@
       </c>
       <c r="D17" s="189"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="185" t="s">
         <v>209</v>
       </c>
@@ -2342,7 +2353,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="177" t="s">
         <v>187</v>
       </c>
@@ -2358,7 +2369,7 @@
         <v>8.5237544632605092E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="177" t="s">
         <v>188</v>
       </c>
@@ -2374,7 +2385,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="177" t="s">
         <v>189</v>
       </c>
@@ -2386,7 +2397,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="177" t="s">
         <v>190</v>
       </c>
@@ -2402,7 +2413,7 @@
         <v>0.68642506661694713</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="177" t="s">
         <v>191</v>
       </c>
@@ -2418,7 +2429,7 @@
         <v>0.10085125299846182</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="177" t="s">
         <v>219</v>
       </c>
@@ -2434,7 +2445,7 @@
         <v>0.8966227930318843</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="179" t="s">
         <v>193</v>
       </c>
@@ -2450,8 +2461,8 @@
         <v>9.0425532144246021E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2469,7 +2480,7 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>186</v>
       </c>
@@ -2488,900 +2499,900 @@
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3445,7 +3456,7 @@
       <selection pane="topRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3453,7 +3464,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3461,7 +3472,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3478,7 +3489,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3504,13 +3515,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="140" t="s">
         <v>146</v>
@@ -3560,7 +3571,7 @@
         <v>41729</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3590,7 +3601,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3641,7 +3652,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3671,7 +3682,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3722,7 +3733,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3752,7 +3763,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3803,7 +3814,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3825,7 +3836,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3876,7 +3887,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3894,7 +3905,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3920,7 +3931,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3946,7 +3957,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -3976,7 +3987,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -4006,7 +4017,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -4057,7 +4068,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4108,7 +4119,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4159,7 +4170,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4210,7 +4221,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4261,7 +4272,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="139" t="s">
         <v>147</v>
@@ -4312,7 +4323,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4363,7 +4374,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4390,7 +4401,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4417,7 +4428,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4444,7 +4455,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4471,7 +4482,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4498,7 +4509,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4525,7 +4536,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4552,7 +4563,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4603,7 +4614,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4630,7 +4641,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4657,7 +4668,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4684,7 +4695,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4735,7 +4746,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>173</v>
@@ -4786,7 +4797,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4804,7 +4815,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4855,7 +4866,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4906,7 +4917,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4957,7 +4968,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -5008,7 +5019,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -5059,7 +5070,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -5110,7 +5121,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5161,7 +5172,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5179,7 +5190,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5230,7 +5241,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5281,7 +5292,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5298,7 +5309,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5348,7 +5359,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5398,7 +5409,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5448,7 +5459,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5498,1260 +5509,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6790,7 +6801,7 @@
       <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
@@ -6799,11 +6810,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6819,7 +6830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6842,7 +6853,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6858,7 +6869,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6873,7 +6884,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -6898,7 +6909,7 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -6921,13 +6932,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6946,7 +6957,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6971,7 +6982,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -6996,7 +7007,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -7019,7 +7030,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -7042,7 +7053,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7063,7 +7074,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7086,7 +7097,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>174</v>
       </c>
@@ -7104,7 +7115,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7124,7 +7135,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7143,7 +7154,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7163,7 +7174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7185,7 +7196,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7204,7 +7215,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7226,7 +7237,7 @@
         <v>2867112</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7235,7 +7246,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7257,7 +7268,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7286,7 +7297,7 @@
         <v>2.0221788132366587</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7319,7 +7330,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7352,7 +7363,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7381,7 +7392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7393,7 +7404,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7412,7 +7423,7 @@
       <c r="I30" s="63"/>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7434,7 +7445,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7454,7 +7465,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>175</v>
       </c>
@@ -7477,7 +7488,7 @@
       <c r="I33" s="145"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7502,7 +7513,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7523,7 +7534,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7547,7 +7558,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7569,7 +7580,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7588,7 +7599,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7605,7 +7616,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7624,7 +7635,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7643,7 +7654,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7667,7 +7678,7 @@
         <v>153937</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7676,7 +7687,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7695,7 +7706,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7714,7 +7725,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7744,7 +7755,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7774,7 +7785,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7800,7 +7811,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7827,20 +7838,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7857,7 +7868,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7878,7 +7889,7 @@
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7887,7 +7898,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7898,7 +7909,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -7913,7 +7924,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7928,7 +7939,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7942,7 +7953,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7951,7 +7962,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -7965,7 +7976,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -7986,7 +7997,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -8007,7 +8018,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -8028,7 +8039,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="146" t="s">
         <v>164</v>
       </c>
@@ -8043,7 +8054,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -8064,7 +8075,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -8074,7 +8085,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -8088,7 +8099,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -8109,7 +8120,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="146" t="s">
         <v>165</v>
       </c>
@@ -8124,7 +8135,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8145,7 +8156,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
@@ -8159,7 +8170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
@@ -8173,7 +8184,7 @@
       </c>
       <c r="F73" s="207"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8188,7 +8199,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8209,7 +8220,7 @@
         <v>0.72762956087193742</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8224,7 +8235,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8245,7 +8256,7 @@
         <v>0.12012374818624762</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8260,7 +8271,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8281,7 +8292,7 @@
         <v>3.8885650375487034E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8302,7 +8313,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8326,7 +8337,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="79" t="s">
         <v>192</v>
       </c>
@@ -8346,7 +8357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8367,7 +8378,7 @@
         <v>7.7474362783882672E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8378,7 +8389,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="93" t="s">
         <v>181</v>
       </c>
@@ -8399,7 +8410,7 @@
         <v>5.8105772087912011E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="94" t="s">
         <v>176</v>
       </c>
@@ -8414,7 +8425,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="93" t="s">
         <v>177</v>
       </c>
@@ -8435,11 +8446,11 @@
         <v>0.8966227930318843</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>169</v>
@@ -8449,7 +8460,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="10" t="s">
         <v>170</v>
       </c>
@@ -8459,7 +8470,7 @@
       <c r="E90" s="212"/>
       <c r="G90" s="94"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>196</v>
       </c>
@@ -8476,7 +8487,7 @@
       </c>
       <c r="H91" s="187"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (US)</v>
@@ -8494,7 +8505,7 @@
       </c>
       <c r="H92" s="187"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8505,7 +8516,7 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
@@ -8518,7 +8529,7 @@
         <v>19.892496278684529</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
@@ -8533,7 +8544,7 @@
       <c r="E96" s="94"/>
       <c r="F96" s="138"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
@@ -8552,7 +8563,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
@@ -8573,7 +8584,7 @@
         <v>27.450850642925904</v>
       </c>
     </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="10" t="s">
         <v>179</v>
       </c>
@@ -8588,7 +8599,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>178</v>
       </c>
@@ -8609,7 +8620,7 @@
         <v>22.295081967213115</v>
       </c>
     </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="10" t="s">
         <v>182</v>
       </c>

--- a/financial_models/opportunities/0590.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE076D8-BC0F-484C-AAE8-BCC55066A7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B41B3F9-A63E-364E-B1C7-451D1D6B65BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -846,19 +857,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="13">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
-    <numFmt numFmtId="187" formatCode="&quot;@ &quot;0.00%&quot; Growth&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="175" formatCode="&quot;@ &quot;0.00%&quot; Growth&quot;"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1318,7 +1329,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="225">
@@ -1374,8 +1385,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1398,14 +1409,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1438,7 +1449,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1446,7 +1457,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1490,7 +1501,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1550,7 +1561,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1590,7 +1601,7 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1649,10 +1660,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1661,14 +1672,14 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1686,7 +1697,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="27" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="27" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1719,7 +1730,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1773,16 +1784,16 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1803,13 +1814,13 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1823,7 +1834,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1836,20 +1847,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2180,19 +2191,19 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="90"/>
       <c r="C1" s="90"/>
       <c r="D1" s="90"/>
@@ -2201,7 +2212,7 @@
       <c r="G1" s="90"/>
       <c r="H1" s="90"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2216,7 +2227,7 @@
       <c r="G2" s="89"/>
       <c r="H2" s="89"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>216</v>
       </c>
@@ -2229,13 +2240,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="142">
-        <v>15.039999961853027</v>
+        <v>15.220000267028809</v>
       </c>
       <c r="H3" s="144" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
         <v>217</v>
       </c>
@@ -2253,7 +2264,7 @@
       <c r="H4" s="217"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
@@ -2267,13 +2278,13 @@
       </c>
       <c r="G5" s="209">
         <f>G3*G4/1000000</f>
-        <v>8830.1020416036135</v>
+        <v>8935.7816337747099</v>
       </c>
       <c r="H5" s="209"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="90" t="s">
         <v>4</v>
       </c>
@@ -2297,7 +2308,7 @@
       <c r="H6" s="210"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="89" t="s">
         <v>214</v>
       </c>
@@ -2319,8 +2330,8 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="149" t="s">
         <v>212</v>
       </c>
@@ -2328,7 +2339,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>195</v>
       </c>
@@ -2339,7 +2350,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="130" t="s">
         <v>199</v>
       </c>
@@ -2353,7 +2364,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="90" t="s">
         <v>142</v>
       </c>
@@ -2361,23 +2372,23 @@
         <v>0.08</v>
       </c>
       <c r="D12" s="202">
-        <v>0.09</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="F12" s="115"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C14" s="202">
-        <v>2.0799999999999999E-2</v>
+        <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="115" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>207</v>
       </c>
@@ -2388,7 +2399,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="130" t="s">
         <v>208</v>
       </c>
@@ -2402,17 +2413,17 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="90" t="s">
         <v>201</v>
       </c>
       <c r="C17" s="205">
-        <v>0.1</v>
+        <v>8.8000000000000009E-2</v>
       </c>
       <c r="D17" s="206"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="152" t="s">
         <v>204</v>
       </c>
@@ -2425,7 +2436,7 @@
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="147" t="s">
         <v>185</v>
       </c>
@@ -2436,7 +2447,7 @@
       <c r="F20" s="90"/>
       <c r="G20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="147" t="s">
         <v>186</v>
       </c>
@@ -2447,7 +2458,7 @@
       <c r="F21" s="90"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="147" t="s">
         <v>187</v>
       </c>
@@ -2459,7 +2470,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="147" t="s">
         <v>188</v>
       </c>
@@ -2472,10 +2483,10 @@
       </c>
       <c r="G23" s="207">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.68642506661694713</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.69464027418242202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="147" t="s">
         <v>189</v>
       </c>
@@ -2488,10 +2499,10 @@
       </c>
       <c r="G24" s="208">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>0.10085125299846182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>9.9658529214060279E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="147" t="s">
         <v>213</v>
       </c>
@@ -2507,7 +2518,7 @@
         <v>0.8966227930318843</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="148" t="s">
         <v>191</v>
       </c>
@@ -2520,11 +2531,11 @@
       </c>
       <c r="G26" s="208">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>9.0425532144246021E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>8.9356108813360355E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="94" t="s">
         <v>7</v>
@@ -2542,919 +2553,919 @@
       <c r="G28" s="89"/>
       <c r="H28" s="89"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="90" t="s">
         <v>184</v>
       </c>
       <c r="C29" s="140">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>14.571428571428569</v>
+        <v>15.937499999999996</v>
       </c>
       <c r="D29" s="139">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>24.285714285714285</v>
+        <v>26.562499999999996</v>
       </c>
       <c r="E29" s="90"/>
       <c r="F29" s="141">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>19.428571428571427</v>
+        <v>21.249999999999996</v>
       </c>
       <c r="H29" s="90"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3518,7 +3529,7 @@
       <selection pane="topRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3526,7 +3537,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3534,7 +3545,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3559,7 +3570,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="108" t="s">
         <v>10</v>
@@ -3587,7 +3598,7 @@
       <c r="L3" s="90"/>
       <c r="M3" s="90"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="108" t="s">
         <v>11</v>
@@ -3608,7 +3619,7 @@
       </c>
       <c r="J4" s="90"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="123" t="s">
         <v>146</v>
@@ -3658,7 +3669,7 @@
         <v>41729</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="98" t="s">
         <v>12</v>
@@ -3688,7 +3699,7 @@
       <c r="M6" s="169"/>
       <c r="N6" s="90"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="100" t="s">
         <v>13</v>
@@ -3739,7 +3750,7 @@
       </c>
       <c r="N7" s="90"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="101" t="s">
         <v>109</v>
@@ -3769,7 +3780,7 @@
       <c r="M8" s="170"/>
       <c r="N8" s="90"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="102" t="s">
         <v>105</v>
@@ -3820,7 +3831,7 @@
       </c>
       <c r="N9" s="90"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="101" t="s">
         <v>107</v>
@@ -3850,7 +3861,7 @@
       <c r="M10" s="170"/>
       <c r="N10" s="90"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="98" t="s">
         <v>100</v>
@@ -3901,7 +3912,7 @@
       </c>
       <c r="N11" s="90"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="101" t="s">
         <v>108</v>
@@ -3923,7 +3934,7 @@
       <c r="M12" s="170"/>
       <c r="N12" s="90"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="102" t="s">
         <v>106</v>
@@ -3974,7 +3985,7 @@
       </c>
       <c r="N13" s="90"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="101" t="s">
         <v>110</v>
@@ -3992,7 +4003,7 @@
       <c r="M14" s="170"/>
       <c r="N14" s="90"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="101" t="s">
         <v>111</v>
@@ -4018,7 +4029,7 @@
       <c r="M15" s="170"/>
       <c r="N15" s="90"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="101" t="s">
         <v>113</v>
@@ -4044,7 +4055,7 @@
       <c r="M16" s="170"/>
       <c r="N16" s="90"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="101" t="s">
         <v>129</v>
@@ -4074,7 +4085,7 @@
       <c r="M17" s="170"/>
       <c r="N17" s="90"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="103" t="s">
         <v>114</v>
@@ -4104,7 +4115,7 @@
       <c r="M18" s="170"/>
       <c r="N18" s="90"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="103" t="s">
         <v>228</v>
@@ -4155,7 +4166,7 @@
       </c>
       <c r="N19" s="90"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="103" t="s">
         <v>229</v>
@@ -4206,7 +4217,7 @@
       </c>
       <c r="N20" s="90"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="98" t="s">
         <v>115</v>
@@ -4257,7 +4268,7 @@
       </c>
       <c r="N21" s="90"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="102" t="s">
         <v>116</v>
@@ -4308,7 +4319,7 @@
       </c>
       <c r="N22" s="90"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="104" t="s">
         <v>117</v>
@@ -4359,7 +4370,7 @@
       </c>
       <c r="N23" s="90"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="106" t="s">
         <v>118</v>
@@ -4410,7 +4421,7 @@
       </c>
       <c r="N24" s="90"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>138</v>
@@ -4461,7 +4472,7 @@
       </c>
       <c r="N25" s="90"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="122" t="s">
         <v>147</v>
@@ -4512,7 +4523,7 @@
       </c>
       <c r="N26" s="90"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="98" t="s">
         <v>14</v>
@@ -4563,7 +4574,7 @@
       </c>
       <c r="N27" s="90"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="98" t="s">
         <v>15</v>
@@ -4590,7 +4601,7 @@
       <c r="M28" s="170"/>
       <c r="N28" s="90"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="98" t="s">
         <v>121</v>
@@ -4617,7 +4628,7 @@
       <c r="M29" s="170"/>
       <c r="N29" s="90"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="98" t="s">
         <v>161</v>
@@ -4644,7 +4655,7 @@
       <c r="M30" s="170"/>
       <c r="N30" s="90"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="98" t="s">
         <v>16</v>
@@ -4671,7 +4682,7 @@
       <c r="M31" s="170"/>
       <c r="N31" s="90"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="98" t="s">
         <v>120</v>
@@ -4698,7 +4709,7 @@
       <c r="M32" s="170"/>
       <c r="N32" s="90"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="98" t="s">
         <v>17</v>
@@ -4725,7 +4736,7 @@
       <c r="M33" s="170"/>
       <c r="N33" s="90"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="98" t="s">
         <v>18</v>
@@ -4752,7 +4763,7 @@
       <c r="M34" s="170"/>
       <c r="N34" s="90"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="98" t="s">
         <v>19</v>
@@ -4803,7 +4814,7 @@
       </c>
       <c r="N35" s="90"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="98" t="s">
         <v>150</v>
@@ -4830,7 +4841,7 @@
       <c r="M36" s="170"/>
       <c r="N36" s="90"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="98" t="s">
         <v>151</v>
@@ -4857,7 +4868,7 @@
       <c r="M37" s="170"/>
       <c r="N37" s="90"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="98" t="s">
         <v>149</v>
@@ -4884,7 +4895,7 @@
       <c r="M38" s="170"/>
       <c r="N38" s="90"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="98" t="s">
         <v>153</v>
@@ -4935,7 +4946,7 @@
       </c>
       <c r="N39" s="90"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="102" t="s">
         <v>171</v>
@@ -4986,7 +4997,7 @@
       </c>
       <c r="N40" s="90"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
         <v>132</v>
@@ -5004,7 +5015,7 @@
       <c r="M41" s="54"/>
       <c r="N41" s="90"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="99" t="s">
         <v>99</v>
@@ -5055,7 +5066,7 @@
       </c>
       <c r="N42" s="90"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="98" t="s">
         <v>126</v>
@@ -5106,7 +5117,7 @@
       </c>
       <c r="N43" s="90"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="98" t="s">
         <v>101</v>
@@ -5157,7 +5168,7 @@
       </c>
       <c r="N44" s="90"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="98" t="s">
         <v>112</v>
@@ -5208,7 +5219,7 @@
       </c>
       <c r="N45" s="90"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="98" t="s">
         <v>127</v>
@@ -5259,7 +5270,7 @@
       </c>
       <c r="N46" s="90"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="98" t="s">
         <v>139</v>
@@ -5310,7 +5321,7 @@
       </c>
       <c r="N47" s="90"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="98" t="s">
         <v>130</v>
@@ -5361,7 +5372,7 @@
       </c>
       <c r="N48" s="90"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="16"/>
       <c r="B49" s="107" t="s">
         <v>162</v>
@@ -5379,7 +5390,7 @@
       <c r="M49" s="36"/>
       <c r="N49" s="90"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="99" t="s">
         <v>159</v>
@@ -5430,7 +5441,7 @@
       </c>
       <c r="N50" s="90"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="98" t="s">
         <v>160</v>
@@ -5481,7 +5492,7 @@
       </c>
       <c r="N51" s="90"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="16"/>
       <c r="B52" s="107" t="s">
         <v>131</v>
@@ -5498,7 +5509,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="99" t="s">
         <v>20</v>
@@ -5548,7 +5559,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="98" t="s">
         <v>125</v>
@@ -5598,7 +5609,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="98" t="s">
         <v>128</v>
@@ -5648,7 +5659,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="102" t="s">
         <v>21</v>
@@ -5698,1260 +5709,1260 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -6995,20 +7006,20 @@
       <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
     <col min="3" max="6" width="15.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -7024,7 +7035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -7047,7 +7058,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -7063,7 +7074,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="90"/>
       <c r="D5" s="90"/>
       <c r="E5" s="11" t="s">
@@ -7078,7 +7089,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -7103,7 +7114,7 @@
       <c r="J6" s="90"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -7126,13 +7137,13 @@
       <c r="J7" s="90"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="90"/>
       <c r="D8" s="90"/>
       <c r="E8" s="90"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -7151,7 +7162,7 @@
       <c r="I9" s="89"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -7176,7 +7187,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -7201,7 +7212,7 @@
       <c r="J11" s="90"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -7224,7 +7235,7 @@
       <c r="J12" s="90"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -7247,7 +7258,7 @@
       <c r="J13" s="90"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7268,7 +7279,7 @@
       <c r="J14" s="90"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7291,7 +7302,7 @@
       </c>
       <c r="J15" s="90"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>172</v>
       </c>
@@ -7309,7 +7320,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="90"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7329,7 +7340,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="90"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7348,7 +7359,7 @@
       <c r="H18" s="90"/>
       <c r="I18" s="90"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7368,7 +7379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7390,7 +7401,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7409,7 +7420,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7431,7 +7442,7 @@
         <v>2867112</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="90"/>
       <c r="D23" s="90"/>
       <c r="E23" s="90"/>
@@ -7440,7 +7451,7 @@
       </c>
       <c r="G23" s="90"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7462,7 +7473,7 @@
       </c>
       <c r="G24" s="90"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7491,7 +7502,7 @@
         <v>2.0221788132366587</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7524,7 +7535,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7557,7 +7568,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="81" t="s">
         <v>15</v>
       </c>
@@ -7586,7 +7597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="90"/>
       <c r="D29" s="90"/>
       <c r="E29" s="90"/>
@@ -7598,7 +7609,7 @@
       <c r="I29" s="90"/>
       <c r="J29" s="90"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7617,7 +7628,7 @@
       <c r="I30" s="60"/>
       <c r="J30" s="90"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7639,7 +7650,7 @@
       </c>
       <c r="J31" s="90"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7659,7 +7670,7 @@
       <c r="I32" s="60"/>
       <c r="J32" s="90"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>173</v>
       </c>
@@ -7682,7 +7693,7 @@
       <c r="I33" s="128"/>
       <c r="J33" s="90"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7707,7 +7718,7 @@
       </c>
       <c r="J34" s="90"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7728,7 +7739,7 @@
       </c>
       <c r="J35" s="90"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7752,7 +7763,7 @@
       <c r="H36" s="90"/>
       <c r="I36" s="90"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7774,7 +7785,7 @@
       <c r="H37" s="90"/>
       <c r="I37" s="90"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7793,7 +7804,7 @@
       <c r="H38" s="90"/>
       <c r="I38" s="90"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7810,7 +7821,7 @@
       <c r="H39" s="90"/>
       <c r="I39" s="90"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7829,7 +7840,7 @@
       <c r="H40" s="90"/>
       <c r="I40" s="90"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7848,7 +7859,7 @@
       <c r="H41" s="90"/>
       <c r="I41" s="90"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7872,7 +7883,7 @@
         <v>153937</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="90"/>
       <c r="D43" s="90"/>
       <c r="E43" s="90"/>
@@ -7881,7 +7892,7 @@
       <c r="H43" s="90"/>
       <c r="I43" s="90"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7900,7 +7911,7 @@
       <c r="F44" s="75"/>
       <c r="G44" s="90"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7919,7 +7930,7 @@
       <c r="F45" s="75"/>
       <c r="G45" s="90"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7949,7 +7960,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7979,7 +7990,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="83" t="s">
         <v>84</v>
       </c>
@@ -8005,7 +8016,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -8032,20 +8043,20 @@
       </c>
       <c r="J49" s="90"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="90"/>
       <c r="D50" s="90"/>
       <c r="E50" s="90"/>
       <c r="I50" s="90"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -8062,7 +8073,7 @@
       </c>
       <c r="I52" s="90"/>
     </row>
-    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -8083,7 +8094,7 @@
       <c r="H53" s="90"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="90"/>
       <c r="D54" s="90"/>
       <c r="E54" s="90"/>
@@ -8092,7 +8103,7 @@
       <c r="H54" s="90"/>
       <c r="I54" s="90"/>
     </row>
-    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -8103,7 +8114,7 @@
       <c r="H55" s="90"/>
       <c r="I55" s="90"/>
     </row>
-    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -8118,7 +8129,7 @@
       <c r="H56" s="90"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -8133,7 +8144,7 @@
       </c>
       <c r="I57" s="90"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -8147,7 +8158,7 @@
       <c r="H58" s="90"/>
       <c r="I58" s="90"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="90"/>
       <c r="D59" s="90"/>
       <c r="E59" s="90"/>
@@ -8156,7 +8167,7 @@
       <c r="H59" s="90"/>
       <c r="I59" s="90"/>
     </row>
-    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -8170,7 +8181,7 @@
       <c r="H60" s="90"/>
       <c r="I60" s="90"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -8191,7 +8202,7 @@
       <c r="H61" s="90"/>
       <c r="I61" s="90"/>
     </row>
-    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -8212,7 +8223,7 @@
       <c r="H62" s="90"/>
       <c r="I62" s="90"/>
     </row>
-    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -8233,7 +8244,7 @@
       <c r="H63" s="90"/>
       <c r="I63" s="90"/>
     </row>
-    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="129" t="s">
         <v>164</v>
       </c>
@@ -8248,7 +8259,7 @@
       <c r="H64" s="90"/>
       <c r="I64" s="90"/>
     </row>
-    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -8269,7 +8280,7 @@
       <c r="H65" s="90"/>
       <c r="I65" s="90"/>
     </row>
-    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="71"/>
       <c r="D66" s="29"/>
@@ -8279,7 +8290,7 @@
       <c r="H66" s="90"/>
       <c r="I66" s="90"/>
     </row>
-    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -8293,7 +8304,7 @@
       <c r="H67" s="90"/>
       <c r="I67" s="90"/>
     </row>
-    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -8314,7 +8325,7 @@
       <c r="H68" s="90"/>
       <c r="I68" s="90"/>
     </row>
-    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="129" t="s">
         <v>165</v>
       </c>
@@ -8329,7 +8340,7 @@
       <c r="H69" s="90"/>
       <c r="I69" s="90"/>
     </row>
-    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8350,7 +8361,7 @@
       <c r="H70" s="90"/>
       <c r="I70" s="90"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="111" t="s">
         <v>137</v>
@@ -8364,7 +8375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
@@ -8378,7 +8389,7 @@
       </c>
       <c r="F73" s="222"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8393,7 +8404,7 @@
       </c>
       <c r="F74" s="181"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="109" t="s">
         <v>109</v>
       </c>
@@ -8414,7 +8425,7 @@
         <v>0.72762956087193742</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8429,7 +8440,7 @@
       </c>
       <c r="F76" s="186"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="109" t="s">
         <v>133</v>
       </c>
@@ -8450,7 +8461,7 @@
         <v>0.12012374818624762</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8465,7 +8476,7 @@
       </c>
       <c r="F78" s="186"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="109" t="s">
         <v>129</v>
       </c>
@@ -8486,7 +8497,7 @@
         <v>3.8885650375487034E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8507,7 +8518,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8531,7 +8542,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="76" t="s">
         <v>190</v>
       </c>
@@ -8551,7 +8562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="110" t="s">
         <v>134</v>
       </c>
@@ -8572,7 +8583,7 @@
         <v>7.7474362783882672E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8583,7 +8594,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="89" t="s">
         <v>179</v>
       </c>
@@ -8604,7 +8615,7 @@
         <v>5.8105772087912011E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="90" t="s">
         <v>174</v>
       </c>
@@ -8619,7 +8630,7 @@
       </c>
       <c r="F86" s="181"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="89" t="s">
         <v>175</v>
       </c>
@@ -8640,11 +8651,11 @@
         <v>0.8966227930318843</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="28"/>
       <c r="C88" s="91"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5"/>
       <c r="B89" s="111" t="s">
         <v>168</v>
@@ -8654,7 +8665,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
@@ -8665,7 +8676,7 @@
       <c r="G90" s="90"/>
       <c r="H90" s="24"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>192</v>
       </c>
@@ -8678,18 +8689,18 @@
       <c r="E91" s="221"/>
       <c r="F91" s="29">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10085125299846182</v>
+        <v>9.9658529214060279E-2</v>
       </c>
       <c r="H91" s="161"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (US)</v>
       </c>
       <c r="C92" s="146">
         <f>IF(C91="CN",Dashboard!C17,IF(C91="US",Dashboard!C12,IF(C91="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>0.09</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="D92" s="160">
         <v>5</v>
@@ -8699,14 +8710,14 @@
       </c>
       <c r="F92" s="159">
         <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>27.247698771403389</v>
+        <v>29.036153442358085</v>
       </c>
       <c r="H92" s="161"/>
     </row>
-    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H93" s="24"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5"/>
       <c r="B94" s="111" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8724,25 +8735,25 @@
       </c>
       <c r="H94" s="24"/>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="95">
         <f>D95*Common_Shares/Data!C4</f>
-        <v>10397171.961466048</v>
+        <v>11389654.731304033</v>
       </c>
       <c r="D95" s="132">
         <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>17.709134635937925</v>
+        <v>19.399595374689731</v>
       </c>
       <c r="E95" s="132">
         <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>13.546921919557562</v>
+        <v>14.436099974091794</v>
       </c>
       <c r="H95" s="24"/>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
@@ -8758,7 +8769,7 @@
       <c r="F96" s="121"/>
       <c r="H96" s="24"/>
     </row>
-    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B97" s="110" t="s">
         <v>158</v>
       </c>
@@ -8776,32 +8787,32 @@
       </c>
       <c r="H97" s="24"/>
     </row>
-    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="95">
         <f>C95-C96+$C$97</f>
-        <v>11611419.161466047</v>
+        <v>12603901.931304034</v>
       </c>
       <c r="D98" s="114">
         <f>MAX(C98*Data!$C$4/Common_Shares,0)</f>
-        <v>19.777318871594115</v>
+        <v>21.467779610345925</v>
       </c>
       <c r="E98" s="114">
         <f>E95*Exchange_Rate-D96+D97</f>
-        <v>15.615106155213754</v>
+        <v>16.504284209747986</v>
       </c>
       <c r="F98" s="114">
         <f>D98*1.25</f>
-        <v>24.721648589492645</v>
+        <v>26.834724512932407</v>
       </c>
       <c r="H98" s="24"/>
     </row>
-    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H99" s="24"/>
     </row>
-    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="10" t="s">
         <v>177</v>
       </c>
@@ -8820,32 +8831,32 @@
       </c>
       <c r="H100" s="24"/>
     </row>
-    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C101" s="95">
         <f>D101*Common_Shares/Data!C4</f>
-        <v>11406666.800000001</v>
+        <v>12476041.812499998</v>
       </c>
       <c r="D101" s="132">
         <f>E87/(C92-D100)*Exchange_Rate</f>
-        <v>19.428571428571427</v>
+        <v>21.249999999999996</v>
       </c>
       <c r="E101" s="114">
         <f>D101*(1-25%)</f>
-        <v>14.571428571428569</v>
+        <v>15.937499999999996</v>
       </c>
       <c r="F101" s="114">
         <f>D101*1.25</f>
-        <v>24.285714285714285</v>
+        <v>26.562499999999996</v>
       </c>
       <c r="H101" s="24"/>
     </row>
-    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H102" s="24"/>
     </row>
-    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="10" t="s">
         <v>226</v>
       </c>
@@ -8864,28 +8875,28 @@
       </c>
       <c r="H103" s="24"/>
     </row>
-    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C104" s="95">
         <f>D104*Common_Shares/Data!C4</f>
-        <v>11509042.980733022</v>
+        <v>12539971.871902015</v>
       </c>
       <c r="D104" s="132">
         <f>(D98+D101)/2</f>
-        <v>19.602945150082771</v>
+        <v>21.358889805172961</v>
       </c>
       <c r="E104" s="114">
         <f>D104*(1-25%)</f>
-        <v>14.702208862562077</v>
+        <v>16.01916735387972</v>
       </c>
       <c r="F104" s="114">
         <f>D104*1.25</f>
-        <v>24.503681437603465</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>26.698612256466202</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="10" t="s">
         <v>180</v>
       </c>

--- a/financial_models/opportunities/0590.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B41B3F9-A63E-364E-B1C7-451D1D6B65BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57E0A64A-EA77-4EA2-8BDC-DFF097727A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -857,19 +846,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="13">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
-    <numFmt numFmtId="175" formatCode="&quot;@ &quot;0.00%&quot; Growth&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;@ &quot;0.00%&quot; Growth&quot;"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1329,7 +1318,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="225">
@@ -1385,8 +1374,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1409,14 +1398,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1449,7 +1438,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1457,7 +1446,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1501,7 +1490,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1561,7 +1550,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1601,7 +1590,7 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1660,10 +1649,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1672,14 +1661,14 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1697,7 +1686,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="27" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="27" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1730,7 +1719,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1784,16 +1773,16 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1814,13 +1803,13 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1834,7 +1823,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1847,20 +1836,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2191,19 +2180,19 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="90"/>
       <c r="C1" s="90"/>
       <c r="D1" s="90"/>
@@ -2212,7 +2201,7 @@
       <c r="G1" s="90"/>
       <c r="H1" s="90"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2227,7 +2216,7 @@
       <c r="G2" s="89"/>
       <c r="H2" s="89"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>216</v>
       </c>
@@ -2240,13 +2229,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="142">
-        <v>15.220000267028809</v>
+        <v>15.319999694824219</v>
       </c>
       <c r="H3" s="144" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="35" t="s">
         <v>217</v>
       </c>
@@ -2264,7 +2253,7 @@
       <c r="H4" s="217"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
@@ -2278,13 +2267,13 @@
       </c>
       <c r="G5" s="209">
         <f>G3*G4/1000000</f>
-        <v>8935.7816337747099</v>
+        <v>8994.4920828289032</v>
       </c>
       <c r="H5" s="209"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="90" t="s">
         <v>4</v>
       </c>
@@ -2308,7 +2297,7 @@
       <c r="H6" s="210"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="89" t="s">
         <v>214</v>
       </c>
@@ -2330,8 +2319,8 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="149" t="s">
         <v>212</v>
       </c>
@@ -2339,7 +2328,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>195</v>
       </c>
@@ -2350,7 +2339,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="130" t="s">
         <v>199</v>
       </c>
@@ -2364,7 +2353,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="90" t="s">
         <v>142</v>
       </c>
@@ -2376,8 +2365,8 @@
       </c>
       <c r="F12" s="115"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>196</v>
       </c>
@@ -2388,7 +2377,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>207</v>
       </c>
@@ -2399,7 +2388,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="130" t="s">
         <v>208</v>
       </c>
@@ -2413,7 +2402,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="90" t="s">
         <v>201</v>
       </c>
@@ -2422,8 +2411,8 @@
       </c>
       <c r="D17" s="206"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="152" t="s">
         <v>204</v>
       </c>
@@ -2436,7 +2425,7 @@
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="147" t="s">
         <v>185</v>
       </c>
@@ -2447,7 +2436,7 @@
       <c r="F20" s="90"/>
       <c r="G20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="147" t="s">
         <v>186</v>
       </c>
@@ -2458,7 +2447,7 @@
       <c r="F21" s="90"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="147" t="s">
         <v>187</v>
       </c>
@@ -2470,7 +2459,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="147" t="s">
         <v>188</v>
       </c>
@@ -2483,10 +2472,10 @@
       </c>
       <c r="G23" s="207">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.69464027418242202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.69920424453217089</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="147" t="s">
         <v>189</v>
       </c>
@@ -2499,10 +2488,10 @@
       </c>
       <c r="G24" s="208">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>9.9658529214060279E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>9.9008020330583923E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="147" t="s">
         <v>213</v>
       </c>
@@ -2518,7 +2507,7 @@
         <v>0.8966227930318843</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="148" t="s">
         <v>191</v>
       </c>
@@ -2531,11 +2520,11 @@
       </c>
       <c r="G26" s="208">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>8.9356108813360355E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>8.8772847721365733E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="94" t="s">
         <v>7</v>
@@ -2553,7 +2542,7 @@
       <c r="G28" s="89"/>
       <c r="H28" s="89"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="90" t="s">
         <v>184</v>
       </c>
@@ -2572,900 +2561,900 @@
       </c>
       <c r="H29" s="90"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3529,7 +3518,7 @@
       <selection pane="topRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3537,7 +3526,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3545,7 +3534,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3570,7 +3559,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="108" t="s">
         <v>10</v>
@@ -3598,7 +3587,7 @@
       <c r="L3" s="90"/>
       <c r="M3" s="90"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="108" t="s">
         <v>11</v>
@@ -3619,7 +3608,7 @@
       </c>
       <c r="J4" s="90"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="123" t="s">
         <v>146</v>
@@ -3669,7 +3658,7 @@
         <v>41729</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="98" t="s">
         <v>12</v>
@@ -3699,7 +3688,7 @@
       <c r="M6" s="169"/>
       <c r="N6" s="90"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="100" t="s">
         <v>13</v>
@@ -3750,7 +3739,7 @@
       </c>
       <c r="N7" s="90"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="101" t="s">
         <v>109</v>
@@ -3780,7 +3769,7 @@
       <c r="M8" s="170"/>
       <c r="N8" s="90"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="102" t="s">
         <v>105</v>
@@ -3831,7 +3820,7 @@
       </c>
       <c r="N9" s="90"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="101" t="s">
         <v>107</v>
@@ -3861,7 +3850,7 @@
       <c r="M10" s="170"/>
       <c r="N10" s="90"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="98" t="s">
         <v>100</v>
@@ -3912,7 +3901,7 @@
       </c>
       <c r="N11" s="90"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="101" t="s">
         <v>108</v>
@@ -3934,7 +3923,7 @@
       <c r="M12" s="170"/>
       <c r="N12" s="90"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="102" t="s">
         <v>106</v>
@@ -3985,7 +3974,7 @@
       </c>
       <c r="N13" s="90"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="101" t="s">
         <v>110</v>
@@ -4003,7 +3992,7 @@
       <c r="M14" s="170"/>
       <c r="N14" s="90"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="101" t="s">
         <v>111</v>
@@ -4029,7 +4018,7 @@
       <c r="M15" s="170"/>
       <c r="N15" s="90"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="101" t="s">
         <v>113</v>
@@ -4055,7 +4044,7 @@
       <c r="M16" s="170"/>
       <c r="N16" s="90"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="101" t="s">
         <v>129</v>
@@ -4085,7 +4074,7 @@
       <c r="M17" s="170"/>
       <c r="N17" s="90"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="103" t="s">
         <v>114</v>
@@ -4115,7 +4104,7 @@
       <c r="M18" s="170"/>
       <c r="N18" s="90"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="103" t="s">
         <v>228</v>
@@ -4166,7 +4155,7 @@
       </c>
       <c r="N19" s="90"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="103" t="s">
         <v>229</v>
@@ -4217,7 +4206,7 @@
       </c>
       <c r="N20" s="90"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="98" t="s">
         <v>115</v>
@@ -4268,7 +4257,7 @@
       </c>
       <c r="N21" s="90"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="102" t="s">
         <v>116</v>
@@ -4319,7 +4308,7 @@
       </c>
       <c r="N22" s="90"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="104" t="s">
         <v>117</v>
@@ -4370,7 +4359,7 @@
       </c>
       <c r="N23" s="90"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="106" t="s">
         <v>118</v>
@@ -4421,7 +4410,7 @@
       </c>
       <c r="N24" s="90"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>138</v>
@@ -4472,7 +4461,7 @@
       </c>
       <c r="N25" s="90"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="122" t="s">
         <v>147</v>
@@ -4523,7 +4512,7 @@
       </c>
       <c r="N26" s="90"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="98" t="s">
         <v>14</v>
@@ -4574,7 +4563,7 @@
       </c>
       <c r="N27" s="90"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="98" t="s">
         <v>15</v>
@@ -4601,7 +4590,7 @@
       <c r="M28" s="170"/>
       <c r="N28" s="90"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="98" t="s">
         <v>121</v>
@@ -4628,7 +4617,7 @@
       <c r="M29" s="170"/>
       <c r="N29" s="90"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="98" t="s">
         <v>161</v>
@@ -4655,7 +4644,7 @@
       <c r="M30" s="170"/>
       <c r="N30" s="90"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="98" t="s">
         <v>16</v>
@@ -4682,7 +4671,7 @@
       <c r="M31" s="170"/>
       <c r="N31" s="90"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="98" t="s">
         <v>120</v>
@@ -4709,7 +4698,7 @@
       <c r="M32" s="170"/>
       <c r="N32" s="90"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="98" t="s">
         <v>17</v>
@@ -4736,7 +4725,7 @@
       <c r="M33" s="170"/>
       <c r="N33" s="90"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="98" t="s">
         <v>18</v>
@@ -4763,7 +4752,7 @@
       <c r="M34" s="170"/>
       <c r="N34" s="90"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="98" t="s">
         <v>19</v>
@@ -4814,7 +4803,7 @@
       </c>
       <c r="N35" s="90"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="98" t="s">
         <v>150</v>
@@ -4841,7 +4830,7 @@
       <c r="M36" s="170"/>
       <c r="N36" s="90"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="98" t="s">
         <v>151</v>
@@ -4868,7 +4857,7 @@
       <c r="M37" s="170"/>
       <c r="N37" s="90"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="98" t="s">
         <v>149</v>
@@ -4895,7 +4884,7 @@
       <c r="M38" s="170"/>
       <c r="N38" s="90"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="98" t="s">
         <v>153</v>
@@ -4946,7 +4935,7 @@
       </c>
       <c r="N39" s="90"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="102" t="s">
         <v>171</v>
@@ -4997,7 +4986,7 @@
       </c>
       <c r="N40" s="90"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
         <v>132</v>
@@ -5015,7 +5004,7 @@
       <c r="M41" s="54"/>
       <c r="N41" s="90"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="99" t="s">
         <v>99</v>
@@ -5066,7 +5055,7 @@
       </c>
       <c r="N42" s="90"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="98" t="s">
         <v>126</v>
@@ -5117,7 +5106,7 @@
       </c>
       <c r="N43" s="90"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="98" t="s">
         <v>101</v>
@@ -5168,7 +5157,7 @@
       </c>
       <c r="N44" s="90"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="98" t="s">
         <v>112</v>
@@ -5219,7 +5208,7 @@
       </c>
       <c r="N45" s="90"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="98" t="s">
         <v>127</v>
@@ -5270,7 +5259,7 @@
       </c>
       <c r="N46" s="90"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="98" t="s">
         <v>139</v>
@@ -5321,7 +5310,7 @@
       </c>
       <c r="N47" s="90"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="98" t="s">
         <v>130</v>
@@ -5372,7 +5361,7 @@
       </c>
       <c r="N48" s="90"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="107" t="s">
         <v>162</v>
@@ -5390,7 +5379,7 @@
       <c r="M49" s="36"/>
       <c r="N49" s="90"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="99" t="s">
         <v>159</v>
@@ -5441,7 +5430,7 @@
       </c>
       <c r="N50" s="90"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="98" t="s">
         <v>160</v>
@@ -5492,7 +5481,7 @@
       </c>
       <c r="N51" s="90"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="107" t="s">
         <v>131</v>
@@ -5509,7 +5498,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="99" t="s">
         <v>20</v>
@@ -5559,7 +5548,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="98" t="s">
         <v>125</v>
@@ -5609,7 +5598,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="98" t="s">
         <v>128</v>
@@ -5659,7 +5648,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="102" t="s">
         <v>21</v>
@@ -5709,1260 +5698,1260 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -7006,7 +6995,7 @@
       <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -7015,11 +7004,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -7035,7 +7024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -7058,7 +7047,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -7074,7 +7063,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="90"/>
       <c r="D5" s="90"/>
       <c r="E5" s="11" t="s">
@@ -7089,7 +7078,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -7114,7 +7103,7 @@
       <c r="J6" s="90"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -7137,13 +7126,13 @@
       <c r="J7" s="90"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="90"/>
       <c r="D8" s="90"/>
       <c r="E8" s="90"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -7162,7 +7151,7 @@
       <c r="I9" s="89"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -7187,7 +7176,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -7212,7 +7201,7 @@
       <c r="J11" s="90"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -7235,7 +7224,7 @@
       <c r="J12" s="90"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -7258,7 +7247,7 @@
       <c r="J13" s="90"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7279,7 +7268,7 @@
       <c r="J14" s="90"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7302,7 +7291,7 @@
       </c>
       <c r="J15" s="90"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>172</v>
       </c>
@@ -7320,7 +7309,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="90"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7340,7 +7329,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="90"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7359,7 +7348,7 @@
       <c r="H18" s="90"/>
       <c r="I18" s="90"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7379,7 +7368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7401,7 +7390,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7420,7 +7409,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7442,7 +7431,7 @@
         <v>2867112</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="90"/>
       <c r="D23" s="90"/>
       <c r="E23" s="90"/>
@@ -7451,7 +7440,7 @@
       </c>
       <c r="G23" s="90"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7473,7 +7462,7 @@
       </c>
       <c r="G24" s="90"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7502,7 +7491,7 @@
         <v>2.0221788132366587</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7535,7 +7524,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7568,7 +7557,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="81" t="s">
         <v>15</v>
       </c>
@@ -7597,7 +7586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="90"/>
       <c r="D29" s="90"/>
       <c r="E29" s="90"/>
@@ -7609,7 +7598,7 @@
       <c r="I29" s="90"/>
       <c r="J29" s="90"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7628,7 +7617,7 @@
       <c r="I30" s="60"/>
       <c r="J30" s="90"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7650,7 +7639,7 @@
       </c>
       <c r="J31" s="90"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7670,7 +7659,7 @@
       <c r="I32" s="60"/>
       <c r="J32" s="90"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>173</v>
       </c>
@@ -7693,7 +7682,7 @@
       <c r="I33" s="128"/>
       <c r="J33" s="90"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7718,7 +7707,7 @@
       </c>
       <c r="J34" s="90"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7739,7 +7728,7 @@
       </c>
       <c r="J35" s="90"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7763,7 +7752,7 @@
       <c r="H36" s="90"/>
       <c r="I36" s="90"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7785,7 +7774,7 @@
       <c r="H37" s="90"/>
       <c r="I37" s="90"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7804,7 +7793,7 @@
       <c r="H38" s="90"/>
       <c r="I38" s="90"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7821,7 +7810,7 @@
       <c r="H39" s="90"/>
       <c r="I39" s="90"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7840,7 +7829,7 @@
       <c r="H40" s="90"/>
       <c r="I40" s="90"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7859,7 +7848,7 @@
       <c r="H41" s="90"/>
       <c r="I41" s="90"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7883,7 +7872,7 @@
         <v>153937</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="90"/>
       <c r="D43" s="90"/>
       <c r="E43" s="90"/>
@@ -7892,7 +7881,7 @@
       <c r="H43" s="90"/>
       <c r="I43" s="90"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7911,7 +7900,7 @@
       <c r="F44" s="75"/>
       <c r="G44" s="90"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7930,7 +7919,7 @@
       <c r="F45" s="75"/>
       <c r="G45" s="90"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7960,7 +7949,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7990,7 +7979,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="83" t="s">
         <v>84</v>
       </c>
@@ -8016,7 +8005,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -8043,20 +8032,20 @@
       </c>
       <c r="J49" s="90"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="90"/>
       <c r="D50" s="90"/>
       <c r="E50" s="90"/>
       <c r="I50" s="90"/>
     </row>
-    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -8073,7 +8062,7 @@
       </c>
       <c r="I52" s="90"/>
     </row>
-    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -8094,7 +8083,7 @@
       <c r="H53" s="90"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="90"/>
       <c r="D54" s="90"/>
       <c r="E54" s="90"/>
@@ -8103,7 +8092,7 @@
       <c r="H54" s="90"/>
       <c r="I54" s="90"/>
     </row>
-    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -8114,7 +8103,7 @@
       <c r="H55" s="90"/>
       <c r="I55" s="90"/>
     </row>
-    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -8129,7 +8118,7 @@
       <c r="H56" s="90"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -8144,7 +8133,7 @@
       </c>
       <c r="I57" s="90"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -8158,7 +8147,7 @@
       <c r="H58" s="90"/>
       <c r="I58" s="90"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="90"/>
       <c r="D59" s="90"/>
       <c r="E59" s="90"/>
@@ -8167,7 +8156,7 @@
       <c r="H59" s="90"/>
       <c r="I59" s="90"/>
     </row>
-    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -8181,7 +8170,7 @@
       <c r="H60" s="90"/>
       <c r="I60" s="90"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -8202,7 +8191,7 @@
       <c r="H61" s="90"/>
       <c r="I61" s="90"/>
     </row>
-    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -8223,7 +8212,7 @@
       <c r="H62" s="90"/>
       <c r="I62" s="90"/>
     </row>
-    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -8244,7 +8233,7 @@
       <c r="H63" s="90"/>
       <c r="I63" s="90"/>
     </row>
-    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="129" t="s">
         <v>164</v>
       </c>
@@ -8259,7 +8248,7 @@
       <c r="H64" s="90"/>
       <c r="I64" s="90"/>
     </row>
-    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -8280,7 +8269,7 @@
       <c r="H65" s="90"/>
       <c r="I65" s="90"/>
     </row>
-    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="71"/>
       <c r="D66" s="29"/>
@@ -8290,7 +8279,7 @@
       <c r="H66" s="90"/>
       <c r="I66" s="90"/>
     </row>
-    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -8304,7 +8293,7 @@
       <c r="H67" s="90"/>
       <c r="I67" s="90"/>
     </row>
-    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -8325,7 +8314,7 @@
       <c r="H68" s="90"/>
       <c r="I68" s="90"/>
     </row>
-    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="129" t="s">
         <v>165</v>
       </c>
@@ -8340,7 +8329,7 @@
       <c r="H69" s="90"/>
       <c r="I69" s="90"/>
     </row>
-    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8361,7 +8350,7 @@
       <c r="H70" s="90"/>
       <c r="I70" s="90"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="111" t="s">
         <v>137</v>
@@ -8375,7 +8364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
@@ -8389,7 +8378,7 @@
       </c>
       <c r="F73" s="222"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8404,7 +8393,7 @@
       </c>
       <c r="F74" s="181"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="109" t="s">
         <v>109</v>
       </c>
@@ -8425,7 +8414,7 @@
         <v>0.72762956087193742</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8440,7 +8429,7 @@
       </c>
       <c r="F76" s="186"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="109" t="s">
         <v>133</v>
       </c>
@@ -8461,7 +8450,7 @@
         <v>0.12012374818624762</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8476,7 +8465,7 @@
       </c>
       <c r="F78" s="186"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="109" t="s">
         <v>129</v>
       </c>
@@ -8497,7 +8486,7 @@
         <v>3.8885650375487034E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8518,7 +8507,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8542,7 +8531,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="76" t="s">
         <v>190</v>
       </c>
@@ -8562,7 +8551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="110" t="s">
         <v>134</v>
       </c>
@@ -8583,7 +8572,7 @@
         <v>7.7474362783882672E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8594,7 +8583,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="89" t="s">
         <v>179</v>
       </c>
@@ -8615,7 +8604,7 @@
         <v>5.8105772087912011E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="90" t="s">
         <v>174</v>
       </c>
@@ -8630,7 +8619,7 @@
       </c>
       <c r="F86" s="181"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="89" t="s">
         <v>175</v>
       </c>
@@ -8651,11 +8640,11 @@
         <v>0.8966227930318843</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
       <c r="C88" s="91"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="111" t="s">
         <v>168</v>
@@ -8665,7 +8654,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
@@ -8676,7 +8665,7 @@
       <c r="G90" s="90"/>
       <c r="H90" s="24"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
         <v>192</v>
       </c>
@@ -8689,11 +8678,11 @@
       <c r="E91" s="221"/>
       <c r="F91" s="29">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.9658529214060279E-2</v>
+        <v>9.9008020330583923E-2</v>
       </c>
       <c r="H91" s="161"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (US)</v>
@@ -8710,14 +8699,14 @@
       </c>
       <c r="F92" s="159">
         <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>29.036153442358085</v>
+        <v>28.95037253151391</v>
       </c>
       <c r="H92" s="161"/>
     </row>
-    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H93" s="24"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="111" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8735,25 +8724,25 @@
       </c>
       <c r="H94" s="24"/>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="95">
         <f>D95*Common_Shares/Data!C4</f>
-        <v>11389654.731304033</v>
+        <v>11356006.508615326</v>
       </c>
       <c r="D95" s="132">
         <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>19.399595374689731</v>
+        <v>19.342283549121895</v>
       </c>
       <c r="E95" s="132">
         <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>14.436099974091794</v>
+        <v>14.393451700887374</v>
       </c>
       <c r="H95" s="24"/>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
@@ -8769,7 +8758,7 @@
       <c r="F96" s="121"/>
       <c r="H96" s="24"/>
     </row>
-    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B97" s="110" t="s">
         <v>158</v>
       </c>
@@ -8787,32 +8776,32 @@
       </c>
       <c r="H97" s="24"/>
     </row>
-    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="95">
         <f>C95-C96+$C$97</f>
-        <v>12603901.931304034</v>
+        <v>12570253.708615325</v>
       </c>
       <c r="D98" s="114">
         <f>MAX(C98*Data!$C$4/Common_Shares,0)</f>
-        <v>21.467779610345925</v>
+        <v>21.410467784778088</v>
       </c>
       <c r="E98" s="114">
         <f>E95*Exchange_Rate-D96+D97</f>
-        <v>16.504284209747986</v>
+        <v>16.461635936543566</v>
       </c>
       <c r="F98" s="114">
         <f>D98*1.25</f>
-        <v>26.834724512932407</v>
+        <v>26.763084730972611</v>
       </c>
       <c r="H98" s="24"/>
     </row>
-    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H99" s="24"/>
     </row>
-    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10" t="s">
         <v>177</v>
       </c>
@@ -8831,7 +8820,7 @@
       </c>
       <c r="H100" s="24"/>
     </row>
-    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1" t="s">
         <v>176</v>
       </c>
@@ -8853,10 +8842,10 @@
       </c>
       <c r="H101" s="24"/>
     </row>
-    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H102" s="24"/>
     </row>
-    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
         <v>226</v>
       </c>
@@ -8875,28 +8864,28 @@
       </c>
       <c r="H103" s="24"/>
     </row>
-    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B104" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C104" s="95">
         <f>D104*Common_Shares/Data!C4</f>
-        <v>12539971.871902015</v>
+        <v>12523147.760557663</v>
       </c>
       <c r="D104" s="132">
         <f>(D98+D101)/2</f>
-        <v>21.358889805172961</v>
+        <v>21.330233892389042</v>
       </c>
       <c r="E104" s="114">
         <f>D104*(1-25%)</f>
-        <v>16.01916735387972</v>
+        <v>15.997675419291781</v>
       </c>
       <c r="F104" s="114">
         <f>D104*1.25</f>
-        <v>26.698612256466202</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>26.662792365486304</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="10" t="s">
         <v>180</v>
       </c>

--- a/financial_models/opportunities/0590.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57E0A64A-EA77-4EA2-8BDC-DFF097727A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00760B1F-2EBB-8241-87FB-3328B4037BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1480" yWindow="1480" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -846,19 +857,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="13">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
-    <numFmt numFmtId="187" formatCode="&quot;@ &quot;0.00%&quot; Growth&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="175" formatCode="&quot;@ &quot;0.00%&quot; Growth&quot;"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1318,7 +1329,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="225">
@@ -1374,8 +1385,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1398,14 +1409,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1438,7 +1449,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1446,7 +1457,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1490,7 +1501,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1550,7 +1561,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1590,7 +1601,7 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1649,10 +1660,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1661,14 +1672,14 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1686,7 +1697,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="27" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="27" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1719,7 +1730,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1773,16 +1784,16 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1803,13 +1814,13 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1823,7 +1834,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1836,20 +1847,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2180,19 +2191,19 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="90"/>
       <c r="C1" s="90"/>
       <c r="D1" s="90"/>
@@ -2201,7 +2212,7 @@
       <c r="G1" s="90"/>
       <c r="H1" s="90"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2216,7 +2227,7 @@
       <c r="G2" s="89"/>
       <c r="H2" s="89"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>216</v>
       </c>
@@ -2229,13 +2240,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="142">
-        <v>15.319999694824219</v>
+        <v>15.260000228881836</v>
       </c>
       <c r="H3" s="144" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
         <v>217</v>
       </c>
@@ -2253,7 +2264,7 @@
       <c r="H4" s="217"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
@@ -2267,13 +2278,13 @@
       </c>
       <c r="G5" s="209">
         <f>G3*G4/1000000</f>
-        <v>8994.4920828289032</v>
+        <v>8959.2659253783222</v>
       </c>
       <c r="H5" s="209"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="90" t="s">
         <v>4</v>
       </c>
@@ -2297,7 +2308,7 @@
       <c r="H6" s="210"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="89" t="s">
         <v>214</v>
       </c>
@@ -2319,8 +2330,8 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="149" t="s">
         <v>212</v>
       </c>
@@ -2328,7 +2339,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>195</v>
       </c>
@@ -2339,7 +2350,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="130" t="s">
         <v>199</v>
       </c>
@@ -2353,7 +2364,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="90" t="s">
         <v>142</v>
       </c>
@@ -2365,8 +2376,8 @@
       </c>
       <c r="F12" s="115"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>196</v>
       </c>
@@ -2377,7 +2388,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>207</v>
       </c>
@@ -2388,7 +2399,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="130" t="s">
         <v>208</v>
       </c>
@@ -2402,7 +2413,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="90" t="s">
         <v>201</v>
       </c>
@@ -2411,8 +2422,8 @@
       </c>
       <c r="D17" s="206"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="152" t="s">
         <v>204</v>
       </c>
@@ -2425,7 +2436,7 @@
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="147" t="s">
         <v>185</v>
       </c>
@@ -2436,7 +2447,7 @@
       <c r="F20" s="90"/>
       <c r="G20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="147" t="s">
         <v>186</v>
       </c>
@@ -2447,7 +2458,7 @@
       <c r="F21" s="90"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="147" t="s">
         <v>187</v>
       </c>
@@ -2459,7 +2470,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="147" t="s">
         <v>188</v>
       </c>
@@ -2472,10 +2483,10 @@
       </c>
       <c r="G23" s="207">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.69920424453217089</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.69646587102745394</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="147" t="s">
         <v>189</v>
       </c>
@@ -2488,10 +2499,10 @@
       </c>
       <c r="G24" s="208">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>9.9008020330583923E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>9.9397301343345928E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="147" t="s">
         <v>213</v>
       </c>
@@ -2507,7 +2518,7 @@
         <v>0.8966227930318843</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="148" t="s">
         <v>191</v>
       </c>
@@ -2520,11 +2531,11 @@
       </c>
       <c r="G26" s="208">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>8.8772847721365733E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>8.9121885950302682E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="94" t="s">
         <v>7</v>
@@ -2542,7 +2553,7 @@
       <c r="G28" s="89"/>
       <c r="H28" s="89"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="90" t="s">
         <v>184</v>
       </c>
@@ -2561,900 +2572,900 @@
       </c>
       <c r="H29" s="90"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3518,7 +3529,7 @@
       <selection pane="topRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3526,7 +3537,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3534,7 +3545,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3559,7 +3570,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="108" t="s">
         <v>10</v>
@@ -3587,7 +3598,7 @@
       <c r="L3" s="90"/>
       <c r="M3" s="90"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="108" t="s">
         <v>11</v>
@@ -3608,7 +3619,7 @@
       </c>
       <c r="J4" s="90"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="123" t="s">
         <v>146</v>
@@ -3658,7 +3669,7 @@
         <v>41729</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="98" t="s">
         <v>12</v>
@@ -3688,7 +3699,7 @@
       <c r="M6" s="169"/>
       <c r="N6" s="90"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="100" t="s">
         <v>13</v>
@@ -3739,7 +3750,7 @@
       </c>
       <c r="N7" s="90"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="101" t="s">
         <v>109</v>
@@ -3769,7 +3780,7 @@
       <c r="M8" s="170"/>
       <c r="N8" s="90"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="102" t="s">
         <v>105</v>
@@ -3820,7 +3831,7 @@
       </c>
       <c r="N9" s="90"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="101" t="s">
         <v>107</v>
@@ -3850,7 +3861,7 @@
       <c r="M10" s="170"/>
       <c r="N10" s="90"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="98" t="s">
         <v>100</v>
@@ -3901,7 +3912,7 @@
       </c>
       <c r="N11" s="90"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="101" t="s">
         <v>108</v>
@@ -3923,7 +3934,7 @@
       <c r="M12" s="170"/>
       <c r="N12" s="90"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="102" t="s">
         <v>106</v>
@@ -3974,7 +3985,7 @@
       </c>
       <c r="N13" s="90"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="101" t="s">
         <v>110</v>
@@ -3992,7 +4003,7 @@
       <c r="M14" s="170"/>
       <c r="N14" s="90"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="101" t="s">
         <v>111</v>
@@ -4018,7 +4029,7 @@
       <c r="M15" s="170"/>
       <c r="N15" s="90"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="101" t="s">
         <v>113</v>
@@ -4044,7 +4055,7 @@
       <c r="M16" s="170"/>
       <c r="N16" s="90"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="101" t="s">
         <v>129</v>
@@ -4074,7 +4085,7 @@
       <c r="M17" s="170"/>
       <c r="N17" s="90"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="103" t="s">
         <v>114</v>
@@ -4104,7 +4115,7 @@
       <c r="M18" s="170"/>
       <c r="N18" s="90"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="103" t="s">
         <v>228</v>
@@ -4155,7 +4166,7 @@
       </c>
       <c r="N19" s="90"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="103" t="s">
         <v>229</v>
@@ -4206,7 +4217,7 @@
       </c>
       <c r="N20" s="90"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="98" t="s">
         <v>115</v>
@@ -4257,7 +4268,7 @@
       </c>
       <c r="N21" s="90"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="102" t="s">
         <v>116</v>
@@ -4308,7 +4319,7 @@
       </c>
       <c r="N22" s="90"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="104" t="s">
         <v>117</v>
@@ -4359,7 +4370,7 @@
       </c>
       <c r="N23" s="90"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="106" t="s">
         <v>118</v>
@@ -4410,7 +4421,7 @@
       </c>
       <c r="N24" s="90"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>138</v>
@@ -4461,7 +4472,7 @@
       </c>
       <c r="N25" s="90"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="122" t="s">
         <v>147</v>
@@ -4512,7 +4523,7 @@
       </c>
       <c r="N26" s="90"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="98" t="s">
         <v>14</v>
@@ -4563,7 +4574,7 @@
       </c>
       <c r="N27" s="90"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="98" t="s">
         <v>15</v>
@@ -4590,7 +4601,7 @@
       <c r="M28" s="170"/>
       <c r="N28" s="90"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="98" t="s">
         <v>121</v>
@@ -4617,7 +4628,7 @@
       <c r="M29" s="170"/>
       <c r="N29" s="90"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="98" t="s">
         <v>161</v>
@@ -4644,7 +4655,7 @@
       <c r="M30" s="170"/>
       <c r="N30" s="90"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="98" t="s">
         <v>16</v>
@@ -4671,7 +4682,7 @@
       <c r="M31" s="170"/>
       <c r="N31" s="90"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="98" t="s">
         <v>120</v>
@@ -4698,7 +4709,7 @@
       <c r="M32" s="170"/>
       <c r="N32" s="90"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="98" t="s">
         <v>17</v>
@@ -4725,7 +4736,7 @@
       <c r="M33" s="170"/>
       <c r="N33" s="90"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="98" t="s">
         <v>18</v>
@@ -4752,7 +4763,7 @@
       <c r="M34" s="170"/>
       <c r="N34" s="90"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="98" t="s">
         <v>19</v>
@@ -4803,7 +4814,7 @@
       </c>
       <c r="N35" s="90"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="98" t="s">
         <v>150</v>
@@ -4830,7 +4841,7 @@
       <c r="M36" s="170"/>
       <c r="N36" s="90"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="98" t="s">
         <v>151</v>
@@ -4857,7 +4868,7 @@
       <c r="M37" s="170"/>
       <c r="N37" s="90"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="98" t="s">
         <v>149</v>
@@ -4884,7 +4895,7 @@
       <c r="M38" s="170"/>
       <c r="N38" s="90"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="98" t="s">
         <v>153</v>
@@ -4935,7 +4946,7 @@
       </c>
       <c r="N39" s="90"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="102" t="s">
         <v>171</v>
@@ -4986,7 +4997,7 @@
       </c>
       <c r="N40" s="90"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
         <v>132</v>
@@ -5004,7 +5015,7 @@
       <c r="M41" s="54"/>
       <c r="N41" s="90"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="99" t="s">
         <v>99</v>
@@ -5055,7 +5066,7 @@
       </c>
       <c r="N42" s="90"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="98" t="s">
         <v>126</v>
@@ -5106,7 +5117,7 @@
       </c>
       <c r="N43" s="90"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="98" t="s">
         <v>101</v>
@@ -5157,7 +5168,7 @@
       </c>
       <c r="N44" s="90"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="98" t="s">
         <v>112</v>
@@ -5208,7 +5219,7 @@
       </c>
       <c r="N45" s="90"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="98" t="s">
         <v>127</v>
@@ -5259,7 +5270,7 @@
       </c>
       <c r="N46" s="90"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="98" t="s">
         <v>139</v>
@@ -5310,7 +5321,7 @@
       </c>
       <c r="N47" s="90"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="98" t="s">
         <v>130</v>
@@ -5361,7 +5372,7 @@
       </c>
       <c r="N48" s="90"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="16"/>
       <c r="B49" s="107" t="s">
         <v>162</v>
@@ -5379,7 +5390,7 @@
       <c r="M49" s="36"/>
       <c r="N49" s="90"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="99" t="s">
         <v>159</v>
@@ -5430,7 +5441,7 @@
       </c>
       <c r="N50" s="90"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="98" t="s">
         <v>160</v>
@@ -5481,7 +5492,7 @@
       </c>
       <c r="N51" s="90"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="16"/>
       <c r="B52" s="107" t="s">
         <v>131</v>
@@ -5498,7 +5509,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="99" t="s">
         <v>20</v>
@@ -5548,7 +5559,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="98" t="s">
         <v>125</v>
@@ -5598,7 +5609,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="98" t="s">
         <v>128</v>
@@ -5648,7 +5659,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="102" t="s">
         <v>21</v>
@@ -5698,1260 +5709,1260 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -6995,7 +7006,7 @@
       <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -7004,11 +7015,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -7024,7 +7035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -7047,7 +7058,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -7063,7 +7074,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="90"/>
       <c r="D5" s="90"/>
       <c r="E5" s="11" t="s">
@@ -7078,7 +7089,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -7103,7 +7114,7 @@
       <c r="J6" s="90"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -7126,13 +7137,13 @@
       <c r="J7" s="90"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="90"/>
       <c r="D8" s="90"/>
       <c r="E8" s="90"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -7151,7 +7162,7 @@
       <c r="I9" s="89"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -7176,7 +7187,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -7201,7 +7212,7 @@
       <c r="J11" s="90"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -7224,7 +7235,7 @@
       <c r="J12" s="90"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -7247,7 +7258,7 @@
       <c r="J13" s="90"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7268,7 +7279,7 @@
       <c r="J14" s="90"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7291,7 +7302,7 @@
       </c>
       <c r="J15" s="90"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>172</v>
       </c>
@@ -7309,7 +7320,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="90"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7329,7 +7340,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="90"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7348,7 +7359,7 @@
       <c r="H18" s="90"/>
       <c r="I18" s="90"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7368,7 +7379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7390,7 +7401,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7409,7 +7420,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7431,7 +7442,7 @@
         <v>2867112</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="90"/>
       <c r="D23" s="90"/>
       <c r="E23" s="90"/>
@@ -7440,7 +7451,7 @@
       </c>
       <c r="G23" s="90"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7462,7 +7473,7 @@
       </c>
       <c r="G24" s="90"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7491,7 +7502,7 @@
         <v>2.0221788132366587</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7524,7 +7535,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7557,7 +7568,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="81" t="s">
         <v>15</v>
       </c>
@@ -7586,7 +7597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="90"/>
       <c r="D29" s="90"/>
       <c r="E29" s="90"/>
@@ -7598,7 +7609,7 @@
       <c r="I29" s="90"/>
       <c r="J29" s="90"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7617,7 +7628,7 @@
       <c r="I30" s="60"/>
       <c r="J30" s="90"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7639,7 +7650,7 @@
       </c>
       <c r="J31" s="90"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7659,7 +7670,7 @@
       <c r="I32" s="60"/>
       <c r="J32" s="90"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>173</v>
       </c>
@@ -7682,7 +7693,7 @@
       <c r="I33" s="128"/>
       <c r="J33" s="90"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7707,7 +7718,7 @@
       </c>
       <c r="J34" s="90"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7728,7 +7739,7 @@
       </c>
       <c r="J35" s="90"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7752,7 +7763,7 @@
       <c r="H36" s="90"/>
       <c r="I36" s="90"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7774,7 +7785,7 @@
       <c r="H37" s="90"/>
       <c r="I37" s="90"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7793,7 +7804,7 @@
       <c r="H38" s="90"/>
       <c r="I38" s="90"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7810,7 +7821,7 @@
       <c r="H39" s="90"/>
       <c r="I39" s="90"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7829,7 +7840,7 @@
       <c r="H40" s="90"/>
       <c r="I40" s="90"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7848,7 +7859,7 @@
       <c r="H41" s="90"/>
       <c r="I41" s="90"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7872,7 +7883,7 @@
         <v>153937</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="90"/>
       <c r="D43" s="90"/>
       <c r="E43" s="90"/>
@@ -7881,7 +7892,7 @@
       <c r="H43" s="90"/>
       <c r="I43" s="90"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7900,7 +7911,7 @@
       <c r="F44" s="75"/>
       <c r="G44" s="90"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7919,7 +7930,7 @@
       <c r="F45" s="75"/>
       <c r="G45" s="90"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7949,7 +7960,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7979,7 +7990,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="83" t="s">
         <v>84</v>
       </c>
@@ -8005,7 +8016,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -8032,20 +8043,20 @@
       </c>
       <c r="J49" s="90"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="90"/>
       <c r="D50" s="90"/>
       <c r="E50" s="90"/>
       <c r="I50" s="90"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -8062,7 +8073,7 @@
       </c>
       <c r="I52" s="90"/>
     </row>
-    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -8083,7 +8094,7 @@
       <c r="H53" s="90"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="90"/>
       <c r="D54" s="90"/>
       <c r="E54" s="90"/>
@@ -8092,7 +8103,7 @@
       <c r="H54" s="90"/>
       <c r="I54" s="90"/>
     </row>
-    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -8103,7 +8114,7 @@
       <c r="H55" s="90"/>
       <c r="I55" s="90"/>
     </row>
-    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -8118,7 +8129,7 @@
       <c r="H56" s="90"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -8133,7 +8144,7 @@
       </c>
       <c r="I57" s="90"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -8147,7 +8158,7 @@
       <c r="H58" s="90"/>
       <c r="I58" s="90"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="90"/>
       <c r="D59" s="90"/>
       <c r="E59" s="90"/>
@@ -8156,7 +8167,7 @@
       <c r="H59" s="90"/>
       <c r="I59" s="90"/>
     </row>
-    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -8170,7 +8181,7 @@
       <c r="H60" s="90"/>
       <c r="I60" s="90"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -8191,7 +8202,7 @@
       <c r="H61" s="90"/>
       <c r="I61" s="90"/>
     </row>
-    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -8212,7 +8223,7 @@
       <c r="H62" s="90"/>
       <c r="I62" s="90"/>
     </row>
-    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -8233,7 +8244,7 @@
       <c r="H63" s="90"/>
       <c r="I63" s="90"/>
     </row>
-    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="129" t="s">
         <v>164</v>
       </c>
@@ -8248,7 +8259,7 @@
       <c r="H64" s="90"/>
       <c r="I64" s="90"/>
     </row>
-    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -8269,7 +8280,7 @@
       <c r="H65" s="90"/>
       <c r="I65" s="90"/>
     </row>
-    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="71"/>
       <c r="D66" s="29"/>
@@ -8279,7 +8290,7 @@
       <c r="H66" s="90"/>
       <c r="I66" s="90"/>
     </row>
-    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -8293,7 +8304,7 @@
       <c r="H67" s="90"/>
       <c r="I67" s="90"/>
     </row>
-    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -8314,7 +8325,7 @@
       <c r="H68" s="90"/>
       <c r="I68" s="90"/>
     </row>
-    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="129" t="s">
         <v>165</v>
       </c>
@@ -8329,7 +8340,7 @@
       <c r="H69" s="90"/>
       <c r="I69" s="90"/>
     </row>
-    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8350,7 +8361,7 @@
       <c r="H70" s="90"/>
       <c r="I70" s="90"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="111" t="s">
         <v>137</v>
@@ -8364,7 +8375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
@@ -8378,7 +8389,7 @@
       </c>
       <c r="F73" s="222"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8393,7 +8404,7 @@
       </c>
       <c r="F74" s="181"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="109" t="s">
         <v>109</v>
       </c>
@@ -8414,7 +8425,7 @@
         <v>0.72762956087193742</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8429,7 +8440,7 @@
       </c>
       <c r="F76" s="186"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="109" t="s">
         <v>133</v>
       </c>
@@ -8450,7 +8461,7 @@
         <v>0.12012374818624762</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8465,7 +8476,7 @@
       </c>
       <c r="F78" s="186"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="109" t="s">
         <v>129</v>
       </c>
@@ -8486,7 +8497,7 @@
         <v>3.8885650375487034E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8507,7 +8518,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8531,7 +8542,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="76" t="s">
         <v>190</v>
       </c>
@@ -8551,7 +8562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="110" t="s">
         <v>134</v>
       </c>
@@ -8572,7 +8583,7 @@
         <v>7.7474362783882672E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8583,7 +8594,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="89" t="s">
         <v>179</v>
       </c>
@@ -8604,7 +8615,7 @@
         <v>5.8105772087912011E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="90" t="s">
         <v>174</v>
       </c>
@@ -8619,7 +8630,7 @@
       </c>
       <c r="F86" s="181"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="89" t="s">
         <v>175</v>
       </c>
@@ -8640,11 +8651,11 @@
         <v>0.8966227930318843</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="28"/>
       <c r="C88" s="91"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5"/>
       <c r="B89" s="111" t="s">
         <v>168</v>
@@ -8654,7 +8665,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
@@ -8665,7 +8676,7 @@
       <c r="G90" s="90"/>
       <c r="H90" s="24"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>192</v>
       </c>
@@ -8678,11 +8689,11 @@
       <c r="E91" s="221"/>
       <c r="F91" s="29">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.9008020330583923E-2</v>
+        <v>9.9397301343345928E-2</v>
       </c>
       <c r="H91" s="161"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (US)</v>
@@ -8699,14 +8710,14 @@
       </c>
       <c r="F92" s="159">
         <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>28.95037253151391</v>
+        <v>29.001681606426391</v>
       </c>
       <c r="H92" s="161"/>
     </row>
-    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H93" s="24"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5"/>
       <c r="B94" s="111" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8724,25 +8735,25 @@
       </c>
       <c r="H94" s="24"/>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="95">
         <f>D95*Common_Shares/Data!C4</f>
-        <v>11356006.508615326</v>
+        <v>11376132.888268054</v>
       </c>
       <c r="D95" s="132">
         <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>19.342283549121895</v>
+        <v>19.376564098517935</v>
       </c>
       <c r="E95" s="132">
         <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>14.393451700887374</v>
+        <v>14.418961379243537</v>
       </c>
       <c r="H95" s="24"/>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
@@ -8758,7 +8769,7 @@
       <c r="F96" s="121"/>
       <c r="H96" s="24"/>
     </row>
-    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B97" s="110" t="s">
         <v>158</v>
       </c>
@@ -8776,32 +8787,32 @@
       </c>
       <c r="H97" s="24"/>
     </row>
-    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="95">
         <f>C95-C96+$C$97</f>
-        <v>12570253.708615325</v>
+        <v>12590380.088268053</v>
       </c>
       <c r="D98" s="114">
         <f>MAX(C98*Data!$C$4/Common_Shares,0)</f>
-        <v>21.410467784778088</v>
+        <v>21.444748334174125</v>
       </c>
       <c r="E98" s="114">
         <f>E95*Exchange_Rate-D96+D97</f>
-        <v>16.461635936543566</v>
+        <v>16.487145614899731</v>
       </c>
       <c r="F98" s="114">
         <f>D98*1.25</f>
-        <v>26.763084730972611</v>
+        <v>26.805935417717656</v>
       </c>
       <c r="H98" s="24"/>
     </row>
-    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H99" s="24"/>
     </row>
-    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="10" t="s">
         <v>177</v>
       </c>
@@ -8820,7 +8831,7 @@
       </c>
       <c r="H100" s="24"/>
     </row>
-    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>176</v>
       </c>
@@ -8842,10 +8853,10 @@
       </c>
       <c r="H101" s="24"/>
     </row>
-    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H102" s="24"/>
     </row>
-    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="10" t="s">
         <v>226</v>
       </c>
@@ -8864,28 +8875,28 @@
       </c>
       <c r="H103" s="24"/>
     </row>
-    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C104" s="95">
         <f>D104*Common_Shares/Data!C4</f>
-        <v>12523147.760557663</v>
+        <v>12533210.950384026</v>
       </c>
       <c r="D104" s="132">
         <f>(D98+D101)/2</f>
-        <v>21.330233892389042</v>
+        <v>21.347374167087061</v>
       </c>
       <c r="E104" s="114">
         <f>D104*(1-25%)</f>
-        <v>15.997675419291781</v>
+        <v>16.010530625315297</v>
       </c>
       <c r="F104" s="114">
         <f>D104*1.25</f>
-        <v>26.662792365486304</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>26.684217708858824</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="10" t="s">
         <v>180</v>
       </c>

--- a/financial_models/opportunities/0590.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00760B1F-2EBB-8241-87FB-3328B4037BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0FE3C42-79CC-424C-88AF-A837CA27471D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1480" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -857,19 +846,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="13">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
-    <numFmt numFmtId="175" formatCode="&quot;@ &quot;0.00%&quot; Growth&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;@ &quot;0.00%&quot; Growth&quot;"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1329,7 +1318,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="225">
@@ -1385,8 +1374,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1409,14 +1398,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1449,7 +1438,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1457,7 +1446,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1501,7 +1490,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1561,7 +1550,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1601,7 +1590,7 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1660,10 +1649,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1672,14 +1661,14 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1697,7 +1686,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="27" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="27" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1730,7 +1719,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1784,16 +1773,16 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1814,13 +1803,13 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1834,7 +1823,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1847,20 +1836,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2191,19 +2180,19 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="90"/>
       <c r="C1" s="90"/>
       <c r="D1" s="90"/>
@@ -2212,7 +2201,7 @@
       <c r="G1" s="90"/>
       <c r="H1" s="90"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2227,7 +2216,7 @@
       <c r="G2" s="89"/>
       <c r="H2" s="89"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>216</v>
       </c>
@@ -2246,7 +2235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="35" t="s">
         <v>217</v>
       </c>
@@ -2264,7 +2253,7 @@
       <c r="H4" s="217"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
@@ -2284,7 +2273,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="90" t="s">
         <v>4</v>
       </c>
@@ -2308,7 +2297,7 @@
       <c r="H6" s="210"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="89" t="s">
         <v>214</v>
       </c>
@@ -2330,8 +2319,8 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="149" t="s">
         <v>212</v>
       </c>
@@ -2339,7 +2328,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>195</v>
       </c>
@@ -2350,7 +2339,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="130" t="s">
         <v>199</v>
       </c>
@@ -2364,7 +2353,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="90" t="s">
         <v>142</v>
       </c>
@@ -2376,8 +2365,8 @@
       </c>
       <c r="F12" s="115"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>196</v>
       </c>
@@ -2388,7 +2377,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>207</v>
       </c>
@@ -2399,7 +2388,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="130" t="s">
         <v>208</v>
       </c>
@@ -2413,7 +2402,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="90" t="s">
         <v>201</v>
       </c>
@@ -2422,8 +2411,8 @@
       </c>
       <c r="D17" s="206"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="152" t="s">
         <v>204</v>
       </c>
@@ -2436,7 +2425,7 @@
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="147" t="s">
         <v>185</v>
       </c>
@@ -2447,7 +2436,7 @@
       <c r="F20" s="90"/>
       <c r="G20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="147" t="s">
         <v>186</v>
       </c>
@@ -2458,7 +2447,7 @@
       <c r="F21" s="90"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="147" t="s">
         <v>187</v>
       </c>
@@ -2470,7 +2459,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="147" t="s">
         <v>188</v>
       </c>
@@ -2486,7 +2475,7 @@
         <v>0.69646587102745394</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="147" t="s">
         <v>189</v>
       </c>
@@ -2502,7 +2491,7 @@
         <v>9.9397301343345928E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="147" t="s">
         <v>213</v>
       </c>
@@ -2518,7 +2507,7 @@
         <v>0.8966227930318843</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="148" t="s">
         <v>191</v>
       </c>
@@ -2534,8 +2523,8 @@
         <v>8.9121885950302682E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="94" t="s">
         <v>7</v>
@@ -2553,7 +2542,7 @@
       <c r="G28" s="89"/>
       <c r="H28" s="89"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="90" t="s">
         <v>184</v>
       </c>
@@ -2572,900 +2561,900 @@
       </c>
       <c r="H29" s="90"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3529,7 +3518,7 @@
       <selection pane="topRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3537,7 +3526,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3545,7 +3534,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3570,7 +3559,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="108" t="s">
         <v>10</v>
@@ -3598,7 +3587,7 @@
       <c r="L3" s="90"/>
       <c r="M3" s="90"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="108" t="s">
         <v>11</v>
@@ -3619,7 +3608,7 @@
       </c>
       <c r="J4" s="90"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="123" t="s">
         <v>146</v>
@@ -3669,7 +3658,7 @@
         <v>41729</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="98" t="s">
         <v>12</v>
@@ -3699,7 +3688,7 @@
       <c r="M6" s="169"/>
       <c r="N6" s="90"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="100" t="s">
         <v>13</v>
@@ -3750,7 +3739,7 @@
       </c>
       <c r="N7" s="90"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="101" t="s">
         <v>109</v>
@@ -3780,7 +3769,7 @@
       <c r="M8" s="170"/>
       <c r="N8" s="90"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="102" t="s">
         <v>105</v>
@@ -3831,7 +3820,7 @@
       </c>
       <c r="N9" s="90"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="101" t="s">
         <v>107</v>
@@ -3861,7 +3850,7 @@
       <c r="M10" s="170"/>
       <c r="N10" s="90"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="98" t="s">
         <v>100</v>
@@ -3912,7 +3901,7 @@
       </c>
       <c r="N11" s="90"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="101" t="s">
         <v>108</v>
@@ -3934,7 +3923,7 @@
       <c r="M12" s="170"/>
       <c r="N12" s="90"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="102" t="s">
         <v>106</v>
@@ -3985,7 +3974,7 @@
       </c>
       <c r="N13" s="90"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="101" t="s">
         <v>110</v>
@@ -4003,7 +3992,7 @@
       <c r="M14" s="170"/>
       <c r="N14" s="90"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="101" t="s">
         <v>111</v>
@@ -4029,7 +4018,7 @@
       <c r="M15" s="170"/>
       <c r="N15" s="90"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="101" t="s">
         <v>113</v>
@@ -4055,7 +4044,7 @@
       <c r="M16" s="170"/>
       <c r="N16" s="90"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="101" t="s">
         <v>129</v>
@@ -4085,7 +4074,7 @@
       <c r="M17" s="170"/>
       <c r="N17" s="90"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="103" t="s">
         <v>114</v>
@@ -4115,7 +4104,7 @@
       <c r="M18" s="170"/>
       <c r="N18" s="90"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="103" t="s">
         <v>228</v>
@@ -4166,7 +4155,7 @@
       </c>
       <c r="N19" s="90"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="103" t="s">
         <v>229</v>
@@ -4217,7 +4206,7 @@
       </c>
       <c r="N20" s="90"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="98" t="s">
         <v>115</v>
@@ -4268,7 +4257,7 @@
       </c>
       <c r="N21" s="90"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="102" t="s">
         <v>116</v>
@@ -4319,7 +4308,7 @@
       </c>
       <c r="N22" s="90"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="104" t="s">
         <v>117</v>
@@ -4370,7 +4359,7 @@
       </c>
       <c r="N23" s="90"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="106" t="s">
         <v>118</v>
@@ -4421,7 +4410,7 @@
       </c>
       <c r="N24" s="90"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>138</v>
@@ -4472,7 +4461,7 @@
       </c>
       <c r="N25" s="90"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="122" t="s">
         <v>147</v>
@@ -4523,7 +4512,7 @@
       </c>
       <c r="N26" s="90"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="98" t="s">
         <v>14</v>
@@ -4574,7 +4563,7 @@
       </c>
       <c r="N27" s="90"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="98" t="s">
         <v>15</v>
@@ -4601,7 +4590,7 @@
       <c r="M28" s="170"/>
       <c r="N28" s="90"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="98" t="s">
         <v>121</v>
@@ -4628,7 +4617,7 @@
       <c r="M29" s="170"/>
       <c r="N29" s="90"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="98" t="s">
         <v>161</v>
@@ -4655,7 +4644,7 @@
       <c r="M30" s="170"/>
       <c r="N30" s="90"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="98" t="s">
         <v>16</v>
@@ -4682,7 +4671,7 @@
       <c r="M31" s="170"/>
       <c r="N31" s="90"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="98" t="s">
         <v>120</v>
@@ -4709,7 +4698,7 @@
       <c r="M32" s="170"/>
       <c r="N32" s="90"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="98" t="s">
         <v>17</v>
@@ -4736,7 +4725,7 @@
       <c r="M33" s="170"/>
       <c r="N33" s="90"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="98" t="s">
         <v>18</v>
@@ -4763,7 +4752,7 @@
       <c r="M34" s="170"/>
       <c r="N34" s="90"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="98" t="s">
         <v>19</v>
@@ -4814,7 +4803,7 @@
       </c>
       <c r="N35" s="90"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="98" t="s">
         <v>150</v>
@@ -4841,7 +4830,7 @@
       <c r="M36" s="170"/>
       <c r="N36" s="90"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="98" t="s">
         <v>151</v>
@@ -4868,7 +4857,7 @@
       <c r="M37" s="170"/>
       <c r="N37" s="90"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="98" t="s">
         <v>149</v>
@@ -4895,7 +4884,7 @@
       <c r="M38" s="170"/>
       <c r="N38" s="90"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="98" t="s">
         <v>153</v>
@@ -4946,7 +4935,7 @@
       </c>
       <c r="N39" s="90"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="102" t="s">
         <v>171</v>
@@ -4997,7 +4986,7 @@
       </c>
       <c r="N40" s="90"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
         <v>132</v>
@@ -5015,7 +5004,7 @@
       <c r="M41" s="54"/>
       <c r="N41" s="90"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="99" t="s">
         <v>99</v>
@@ -5066,7 +5055,7 @@
       </c>
       <c r="N42" s="90"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="98" t="s">
         <v>126</v>
@@ -5117,7 +5106,7 @@
       </c>
       <c r="N43" s="90"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="98" t="s">
         <v>101</v>
@@ -5168,7 +5157,7 @@
       </c>
       <c r="N44" s="90"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="98" t="s">
         <v>112</v>
@@ -5219,7 +5208,7 @@
       </c>
       <c r="N45" s="90"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="98" t="s">
         <v>127</v>
@@ -5270,7 +5259,7 @@
       </c>
       <c r="N46" s="90"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="98" t="s">
         <v>139</v>
@@ -5321,7 +5310,7 @@
       </c>
       <c r="N47" s="90"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="98" t="s">
         <v>130</v>
@@ -5372,7 +5361,7 @@
       </c>
       <c r="N48" s="90"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="107" t="s">
         <v>162</v>
@@ -5390,7 +5379,7 @@
       <c r="M49" s="36"/>
       <c r="N49" s="90"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="99" t="s">
         <v>159</v>
@@ -5441,7 +5430,7 @@
       </c>
       <c r="N50" s="90"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="98" t="s">
         <v>160</v>
@@ -5492,7 +5481,7 @@
       </c>
       <c r="N51" s="90"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="107" t="s">
         <v>131</v>
@@ -5509,7 +5498,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="99" t="s">
         <v>20</v>
@@ -5559,7 +5548,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="98" t="s">
         <v>125</v>
@@ -5609,7 +5598,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="98" t="s">
         <v>128</v>
@@ -5659,7 +5648,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="102" t="s">
         <v>21</v>
@@ -5709,1260 +5698,1260 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -7006,7 +6995,7 @@
       <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -7015,11 +7004,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -7035,7 +7024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -7058,7 +7047,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -7074,7 +7063,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="90"/>
       <c r="D5" s="90"/>
       <c r="E5" s="11" t="s">
@@ -7089,7 +7078,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -7114,7 +7103,7 @@
       <c r="J6" s="90"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -7137,13 +7126,13 @@
       <c r="J7" s="90"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="90"/>
       <c r="D8" s="90"/>
       <c r="E8" s="90"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -7162,7 +7151,7 @@
       <c r="I9" s="89"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -7187,7 +7176,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -7212,7 +7201,7 @@
       <c r="J11" s="90"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -7235,7 +7224,7 @@
       <c r="J12" s="90"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -7258,7 +7247,7 @@
       <c r="J13" s="90"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -7279,7 +7268,7 @@
       <c r="J14" s="90"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -7302,7 +7291,7 @@
       </c>
       <c r="J15" s="90"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>172</v>
       </c>
@@ -7320,7 +7309,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="90"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7340,7 +7329,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="90"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7359,7 +7348,7 @@
       <c r="H18" s="90"/>
       <c r="I18" s="90"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7379,7 +7368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7401,7 +7390,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7420,7 +7409,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7442,7 +7431,7 @@
         <v>2867112</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="90"/>
       <c r="D23" s="90"/>
       <c r="E23" s="90"/>
@@ -7451,7 +7440,7 @@
       </c>
       <c r="G23" s="90"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7473,7 +7462,7 @@
       </c>
       <c r="G24" s="90"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7502,7 +7491,7 @@
         <v>2.0221788132366587</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7535,7 +7524,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7568,7 +7557,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="81" t="s">
         <v>15</v>
       </c>
@@ -7597,7 +7586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="90"/>
       <c r="D29" s="90"/>
       <c r="E29" s="90"/>
@@ -7609,7 +7598,7 @@
       <c r="I29" s="90"/>
       <c r="J29" s="90"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7628,7 +7617,7 @@
       <c r="I30" s="60"/>
       <c r="J30" s="90"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7650,7 +7639,7 @@
       </c>
       <c r="J31" s="90"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7670,7 +7659,7 @@
       <c r="I32" s="60"/>
       <c r="J32" s="90"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>173</v>
       </c>
@@ -7693,7 +7682,7 @@
       <c r="I33" s="128"/>
       <c r="J33" s="90"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7718,7 +7707,7 @@
       </c>
       <c r="J34" s="90"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7739,7 +7728,7 @@
       </c>
       <c r="J35" s="90"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7763,7 +7752,7 @@
       <c r="H36" s="90"/>
       <c r="I36" s="90"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7785,7 +7774,7 @@
       <c r="H37" s="90"/>
       <c r="I37" s="90"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7804,7 +7793,7 @@
       <c r="H38" s="90"/>
       <c r="I38" s="90"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7821,7 +7810,7 @@
       <c r="H39" s="90"/>
       <c r="I39" s="90"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7840,7 +7829,7 @@
       <c r="H40" s="90"/>
       <c r="I40" s="90"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7859,7 +7848,7 @@
       <c r="H41" s="90"/>
       <c r="I41" s="90"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7883,7 +7872,7 @@
         <v>153937</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="90"/>
       <c r="D43" s="90"/>
       <c r="E43" s="90"/>
@@ -7892,7 +7881,7 @@
       <c r="H43" s="90"/>
       <c r="I43" s="90"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7911,7 +7900,7 @@
       <c r="F44" s="75"/>
       <c r="G44" s="90"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7930,7 +7919,7 @@
       <c r="F45" s="75"/>
       <c r="G45" s="90"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7960,7 +7949,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7990,7 +7979,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="83" t="s">
         <v>84</v>
       </c>
@@ -8016,7 +8005,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -8043,20 +8032,20 @@
       </c>
       <c r="J49" s="90"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="90"/>
       <c r="D50" s="90"/>
       <c r="E50" s="90"/>
       <c r="I50" s="90"/>
     </row>
-    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -8073,7 +8062,7 @@
       </c>
       <c r="I52" s="90"/>
     </row>
-    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -8094,7 +8083,7 @@
       <c r="H53" s="90"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="90"/>
       <c r="D54" s="90"/>
       <c r="E54" s="90"/>
@@ -8103,7 +8092,7 @@
       <c r="H54" s="90"/>
       <c r="I54" s="90"/>
     </row>
-    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -8114,7 +8103,7 @@
       <c r="H55" s="90"/>
       <c r="I55" s="90"/>
     </row>
-    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -8129,7 +8118,7 @@
       <c r="H56" s="90"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -8144,7 +8133,7 @@
       </c>
       <c r="I57" s="90"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -8158,7 +8147,7 @@
       <c r="H58" s="90"/>
       <c r="I58" s="90"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="90"/>
       <c r="D59" s="90"/>
       <c r="E59" s="90"/>
@@ -8167,7 +8156,7 @@
       <c r="H59" s="90"/>
       <c r="I59" s="90"/>
     </row>
-    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -8181,7 +8170,7 @@
       <c r="H60" s="90"/>
       <c r="I60" s="90"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -8202,7 +8191,7 @@
       <c r="H61" s="90"/>
       <c r="I61" s="90"/>
     </row>
-    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -8223,7 +8212,7 @@
       <c r="H62" s="90"/>
       <c r="I62" s="90"/>
     </row>
-    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -8244,7 +8233,7 @@
       <c r="H63" s="90"/>
       <c r="I63" s="90"/>
     </row>
-    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="129" t="s">
         <v>164</v>
       </c>
@@ -8259,7 +8248,7 @@
       <c r="H64" s="90"/>
       <c r="I64" s="90"/>
     </row>
-    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -8280,7 +8269,7 @@
       <c r="H65" s="90"/>
       <c r="I65" s="90"/>
     </row>
-    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="71"/>
       <c r="D66" s="29"/>
@@ -8290,7 +8279,7 @@
       <c r="H66" s="90"/>
       <c r="I66" s="90"/>
     </row>
-    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -8304,7 +8293,7 @@
       <c r="H67" s="90"/>
       <c r="I67" s="90"/>
     </row>
-    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -8325,7 +8314,7 @@
       <c r="H68" s="90"/>
       <c r="I68" s="90"/>
     </row>
-    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="129" t="s">
         <v>165</v>
       </c>
@@ -8340,7 +8329,7 @@
       <c r="H69" s="90"/>
       <c r="I69" s="90"/>
     </row>
-    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8361,7 +8350,7 @@
       <c r="H70" s="90"/>
       <c r="I70" s="90"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="111" t="s">
         <v>137</v>
@@ -8375,7 +8364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
@@ -8389,7 +8378,7 @@
       </c>
       <c r="F73" s="222"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8404,7 +8393,7 @@
       </c>
       <c r="F74" s="181"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="109" t="s">
         <v>109</v>
       </c>
@@ -8425,7 +8414,7 @@
         <v>0.72762956087193742</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8440,7 +8429,7 @@
       </c>
       <c r="F76" s="186"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="109" t="s">
         <v>133</v>
       </c>
@@ -8461,7 +8450,7 @@
         <v>0.12012374818624762</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8476,7 +8465,7 @@
       </c>
       <c r="F78" s="186"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="109" t="s">
         <v>129</v>
       </c>
@@ -8497,7 +8486,7 @@
         <v>3.8885650375487034E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8518,7 +8507,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8542,7 +8531,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="76" t="s">
         <v>190</v>
       </c>
@@ -8562,7 +8551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="110" t="s">
         <v>134</v>
       </c>
@@ -8583,7 +8572,7 @@
         <v>7.7474362783882672E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8594,7 +8583,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="89" t="s">
         <v>179</v>
       </c>
@@ -8615,7 +8604,7 @@
         <v>5.8105772087912011E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="90" t="s">
         <v>174</v>
       </c>
@@ -8630,7 +8619,7 @@
       </c>
       <c r="F86" s="181"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="89" t="s">
         <v>175</v>
       </c>
@@ -8651,11 +8640,11 @@
         <v>0.8966227930318843</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
       <c r="C88" s="91"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="111" t="s">
         <v>168</v>
@@ -8665,7 +8654,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
@@ -8676,7 +8665,7 @@
       <c r="G90" s="90"/>
       <c r="H90" s="24"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
         <v>192</v>
       </c>
@@ -8693,7 +8682,7 @@
       </c>
       <c r="H91" s="161"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (US)</v>
@@ -8714,10 +8703,10 @@
       </c>
       <c r="H92" s="161"/>
     </row>
-    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H93" s="24"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="111" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8735,7 +8724,7 @@
       </c>
       <c r="H94" s="24"/>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
@@ -8753,7 +8742,7 @@
       </c>
       <c r="H95" s="24"/>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
@@ -8769,7 +8758,7 @@
       <c r="F96" s="121"/>
       <c r="H96" s="24"/>
     </row>
-    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B97" s="110" t="s">
         <v>158</v>
       </c>
@@ -8787,7 +8776,7 @@
       </c>
       <c r="H97" s="24"/>
     </row>
-    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
@@ -8809,10 +8798,10 @@
       </c>
       <c r="H98" s="24"/>
     </row>
-    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H99" s="24"/>
     </row>
-    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10" t="s">
         <v>177</v>
       </c>
@@ -8831,7 +8820,7 @@
       </c>
       <c r="H100" s="24"/>
     </row>
-    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1" t="s">
         <v>176</v>
       </c>
@@ -8853,10 +8842,10 @@
       </c>
       <c r="H101" s="24"/>
     </row>
-    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H102" s="24"/>
     </row>
-    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
         <v>226</v>
       </c>
@@ -8875,7 +8864,7 @@
       </c>
       <c r="H103" s="24"/>
     </row>
-    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B104" s="1" t="s">
         <v>227</v>
       </c>
@@ -8896,7 +8885,7 @@
         <v>26.684217708858824</v>
       </c>
     </row>
-    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="10" t="s">
         <v>180</v>
       </c>

--- a/financial_models/opportunities/0590.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0FE3C42-79CC-424C-88AF-A837CA27471D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE05D5BF-624F-478B-9AA1-91B990BE1B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="240">
   <si>
     <t>Company Info:</t>
   </si>
@@ -512,14 +512,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>@ 25% Discount</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>@ 25% Increase</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Note:</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -633,219 +625,238 @@
     <t>EPS</t>
   </si>
   <si>
+    <t>Operating Equity Valuation</t>
+  </si>
+  <si>
+    <t>Dividend method</t>
+  </si>
+  <si>
+    <t>Last Revision:</t>
+  </si>
+  <si>
+    <t>After-tax Profit =</t>
+  </si>
+  <si>
+    <t>Selecting the Valuation method</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>Value Range</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Operating Expenses - D&amp;A</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>MCX</t>
+  </si>
+  <si>
+    <t>ΔWC</t>
+  </si>
+  <si>
+    <t>- Non-controling Interests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-tax Profit </t>
+  </si>
+  <si>
+    <t>Normalized Payout Ratio</t>
+  </si>
+  <si>
+    <t>Normalized E/P</t>
+  </si>
+  <si>
+    <t>US Riskfree</t>
+  </si>
+  <si>
+    <t>CN Riskfree</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/BAMLC0A4CBBBEY</t>
+  </si>
+  <si>
+    <t>https://yield.chinabond.com.cn/cbweb-mn/yield_main?locale=en_US</t>
+  </si>
+  <si>
+    <t>US BBB Bond yield</t>
+  </si>
+  <si>
+    <t>https://iftp.chinamoney.com.cn/chinese/scsjzqxx/</t>
+  </si>
+  <si>
+    <t>Required Return (CN)</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/china/government-bond-yield</t>
+  </si>
+  <si>
+    <t>https://fred.stlouisfed.org/series/DGS10</t>
+  </si>
+  <si>
+    <t>Normalized Cost Structure</t>
+  </si>
+  <si>
+    <t>Price Indicators</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>CN Onshore BBB- Bond yield</t>
+  </si>
+  <si>
+    <t>CN Offshore BBB- Bond yield</t>
+  </si>
+  <si>
+    <t>PB Ratio</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Market Yields</t>
+  </si>
+  <si>
+    <t>Non-controlling Interests</t>
+  </si>
+  <si>
+    <t>Watchlist &amp; Comp_Group:</t>
+  </si>
+  <si>
+    <t>Normalized D/P</t>
+  </si>
+  <si>
+    <t>Symbol:</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>Valued @</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>六福珠宝</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>0590.HK</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0003</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg of E and D method</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg Valuation</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized Pre-tax Profit</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized Pre-tax Profit g</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAGR Calculator</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inputs =</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAGR =</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initial Value (PV)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final Value (FV)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># of Years</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Base Case</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pessimistic Case</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>Dividend per share</t>
-  </si>
-  <si>
-    <t>Operating Equity Valuation</t>
-  </si>
-  <si>
-    <t>Dividend method</t>
-  </si>
-  <si>
-    <t>Last Revision:</t>
-  </si>
-  <si>
-    <t>After-tax Profit =</t>
-  </si>
-  <si>
-    <t>Selecting the Valuation method</t>
-  </si>
-  <si>
-    <t>Vaulation</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>E/P Initial Rate of Retrun</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>D/P Initial Rate of Retrun</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>E/P Future Value is</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>D/P Future Value is</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target Return</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upper</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Lower</t>
-  </si>
-  <si>
-    <t>Upper</t>
-  </si>
-  <si>
-    <t>Value Range</t>
-  </si>
-  <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Operating Expenses - D&amp;A</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>MCX</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
-    <t>- Non-controling Interests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
-    <t>Choice of Required Return</t>
-  </si>
-  <si>
-    <t>Normalized Payout Ratio</t>
-  </si>
-  <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
-    <t>US Riskfree</t>
-  </si>
-  <si>
-    <t>CN Riskfree</t>
-  </si>
-  <si>
-    <t>https://fred.stlouisfed.org/series/BAMLC0A4CBBBEY</t>
-  </si>
-  <si>
-    <t>https://yield.chinabond.com.cn/cbweb-mn/yield_main?locale=en_US</t>
-  </si>
-  <si>
-    <t>US BBB Bond yield</t>
-  </si>
-  <si>
-    <t>https://iftp.chinamoney.com.cn/chinese/scsjzqxx/</t>
-  </si>
-  <si>
-    <t>Required Return (CN)</t>
-  </si>
-  <si>
-    <t>https://tradingeconomics.com/china/government-bond-yield</t>
-  </si>
-  <si>
-    <t>https://fred.stlouisfed.org/series/DGS10</t>
-  </si>
-  <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
-    <t>Price Indicators</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>CN Onshore BBB- Bond yield</t>
-  </si>
-  <si>
-    <t>CN Offshore BBB- Bond yield</t>
-  </si>
-  <si>
-    <t>PB Ratio</t>
-  </si>
-  <si>
-    <t>HK</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>Market Yields</t>
-  </si>
-  <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
-    <t>Watchlist &amp; Comp_Group:</t>
-  </si>
-  <si>
-    <t>Normalized D/P</t>
-  </si>
-  <si>
-    <t>Symbol:</t>
-  </si>
-  <si>
-    <t>Name:</t>
-  </si>
-  <si>
-    <t>Valued @</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>六福珠宝</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>0590.HK</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>C0003</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Initial Rate of Return (E/P)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Future Value is</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>@Initial rate</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>@15% Target</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Avg of E and D method</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Avg Valuation</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normalized Pre-tax Profit</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normalized Pre-tax Profit g</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAGR Calculator</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inputs =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAGR =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Initial Value (PV)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Final Value (FV)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t># of Years</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Avg</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dividend</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="13">
+  <numFmts count="12">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -858,9 +869,8 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
-    <numFmt numFmtId="187" formatCode="&quot;@ &quot;0.00%&quot; Growth&quot;"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1034,21 +1044,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1112,6 +1116,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1321,7 +1331,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1569,9 +1579,6 @@
     <xf numFmtId="9" fontId="10" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1593,9 +1600,6 @@
     <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1667,7 +1671,6 @@
     <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1683,12 +1686,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="27" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1808,6 +1805,33 @@
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="10" fontId="10" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1834,8 +1858,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1843,6 +1868,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1851,7 +1879,31 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2176,8 +2228,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2218,58 +2270,58 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" s="211" t="s">
-        <v>220</v>
-      </c>
-      <c r="D3" s="212"/>
+        <v>211</v>
+      </c>
+      <c r="C3" s="217" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="218"/>
       <c r="E3" s="90"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="142">
-        <v>15.260000228881836</v>
-      </c>
-      <c r="H3" s="144" t="s">
+      <c r="G3" s="140">
+        <v>15.100000381469727</v>
+      </c>
+      <c r="H3" s="142" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="C4" s="213" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" s="214"/>
+        <v>212</v>
+      </c>
+      <c r="C4" s="219" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="220"/>
       <c r="E4" s="90"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="217">
+      <c r="G4" s="223">
         <v>587107850</v>
       </c>
-      <c r="H4" s="217"/>
+      <c r="H4" s="223"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="215">
+        <v>175</v>
+      </c>
+      <c r="C5" s="221">
         <v>45593</v>
       </c>
-      <c r="D5" s="216"/>
+      <c r="D5" s="222"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="209">
+      <c r="G5" s="215">
         <f>G3*G4/1000000</f>
-        <v>8959.2659253783222</v>
-      </c>
-      <c r="H5" s="209"/>
+        <v>8865.3287589638712</v>
+      </c>
+      <c r="H5" s="215"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -2277,10 +2329,10 @@
       <c r="B6" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="155">
+      <c r="C6" s="153">
         <v>8</v>
       </c>
-      <c r="D6" s="156">
+      <c r="D6" s="154">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45626</v>
       </c>
@@ -2291,27 +2343,27 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="210" t="s">
+      <c r="G6" s="216" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="210"/>
+      <c r="H6" s="216"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="89" t="s">
-        <v>214</v>
-      </c>
-      <c r="C7" s="154" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="158" t="s">
-        <v>221</v>
+      <c r="D7" s="156" t="s">
+        <v>216</v>
       </c>
       <c r="E7" s="90"/>
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="143">
+      <c r="G7" s="141">
         <v>1</v>
       </c>
       <c r="H7" s="74" t="str">
@@ -2321,206 +2373,212 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="149" t="s">
-        <v>212</v>
-      </c>
-      <c r="F9" s="153" t="s">
-        <v>206</v>
+      <c r="B9" s="147" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" s="151" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="202">
+        <v>190</v>
+      </c>
+      <c r="C10" s="197">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="115" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="130" t="s">
-        <v>199</v>
-      </c>
-      <c r="C11" s="203">
+      <c r="B11" s="129" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="198">
         <v>5.3099999999999994E-2</v>
       </c>
-      <c r="D11" s="147" t="s">
-        <v>210</v>
+      <c r="D11" s="145" t="s">
+        <v>205</v>
       </c>
       <c r="F11" s="115" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="204">
-        <v>0.08</v>
-      </c>
-      <c r="D12" s="202">
-        <v>8.4000000000000005E-2</v>
+      <c r="C12" s="199">
+        <v>0.06</v>
+      </c>
+      <c r="D12" s="197">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F12" s="115"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C14" s="202">
+        <v>191</v>
+      </c>
+      <c r="C14" s="197">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="115" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" s="202">
+        <v>202</v>
+      </c>
+      <c r="C15" s="197">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="115" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="130" t="s">
-        <v>208</v>
-      </c>
-      <c r="C16" s="203">
+      <c r="B16" s="129" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="198">
         <v>0.16</v>
       </c>
-      <c r="D16" s="157" t="s">
-        <v>211</v>
+      <c r="D16" s="155" t="s">
+        <v>206</v>
       </c>
       <c r="F16" s="115" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="90" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17" s="205">
-        <v>8.8000000000000009E-2</v>
-      </c>
-      <c r="D17" s="206"/>
+        <v>196</v>
+      </c>
+      <c r="C17" s="200">
+        <v>0.08</v>
+      </c>
+      <c r="D17" s="201"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="152" t="s">
-        <v>204</v>
-      </c>
-      <c r="C19" s="145" t="s">
+      <c r="B19" s="150" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="143" t="s">
         <v>52</v>
       </c>
       <c r="D19" s="90"/>
       <c r="E19" s="90"/>
-      <c r="F19" s="44"/>
+      <c r="F19" s="150" t="s">
+        <v>237</v>
+      </c>
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="C20" s="201">
-        <f>Fin_Analysis!F75</f>
+      <c r="B20" s="145" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="196">
+        <f>Fin_Analysis!I75</f>
         <v>0.72762956087193742</v>
       </c>
-      <c r="F20" s="90"/>
-      <c r="G20" s="29"/>
+      <c r="F20" s="90" t="s">
+        <v>236</v>
+      </c>
+      <c r="G20" s="197">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="147" t="s">
-        <v>186</v>
-      </c>
-      <c r="C21" s="201">
-        <f>Fin_Analysis!F77</f>
+      <c r="B21" s="145" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="196">
+        <f>Fin_Analysis!I77</f>
         <v>0.12012374818624762</v>
       </c>
       <c r="F21" s="90"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="147" t="s">
+      <c r="B22" s="145" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="196">
+        <f>Fin_Analysis!I79</f>
+        <v>3.8885650375487034E-3</v>
+      </c>
+      <c r="F22" s="150" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="145" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="196">
+        <f>Fin_Analysis!I80</f>
+        <v>0.03</v>
+      </c>
+      <c r="F23" s="148" t="s">
+        <v>204</v>
+      </c>
+      <c r="G23" s="202">
+        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <v>0.68916348364732616</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="145" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="196">
+        <f>Fin_Analysis!I81</f>
+        <v>4.0883763120383568E-2</v>
+      </c>
+      <c r="F24" s="148" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" s="203">
+        <f>(Fin_Analysis!H86*G7)/G3</f>
+        <v>0.10045051675038838</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="145" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="196">
+        <f>Fin_Analysis!I82</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="148" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" s="196">
+        <f>Fin_Analysis!I88</f>
+        <v>0.8966227930318843</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="146" t="s">
         <v>187</v>
       </c>
-      <c r="C22" s="201">
-        <f>Fin_Analysis!F79</f>
-        <v>3.8885650375487034E-3</v>
-      </c>
-      <c r="F22" s="152" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="147" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="201">
-        <f>Fin_Analysis!F80</f>
-        <v>0.03</v>
-      </c>
-      <c r="F23" s="150" t="s">
-        <v>209</v>
-      </c>
-      <c r="G23" s="207">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.69646587102745394</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="147" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" s="201">
-        <f>Fin_Analysis!F81</f>
-        <v>4.0883763120383568E-2</v>
-      </c>
-      <c r="F24" s="150" t="s">
-        <v>194</v>
-      </c>
-      <c r="G24" s="208">
-        <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>9.9397301343345928E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="147" t="s">
-        <v>213</v>
-      </c>
-      <c r="C25" s="201">
-        <f>Fin_Analysis!F82</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="150" t="s">
-        <v>193</v>
-      </c>
-      <c r="G25" s="201">
-        <f>Fin_Analysis!F87</f>
-        <v>0.8966227930318843</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="148" t="s">
-        <v>191</v>
-      </c>
-      <c r="C26" s="201">
-        <f>Fin_Analysis!F83</f>
+      <c r="C26" s="196">
+        <f>Fin_Analysis!I83</f>
         <v>7.7474362783882672E-2</v>
       </c>
-      <c r="F26" s="151" t="s">
-        <v>215</v>
-      </c>
-      <c r="G26" s="208">
-        <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>8.9121885950302682E-2</v>
+      <c r="F26" s="149" t="s">
+        <v>210</v>
+      </c>
+      <c r="G26" s="203">
+        <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
+        <v>9.0066222890229308E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2530,36 +2588,44 @@
         <v>7</v>
       </c>
       <c r="C28" s="93" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E28" s="59"/>
-      <c r="F28" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
+      <c r="F28" s="53" t="str">
+        <f>Fin_Analysis!E96</f>
+        <v>Pessimistic Case</v>
+      </c>
+      <c r="G28" s="213" t="str">
+        <f>Fin_Analysis!H96</f>
+        <v>Base Case</v>
+      </c>
+      <c r="H28" s="213"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="90" t="s">
-        <v>184</v>
-      </c>
-      <c r="C29" s="140">
-        <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>15.937499999999996</v>
-      </c>
-      <c r="D29" s="139">
-        <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>26.562499999999996</v>
+        <v>180</v>
+      </c>
+      <c r="C29" s="138">
+        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
+        <v>12.278692597283481</v>
+      </c>
+      <c r="D29" s="137">
+        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I142))</f>
+        <v>29.065773522367007</v>
       </c>
       <c r="E29" s="90"/>
-      <c r="F29" s="141">
-        <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>21.249999999999996</v>
-      </c>
-      <c r="H29" s="90"/>
+      <c r="F29" s="139">
+        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
+        <v>17.73492134895082</v>
+      </c>
+      <c r="G29" s="214">
+        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H142))</f>
+        <v>23.252618817893605</v>
+      </c>
+      <c r="H29" s="214"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3456,7 +3522,9 @@
     <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
@@ -3466,23 +3534,28 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="11" priority="4">
+    <cfRule type="containsBlanks" dxfId="14" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="10" priority="2">
+    <cfRule type="containsBlanks" dxfId="13" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="9" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="8" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="containsBlanks" dxfId="10" priority="1">
+      <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -3515,7 +3588,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="G6" sqref="G6"/>
+      <selection pane="topRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3541,17 +3614,17 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="166" t="s">
-        <v>230</v>
-      </c>
-      <c r="F2" s="127" t="s">
-        <v>233</v>
-      </c>
-      <c r="G2" s="166" t="s">
-        <v>234</v>
-      </c>
-      <c r="H2" s="165" t="s">
-        <v>235</v>
+      <c r="E2" s="163" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="126" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" s="163" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="162" t="s">
+        <v>226</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="90"/>
@@ -3567,8 +3640,8 @@
       <c r="C3" s="92">
         <v>45381</v>
       </c>
-      <c r="E3" s="164" t="s">
-        <v>231</v>
+      <c r="E3" s="161" t="s">
+        <v>222</v>
       </c>
       <c r="F3" s="88">
         <f>H19</f>
@@ -3599,8 +3672,8 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="164" t="s">
-        <v>232</v>
+      <c r="E4" s="161" t="s">
+        <v>223</v>
       </c>
       <c r="F4" s="97">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -3610,8 +3683,8 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="123" t="s">
-        <v>146</v>
+      <c r="B5" s="122" t="s">
+        <v>144</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -3663,29 +3736,29 @@
       <c r="B6" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="169">
+      <c r="C6" s="164">
         <v>15325962</v>
       </c>
-      <c r="D6" s="169">
+      <c r="D6" s="164">
         <v>11977844</v>
       </c>
-      <c r="E6" s="169">
+      <c r="E6" s="164">
         <v>11737803</v>
       </c>
-      <c r="F6" s="169">
+      <c r="F6" s="164">
         <v>8861335</v>
       </c>
-      <c r="G6" s="169">
+      <c r="G6" s="164">
         <v>11233771</v>
       </c>
-      <c r="H6" s="169">
+      <c r="H6" s="164">
         <v>15859990</v>
       </c>
-      <c r="I6" s="169"/>
-      <c r="J6" s="169"/>
-      <c r="K6" s="169"/>
-      <c r="L6" s="169"/>
-      <c r="M6" s="169"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="164"/>
+      <c r="K6" s="164"/>
+      <c r="L6" s="164"/>
+      <c r="M6" s="164"/>
       <c r="N6" s="90"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3744,29 +3817,29 @@
       <c r="B8" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="170">
+      <c r="C8" s="165">
         <v>11151623</v>
       </c>
-      <c r="D8" s="170">
+      <c r="D8" s="165">
         <v>8747447</v>
       </c>
-      <c r="E8" s="170">
+      <c r="E8" s="165">
         <v>8503976</v>
       </c>
-      <c r="F8" s="170">
+      <c r="F8" s="165">
         <v>6229020</v>
       </c>
-      <c r="G8" s="170">
+      <c r="G8" s="165">
         <v>7910751</v>
       </c>
-      <c r="H8" s="170">
+      <c r="H8" s="165">
         <v>11826154</v>
       </c>
-      <c r="I8" s="170"/>
-      <c r="J8" s="170"/>
-      <c r="K8" s="170"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="170"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="165"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="165"/>
       <c r="N8" s="90"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3774,47 +3847,47 @@
       <c r="B9" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="171">
+      <c r="C9" s="166">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>4174339</v>
       </c>
-      <c r="D9" s="171">
+      <c r="D9" s="166">
         <f t="shared" si="2"/>
         <v>3230397</v>
       </c>
-      <c r="E9" s="171">
+      <c r="E9" s="166">
         <f t="shared" si="2"/>
         <v>3233827</v>
       </c>
-      <c r="F9" s="171">
+      <c r="F9" s="166">
         <f t="shared" si="2"/>
         <v>2632315</v>
       </c>
-      <c r="G9" s="171">
+      <c r="G9" s="166">
         <f t="shared" si="2"/>
         <v>3323020</v>
       </c>
-      <c r="H9" s="171">
+      <c r="H9" s="166">
         <f t="shared" si="2"/>
         <v>4033836</v>
       </c>
-      <c r="I9" s="171" t="str">
+      <c r="I9" s="166" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="171" t="str">
+      <c r="J9" s="166" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="171" t="str">
+      <c r="K9" s="166" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="171" t="str">
+      <c r="L9" s="166" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="171" t="str">
+      <c r="M9" s="166" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -3825,29 +3898,29 @@
       <c r="B10" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="170">
+      <c r="C10" s="165">
         <v>2297566</v>
       </c>
-      <c r="D10" s="170">
+      <c r="D10" s="165">
         <v>1867515</v>
       </c>
-      <c r="E10" s="170">
+      <c r="E10" s="165">
         <v>1815111</v>
       </c>
-      <c r="F10" s="170">
+      <c r="F10" s="165">
         <v>1694480</v>
       </c>
-      <c r="G10" s="170">
+      <c r="G10" s="165">
         <v>2118252</v>
       </c>
-      <c r="H10" s="170">
+      <c r="H10" s="165">
         <v>2416769</v>
       </c>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="170"/>
-      <c r="L10" s="170"/>
-      <c r="M10" s="170"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="165"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
+      <c r="M10" s="165"/>
       <c r="N10" s="90"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3855,47 +3928,47 @@
       <c r="B11" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="172">
+      <c r="C11" s="167">
         <f t="shared" ref="C11:M11" si="3">IF(C6="","",(C12/C6))</f>
         <v>2.9789581887257714E-2</v>
       </c>
-      <c r="D11" s="172">
+      <c r="D11" s="167">
         <f t="shared" si="3"/>
         <v>3.1156775793707115E-2</v>
       </c>
-      <c r="E11" s="172">
+      <c r="E11" s="167">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F11" s="172">
+      <c r="F11" s="167">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G11" s="172">
+      <c r="G11" s="167">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H11" s="172">
+      <c r="H11" s="167">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I11" s="172" t="str">
+      <c r="I11" s="167" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J11" s="172" t="str">
+      <c r="J11" s="167" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K11" s="172" t="str">
+      <c r="K11" s="167" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L11" s="172" t="str">
+      <c r="L11" s="167" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M11" s="172" t="str">
+      <c r="M11" s="167" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -3906,21 +3979,21 @@
       <c r="B12" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="170">
+      <c r="C12" s="165">
         <v>456554</v>
       </c>
-      <c r="D12" s="170">
+      <c r="D12" s="165">
         <v>373191</v>
       </c>
-      <c r="E12" s="170"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="170"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="170"/>
-      <c r="L12" s="170"/>
-      <c r="M12" s="170"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="165"/>
+      <c r="K12" s="165"/>
+      <c r="L12" s="165"/>
+      <c r="M12" s="165"/>
       <c r="N12" s="90"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3928,47 +4001,47 @@
       <c r="B13" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="171">
+      <c r="C13" s="166">
         <f>IF(C6="","",(C9-C10+C12))</f>
         <v>2333327</v>
       </c>
-      <c r="D13" s="171">
+      <c r="D13" s="166">
         <f t="shared" ref="D13:M13" si="4">IF(D6="","",(D9-D10+D12))</f>
         <v>1736073</v>
       </c>
-      <c r="E13" s="171">
+      <c r="E13" s="166">
         <f t="shared" si="4"/>
         <v>1418716</v>
       </c>
-      <c r="F13" s="171">
+      <c r="F13" s="166">
         <f t="shared" si="4"/>
         <v>937835</v>
       </c>
-      <c r="G13" s="171">
+      <c r="G13" s="166">
         <f t="shared" si="4"/>
         <v>1204768</v>
       </c>
-      <c r="H13" s="171">
+      <c r="H13" s="166">
         <f t="shared" si="4"/>
         <v>1617067</v>
       </c>
-      <c r="I13" s="171" t="str">
+      <c r="I13" s="166" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J13" s="171" t="str">
+      <c r="J13" s="166" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K13" s="171" t="str">
+      <c r="K13" s="166" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L13" s="171" t="str">
+      <c r="L13" s="166" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M13" s="171" t="str">
+      <c r="M13" s="166" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -3979,17 +4052,17 @@
       <c r="B14" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="170"/>
-      <c r="L14" s="170"/>
-      <c r="M14" s="170"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="165"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="165"/>
+      <c r="M14" s="165"/>
       <c r="N14" s="90"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3997,25 +4070,25 @@
       <c r="B15" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="170">
+      <c r="C15" s="165">
         <v>676387</v>
       </c>
-      <c r="D15" s="170">
+      <c r="D15" s="165">
         <v>107280</v>
       </c>
-      <c r="E15" s="170">
+      <c r="E15" s="165">
         <v>455483</v>
       </c>
-      <c r="F15" s="170">
+      <c r="F15" s="165">
         <v>138937</v>
       </c>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="170"/>
-      <c r="L15" s="170"/>
-      <c r="M15" s="170"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="165"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="165"/>
+      <c r="M15" s="165"/>
       <c r="N15" s="90"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4023,25 +4096,25 @@
       <c r="B16" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="170">
+      <c r="C16" s="165">
         <v>626583</v>
       </c>
-      <c r="D16" s="170">
+      <c r="D16" s="165">
         <v>352099</v>
       </c>
-      <c r="E16" s="170">
+      <c r="E16" s="165">
         <v>1045251</v>
       </c>
-      <c r="F16" s="170">
+      <c r="F16" s="165">
         <v>-818677</v>
       </c>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="170"/>
-      <c r="K16" s="170"/>
-      <c r="L16" s="170"/>
-      <c r="M16" s="170"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="165"/>
+      <c r="M16" s="165"/>
       <c r="N16" s="90"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4049,29 +4122,29 @@
       <c r="B17" s="101" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="170">
+      <c r="C17" s="165">
         <v>59596</v>
       </c>
-      <c r="D17" s="170">
+      <c r="D17" s="165">
         <v>20763</v>
       </c>
-      <c r="E17" s="170">
+      <c r="E17" s="165">
         <v>23097</v>
       </c>
-      <c r="F17" s="170">
+      <c r="F17" s="165">
         <v>28849</v>
       </c>
-      <c r="G17" s="170">
+      <c r="G17" s="165">
         <v>63075</v>
       </c>
-      <c r="H17" s="170">
+      <c r="H17" s="165">
         <v>34253</v>
       </c>
-      <c r="I17" s="170"/>
-      <c r="J17" s="170"/>
-      <c r="K17" s="170"/>
-      <c r="L17" s="170"/>
-      <c r="M17" s="170"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="165"/>
+      <c r="K17" s="165"/>
+      <c r="L17" s="165"/>
+      <c r="M17" s="165"/>
       <c r="N17" s="90"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4079,78 +4152,78 @@
       <c r="B18" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="170">
+      <c r="C18" s="165">
         <v>-9467</v>
       </c>
-      <c r="D18" s="170">
+      <c r="D18" s="165">
         <v>-30</v>
       </c>
-      <c r="E18" s="170">
+      <c r="E18" s="165">
         <v>-27</v>
       </c>
-      <c r="F18" s="170">
+      <c r="F18" s="165">
         <v>1799</v>
       </c>
-      <c r="G18" s="170">
+      <c r="G18" s="165">
         <v>1337</v>
       </c>
-      <c r="H18" s="170">
+      <c r="H18" s="165">
         <v>10908</v>
       </c>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="170"/>
-      <c r="L18" s="170"/>
-      <c r="M18" s="170"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="165"/>
+      <c r="M18" s="165"/>
       <c r="N18" s="90"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="103" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C19" s="80">
-        <f>IF(C6="","",C9-C10-C17-MAX(C18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(C6="","",C9-C10-C17-MAX(C18/(1-Fin_Analysis!$I$84),0))</f>
         <v>1817177</v>
       </c>
       <c r="D19" s="80">
-        <f>IF(D6="","",D9-D10-D17-MAX(D18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(D6="","",D9-D10-D17-MAX(D18/(1-Fin_Analysis!$I$84),0))</f>
         <v>1342119</v>
       </c>
       <c r="E19" s="80">
-        <f>IF(E6="","",E9-E10-E17-MAX(E18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(E6="","",E9-E10-E17-MAX(E18/(1-Fin_Analysis!$I$84),0))</f>
         <v>1395619</v>
       </c>
       <c r="F19" s="80">
-        <f>IF(F6="","",F9-F10-F17-MAX(F18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(F6="","",F9-F10-F17-MAX(F18/(1-Fin_Analysis!$I$84),0))</f>
         <v>906587.33333333337</v>
       </c>
       <c r="G19" s="80">
-        <f>IF(G6="","",G9-G10-G17-MAX(G18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(G6="","",G9-G10-G17-MAX(G18/(1-Fin_Analysis!$I$84),0))</f>
         <v>1139910.3333333333</v>
       </c>
       <c r="H19" s="80">
-        <f>IF(H6="","",H9-H10-H17-MAX(H18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(H6="","",H9-H10-H17-MAX(H18/(1-Fin_Analysis!$I$84),0))</f>
         <v>1568270</v>
       </c>
       <c r="I19" s="80" t="str">
-        <f>IF(I6="","",I9-I10-I17-MAX(I18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(I6="","",I9-I10-I17-MAX(I18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="J19" s="80" t="str">
-        <f>IF(J6="","",J9-J10-J17-MAX(J18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(J6="","",J9-J10-J17-MAX(J18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="K19" s="80" t="str">
-        <f>IF(K6="","",K9-K10-K17-MAX(K18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(K6="","",K9-K10-K17-MAX(K18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="L19" s="80" t="str">
-        <f>IF(L6="","",L9-L10-L17-MAX(L18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(L6="","",L9-L10-L17-MAX(L18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="M19" s="80" t="str">
-        <f>IF(M6="","",M9-M10-M17-MAX(M18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(M6="","",M9-M10-M17-MAX(M18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="N19" s="90"/>
@@ -4158,49 +4231,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="103" t="s">
-        <v>229</v>
-      </c>
-      <c r="C20" s="173">
+        <v>220</v>
+      </c>
+      <c r="C20" s="168">
         <f>IF(D19="","",IF(ABS(C19+D19)=ABS(C19)+ABS(D19),IF(C19&lt;0,-1,1)*(C19-D19)/D19,"Turn"))</f>
         <v>0.35396116141713219</v>
       </c>
-      <c r="D20" s="173">
+      <c r="D20" s="168">
         <f t="shared" ref="D20:M20" si="5">IF(E19="","",IF(ABS(D19+E19)=ABS(D19)+ABS(E19),IF(D19&lt;0,-1,1)*(D19-E19)/E19,"Turn"))</f>
         <v>-3.8334244518023905E-2</v>
       </c>
-      <c r="E20" s="173">
+      <c r="E20" s="168">
         <f t="shared" si="5"/>
         <v>0.53942036104629731</v>
       </c>
-      <c r="F20" s="173">
+      <c r="F20" s="168">
         <f t="shared" si="5"/>
         <v>-0.20468539776959055</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="168">
         <f t="shared" si="5"/>
         <v>-0.27314152962606358</v>
       </c>
-      <c r="H20" s="173" t="str">
+      <c r="H20" s="168" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I20" s="173" t="str">
+      <c r="I20" s="168" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J20" s="173" t="str">
+      <c r="J20" s="168" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K20" s="173" t="str">
+      <c r="K20" s="168" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L20" s="173" t="str">
+      <c r="L20" s="168" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M20" s="173" t="str">
+      <c r="M20" s="168" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -4212,47 +4285,47 @@
         <v>115</v>
       </c>
       <c r="C21" s="80">
-        <f>IF(C6="","",C13-C14-MAX(C15,0)-MAX(C16,0)-C17-MAX(C18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(C6="","",C13-C14-MAX(C15,0)-MAX(C16,0)-C17-MAX(C18/(1-Fin_Analysis!$I$84),0))</f>
         <v>970761</v>
       </c>
       <c r="D21" s="80">
-        <f>IF(D6="","",D13-D14-MAX(D15,0)-MAX(D16,0)-D17-MAX(D18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(D6="","",D13-D14-MAX(D15,0)-MAX(D16,0)-D17-MAX(D18/(1-Fin_Analysis!$I$84),0))</f>
         <v>1255931</v>
       </c>
       <c r="E21" s="80">
-        <f>IF(E6="","",E13-E14-MAX(E15,0)-MAX(E16,0)-E17-MAX(E18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(E6="","",E13-E14-MAX(E15,0)-MAX(E16,0)-E17-MAX(E18/(1-Fin_Analysis!$I$84),0))</f>
         <v>-105115</v>
       </c>
       <c r="F21" s="80">
-        <f>IF(F6="","",F13-F14-MAX(F15,0)-MAX(F16,0)-F17-MAX(F18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(F6="","",F13-F14-MAX(F15,0)-MAX(F16,0)-F17-MAX(F18/(1-Fin_Analysis!$I$84),0))</f>
         <v>767650.33333333337</v>
       </c>
       <c r="G21" s="80">
-        <f>IF(G6="","",G13-G14-MAX(G15,0)-MAX(G16,0)-G17-MAX(G18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(G6="","",G13-G14-MAX(G15,0)-MAX(G16,0)-G17-MAX(G18/(1-Fin_Analysis!$I$84),0))</f>
         <v>1139910.3333333333</v>
       </c>
       <c r="H21" s="80">
-        <f>IF(H6="","",H13-H14-MAX(H15,0)-MAX(H16,0)-H17-MAX(H18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(H6="","",H13-H14-MAX(H15,0)-MAX(H16,0)-H17-MAX(H18/(1-Fin_Analysis!$I$84),0))</f>
         <v>1568270</v>
       </c>
       <c r="I21" s="80" t="str">
-        <f>IF(I6="","",I13-I14-MAX(I15,0)-MAX(I16,0)-I17-MAX(I18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(I6="","",I13-I14-MAX(I15,0)-MAX(I16,0)-I17-MAX(I18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="J21" s="80" t="str">
-        <f>IF(J6="","",J13-J14-MAX(J15,0)-MAX(J16,0)-J17-MAX(J18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(J6="","",J13-J14-MAX(J15,0)-MAX(J16,0)-J17-MAX(J18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="K21" s="80" t="str">
-        <f>IF(K6="","",K13-K14-MAX(K15,0)-MAX(K16,0)-K17-MAX(K18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(K6="","",K13-K14-MAX(K15,0)-MAX(K16,0)-K17-MAX(K18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="L21" s="80" t="str">
-        <f>IF(L6="","",L13-L14-MAX(L15,0)-MAX(L16,0)-L17-MAX(L18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(L6="","",L13-L14-MAX(L15,0)-MAX(L16,0)-L17-MAX(L18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="M21" s="80" t="str">
-        <f>IF(M6="","",M13-M14-MAX(M15,0)-MAX(M16,0)-M17-MAX(M18/(1-Fin_Analysis!$F$84),0))</f>
+        <f>IF(M6="","",M13-M14-MAX(M15,0)-MAX(M16,0)-M17-MAX(M18/(1-Fin_Analysis!$I$84),0))</f>
         <v/>
       </c>
       <c r="N21" s="90"/>
@@ -4262,47 +4335,47 @@
       <c r="B22" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="173">
+      <c r="C22" s="168">
         <f>IF(D21="","",IF(ABS(C21+D21)=ABS(C21)+ABS(D21),IF(C21&lt;0,-1,1)*(C21-D21)/D21,"Turn"))</f>
         <v>-0.22705865210748041</v>
       </c>
-      <c r="D22" s="173" t="str">
+      <c r="D22" s="168" t="str">
         <f t="shared" ref="D22:M22" si="6">IF(E21="","",IF(ABS(D21+E21)=ABS(D21)+ABS(E21),IF(D21&lt;0,-1,1)*(D21-E21)/E21,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="E22" s="173" t="str">
+      <c r="E22" s="168" t="str">
         <f t="shared" si="6"/>
         <v>Turn</v>
       </c>
-      <c r="F22" s="173">
+      <c r="F22" s="168">
         <f t="shared" si="6"/>
         <v>-0.32656954596721194</v>
       </c>
-      <c r="G22" s="173">
+      <c r="G22" s="168">
         <f t="shared" si="6"/>
         <v>-0.27314152962606358</v>
       </c>
-      <c r="H22" s="173" t="str">
+      <c r="H22" s="168" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I22" s="173" t="str">
+      <c r="I22" s="168" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J22" s="173" t="str">
+      <c r="J22" s="168" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K22" s="173" t="str">
+      <c r="K22" s="168" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L22" s="173" t="str">
+      <c r="L22" s="168" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M22" s="173" t="str">
+      <c r="M22" s="168" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -4313,47 +4386,47 @@
       <c r="B23" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="174">
+      <c r="C23" s="169">
         <f t="shared" ref="C23:M23" si="7">IF(C6="","",C24/C6)</f>
         <v>4.7505712855088637E-2</v>
       </c>
-      <c r="D23" s="174">
+      <c r="D23" s="169">
         <f t="shared" si="7"/>
         <v>7.8640884786944962E-2</v>
       </c>
-      <c r="E23" s="174">
+      <c r="E23" s="169">
         <f t="shared" si="7"/>
         <v>-6.7164400356693665E-3</v>
       </c>
-      <c r="F23" s="174">
+      <c r="F23" s="169">
         <f t="shared" si="7"/>
         <v>6.4971897575252485E-2</v>
       </c>
-      <c r="G23" s="174">
+      <c r="G23" s="169">
         <f t="shared" si="7"/>
         <v>7.6103807884280353E-2</v>
       </c>
-      <c r="H23" s="174">
+      <c r="H23" s="169">
         <f t="shared" si="7"/>
         <v>7.4161616747551548E-2</v>
       </c>
-      <c r="I23" s="174" t="str">
+      <c r="I23" s="169" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J23" s="174" t="str">
+      <c r="J23" s="169" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K23" s="174" t="str">
+      <c r="K23" s="169" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L23" s="174" t="str">
+      <c r="L23" s="169" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M23" s="174" t="str">
+      <c r="M23" s="169" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -4364,48 +4437,48 @@
       <c r="B24" s="106" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="175">
-        <f>IF(C6="","",C21*(1-Fin_Analysis!$F$84))</f>
+      <c r="C24" s="170">
+        <f>IF(C6="","",C21*(1-Fin_Analysis!$I$84))</f>
         <v>728070.75</v>
       </c>
       <c r="D24" s="80">
-        <f>IF(D6="","",D21*(1-Fin_Analysis!$F$84))</f>
+        <f>IF(D6="","",D21*(1-Fin_Analysis!$I$84))</f>
         <v>941948.25</v>
       </c>
       <c r="E24" s="80">
-        <f>IF(E6="","",E21*(1-Fin_Analysis!$F$84))</f>
+        <f>IF(E6="","",E21*(1-Fin_Analysis!$I$84))</f>
         <v>-78836.25</v>
       </c>
       <c r="F24" s="80">
-        <f>IF(F6="","",F21*(1-Fin_Analysis!$F$84))</f>
+        <f>IF(F6="","",F21*(1-Fin_Analysis!$I$84))</f>
         <v>575737.75</v>
       </c>
       <c r="G24" s="80">
-        <f>IF(G6="","",G21*(1-Fin_Analysis!$F$84))</f>
+        <f>IF(G6="","",G21*(1-Fin_Analysis!$I$84))</f>
         <v>854932.75</v>
       </c>
       <c r="H24" s="80">
-        <f>IF(H6="","",H21*(1-Fin_Analysis!$F$84))</f>
+        <f>IF(H6="","",H21*(1-Fin_Analysis!$I$84))</f>
         <v>1176202.5</v>
       </c>
       <c r="I24" s="80" t="str">
-        <f>IF(I6="","",I21*(1-Fin_Analysis!$F$84))</f>
+        <f>IF(I6="","",I21*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
       <c r="J24" s="80" t="str">
-        <f>IF(J6="","",J21*(1-Fin_Analysis!$F$84))</f>
+        <f>IF(J6="","",J21*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
       <c r="K24" s="80" t="str">
-        <f>IF(K6="","",K21*(1-Fin_Analysis!$F$84))</f>
+        <f>IF(K6="","",K21*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
       <c r="L24" s="80" t="str">
-        <f>IF(L6="","",L21*(1-Fin_Analysis!$F$84))</f>
+        <f>IF(L6="","",L21*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
       <c r="M24" s="80" t="str">
-        <f>IF(M6="","",M21*(1-Fin_Analysis!$F$84))</f>
+        <f>IF(M6="","",M21*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
       <c r="N24" s="90"/>
@@ -4415,47 +4488,47 @@
       <c r="B25" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="176">
+      <c r="C25" s="171">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-0.22705865210748041</v>
       </c>
-      <c r="D25" s="176" t="str">
+      <c r="D25" s="171" t="str">
         <f t="shared" ref="D25:M25" si="8">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>Turn</v>
       </c>
-      <c r="E25" s="176" t="str">
+      <c r="E25" s="171" t="str">
         <f t="shared" si="8"/>
         <v>Turn</v>
       </c>
-      <c r="F25" s="176">
+      <c r="F25" s="171">
         <f t="shared" si="8"/>
         <v>-0.32656954596721205</v>
       </c>
-      <c r="G25" s="176">
+      <c r="G25" s="171">
         <f t="shared" si="8"/>
         <v>-0.27314152962606353</v>
       </c>
-      <c r="H25" s="176" t="str">
+      <c r="H25" s="171" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I25" s="176" t="str">
+      <c r="I25" s="171" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J25" s="176" t="str">
+      <c r="J25" s="171" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K25" s="176" t="str">
+      <c r="K25" s="171" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L25" s="176" t="str">
+      <c r="L25" s="171" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M25" s="176" t="str">
+      <c r="M25" s="171" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -4463,8 +4536,8 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="122" t="s">
-        <v>147</v>
+      <c r="B26" s="121" t="s">
+        <v>145</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -4572,22 +4645,22 @@
         <f>Fin_Analysis!C28</f>
         <v>12332308</v>
       </c>
-      <c r="D28" s="170">
+      <c r="D28" s="165">
         <v>11972903</v>
       </c>
-      <c r="E28" s="170">
+      <c r="E28" s="165">
         <v>13002006</v>
       </c>
-      <c r="F28" s="170">
+      <c r="F28" s="165">
         <v>11732726</v>
       </c>
-      <c r="G28" s="170"/>
-      <c r="H28" s="170"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="170"/>
-      <c r="K28" s="170"/>
-      <c r="L28" s="170"/>
-      <c r="M28" s="170"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="165"/>
+      <c r="K28" s="165"/>
+      <c r="L28" s="165"/>
+      <c r="M28" s="165"/>
       <c r="N28" s="90"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4599,49 +4672,49 @@
         <f>Fin_Analysis!C13</f>
         <v>265773</v>
       </c>
-      <c r="D29" s="170">
+      <c r="D29" s="165">
         <v>213823</v>
       </c>
-      <c r="E29" s="170">
+      <c r="E29" s="165">
         <v>187711</v>
       </c>
-      <c r="F29" s="170">
+      <c r="F29" s="165">
         <v>277338</v>
       </c>
-      <c r="G29" s="170"/>
-      <c r="H29" s="170"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="170"/>
-      <c r="K29" s="170"/>
-      <c r="L29" s="170"/>
-      <c r="M29" s="170"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="165"/>
+      <c r="K29" s="165"/>
+      <c r="L29" s="165"/>
+      <c r="M29" s="165"/>
       <c r="N29" s="90"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C30" s="66">
         <f>Fin_Analysis!C18</f>
         <v>9672256</v>
       </c>
-      <c r="D30" s="170">
+      <c r="D30" s="165">
         <v>8852611</v>
       </c>
-      <c r="E30" s="170">
+      <c r="E30" s="165">
         <v>8769304</v>
       </c>
-      <c r="F30" s="170">
+      <c r="F30" s="165">
         <v>7321614</v>
       </c>
-      <c r="G30" s="170"/>
-      <c r="H30" s="170"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="170"/>
-      <c r="K30" s="170"/>
-      <c r="L30" s="170"/>
-      <c r="M30" s="170"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="165"/>
+      <c r="I30" s="165"/>
+      <c r="J30" s="165"/>
+      <c r="K30" s="165"/>
+      <c r="L30" s="165"/>
+      <c r="M30" s="165"/>
       <c r="N30" s="90"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4653,22 +4726,22 @@
         <f>Fin_Analysis!I28</f>
         <v>3516809</v>
       </c>
-      <c r="D31" s="170">
+      <c r="D31" s="165">
         <v>2466431</v>
       </c>
-      <c r="E31" s="170">
+      <c r="E31" s="165">
         <v>3908586</v>
       </c>
-      <c r="F31" s="170">
+      <c r="F31" s="165">
         <v>2946772</v>
       </c>
-      <c r="G31" s="170"/>
-      <c r="H31" s="170"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="170"/>
-      <c r="K31" s="170"/>
-      <c r="L31" s="170"/>
-      <c r="M31" s="170"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="165"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="165"/>
+      <c r="K31" s="165"/>
+      <c r="L31" s="165"/>
+      <c r="M31" s="165"/>
       <c r="N31" s="90"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4680,22 +4753,22 @@
         <f>Fin_Analysis!I48</f>
         <v>473357</v>
       </c>
-      <c r="D32" s="170">
+      <c r="D32" s="165">
         <v>241133</v>
       </c>
-      <c r="E32" s="170">
+      <c r="E32" s="165">
         <v>233155</v>
       </c>
-      <c r="F32" s="170">
+      <c r="F32" s="165">
         <v>241043</v>
       </c>
-      <c r="G32" s="170"/>
-      <c r="H32" s="170"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="170"/>
-      <c r="K32" s="170"/>
-      <c r="L32" s="170"/>
-      <c r="M32" s="170"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="165"/>
+      <c r="I32" s="165"/>
+      <c r="J32" s="165"/>
+      <c r="K32" s="165"/>
+      <c r="L32" s="165"/>
+      <c r="M32" s="165"/>
       <c r="N32" s="90"/>
     </row>
     <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4705,24 +4778,24 @@
       </c>
       <c r="C33" s="66">
         <f>Fin_Analysis!I15</f>
-        <v>649697</v>
-      </c>
-      <c r="D33" s="170">
+        <v>1715502</v>
+      </c>
+      <c r="D33" s="165">
         <v>35175</v>
       </c>
-      <c r="E33" s="170">
+      <c r="E33" s="165">
         <v>1587989</v>
       </c>
-      <c r="F33" s="170">
+      <c r="F33" s="165">
         <v>1050082</v>
       </c>
-      <c r="G33" s="170"/>
-      <c r="H33" s="170"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="170"/>
-      <c r="K33" s="170"/>
-      <c r="L33" s="170"/>
-      <c r="M33" s="170"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="165"/>
+      <c r="I33" s="165"/>
+      <c r="J33" s="165"/>
+      <c r="K33" s="165"/>
+      <c r="L33" s="165"/>
+      <c r="M33" s="165"/>
       <c r="N33" s="90"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4734,22 +4807,22 @@
         <f>Fin_Analysis!I34</f>
         <v>319420</v>
       </c>
-      <c r="D34" s="170">
+      <c r="D34" s="165">
         <v>67759</v>
       </c>
-      <c r="E34" s="170">
+      <c r="E34" s="165">
         <v>153013</v>
       </c>
-      <c r="F34" s="170">
+      <c r="F34" s="165">
         <v>81854</v>
       </c>
-      <c r="G34" s="170"/>
-      <c r="H34" s="170"/>
-      <c r="I34" s="170"/>
-      <c r="J34" s="170"/>
-      <c r="K34" s="170"/>
-      <c r="L34" s="170"/>
-      <c r="M34" s="170"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="165"/>
+      <c r="K34" s="165"/>
+      <c r="L34" s="165"/>
+      <c r="M34" s="165"/>
       <c r="N34" s="90"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4759,7 +4832,7 @@
       </c>
       <c r="C35" s="80">
         <f t="shared" ref="C35:M35" si="19">IF(C6="","",C33+C34)</f>
-        <v>969117</v>
+        <v>2034922</v>
       </c>
       <c r="D35" s="80">
         <f t="shared" si="19"/>
@@ -4806,88 +4879,88 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="98" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C36" s="66">
         <f>Fin_Analysis!D3</f>
         <v>12863898</v>
       </c>
-      <c r="D36" s="170">
+      <c r="D36" s="165">
         <v>12220942</v>
       </c>
-      <c r="E36" s="170">
+      <c r="E36" s="165">
         <v>12078528</v>
       </c>
-      <c r="F36" s="170">
+      <c r="F36" s="165">
         <v>11324224</v>
       </c>
-      <c r="G36" s="170"/>
-      <c r="H36" s="170"/>
-      <c r="I36" s="170"/>
-      <c r="J36" s="170"/>
-      <c r="K36" s="170"/>
-      <c r="L36" s="170"/>
-      <c r="M36" s="170"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="165"/>
+      <c r="I36" s="165"/>
+      <c r="J36" s="165"/>
+      <c r="K36" s="165"/>
+      <c r="L36" s="165"/>
+      <c r="M36" s="165"/>
       <c r="N36" s="90"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="98" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C37" s="66">
         <f>Fin_Analysis!D4</f>
         <v>-26962</v>
       </c>
-      <c r="D37" s="170">
+      <c r="D37" s="165">
         <v>-498</v>
       </c>
-      <c r="E37" s="170">
+      <c r="E37" s="165">
         <v>468</v>
       </c>
-      <c r="F37" s="170">
+      <c r="F37" s="165">
         <v>411</v>
       </c>
-      <c r="G37" s="170"/>
-      <c r="H37" s="170"/>
-      <c r="I37" s="170"/>
-      <c r="J37" s="170"/>
-      <c r="K37" s="170"/>
-      <c r="L37" s="170"/>
-      <c r="M37" s="170"/>
+      <c r="G37" s="165"/>
+      <c r="H37" s="165"/>
+      <c r="I37" s="165"/>
+      <c r="J37" s="165"/>
+      <c r="K37" s="165"/>
+      <c r="L37" s="165"/>
+      <c r="M37" s="165"/>
       <c r="N37" s="90"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="98" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C38" s="66">
         <f>Fin_Analysis!C63</f>
         <v>2923945</v>
       </c>
-      <c r="D38" s="170">
+      <c r="D38" s="165">
         <v>3475378</v>
       </c>
-      <c r="E38" s="170">
+      <c r="E38" s="165">
         <v>4499643</v>
       </c>
-      <c r="F38" s="170">
+      <c r="F38" s="165">
         <v>4455433</v>
       </c>
-      <c r="G38" s="170"/>
-      <c r="H38" s="170"/>
-      <c r="I38" s="170"/>
-      <c r="J38" s="170"/>
-      <c r="K38" s="170"/>
-      <c r="L38" s="170"/>
-      <c r="M38" s="170"/>
+      <c r="G38" s="165"/>
+      <c r="H38" s="165"/>
+      <c r="I38" s="165"/>
+      <c r="J38" s="165"/>
+      <c r="K38" s="165"/>
+      <c r="L38" s="165"/>
+      <c r="M38" s="165"/>
       <c r="N38" s="90"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="98" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C39" s="66">
         <f>Fin_Analysis!C68</f>
@@ -4938,49 +5011,49 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="102" t="s">
-        <v>171</v>
-      </c>
-      <c r="C40" s="177">
+        <v>169</v>
+      </c>
+      <c r="C40" s="172">
         <f t="shared" ref="C40:M40" si="21">IF(C6="","",C21/C39)</f>
         <v>6.9687918674635876E-2</v>
       </c>
-      <c r="D40" s="177">
+      <c r="D40" s="172">
         <f t="shared" si="21"/>
         <v>0.10965833962564638</v>
       </c>
-      <c r="E40" s="177">
+      <c r="E40" s="172">
         <f t="shared" si="21"/>
         <v>-8.9683776276113583E-3</v>
       </c>
-      <c r="F40" s="177">
+      <c r="F40" s="172">
         <f t="shared" si="21"/>
         <v>7.6332943075758691E-2</v>
       </c>
-      <c r="G40" s="177" t="e">
+      <c r="G40" s="172" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="177" t="e">
+      <c r="H40" s="172" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="177" t="str">
+      <c r="I40" s="172" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="J40" s="177" t="str">
+      <c r="J40" s="172" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="K40" s="177" t="str">
+      <c r="K40" s="172" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="L40" s="177" t="str">
+      <c r="L40" s="172" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="M40" s="177" t="str">
+      <c r="M40" s="172" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
@@ -5009,47 +5082,47 @@
       <c r="B42" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="178">
+      <c r="C42" s="173">
         <f t="shared" ref="C42:M42" si="22">IF(C6="","",C8/C6)</f>
         <v>0.72762956087193742</v>
       </c>
-      <c r="D42" s="178">
+      <c r="D42" s="173">
         <f t="shared" si="22"/>
         <v>0.7303022981431383</v>
       </c>
-      <c r="E42" s="178">
+      <c r="E42" s="173">
         <f t="shared" si="22"/>
         <v>0.7244946946204498</v>
       </c>
-      <c r="F42" s="178">
+      <c r="F42" s="173">
         <f t="shared" si="22"/>
         <v>0.70294374380383995</v>
       </c>
-      <c r="G42" s="178">
+      <c r="G42" s="173">
         <f t="shared" si="22"/>
         <v>0.70419372087965826</v>
       </c>
-      <c r="H42" s="178">
+      <c r="H42" s="173">
         <f t="shared" si="22"/>
         <v>0.74565961264792724</v>
       </c>
-      <c r="I42" s="178" t="str">
+      <c r="I42" s="173" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="J42" s="178" t="str">
+      <c r="J42" s="173" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="K42" s="178" t="str">
+      <c r="K42" s="173" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="L42" s="178" t="str">
+      <c r="L42" s="173" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="M42" s="178" t="str">
+      <c r="M42" s="173" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
@@ -5060,47 +5133,47 @@
       <c r="B43" s="98" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="174">
+      <c r="C43" s="169">
         <f t="shared" ref="C43:M43" si="23">IF(C6="","",(C10-C12)/C6)</f>
         <v>0.12012374818624762</v>
       </c>
-      <c r="D43" s="174">
+      <c r="D43" s="169">
         <f t="shared" si="23"/>
         <v>0.12475734364214461</v>
       </c>
-      <c r="E43" s="174">
+      <c r="E43" s="169">
         <f t="shared" si="23"/>
         <v>0.1546380527940365</v>
       </c>
-      <c r="F43" s="174">
+      <c r="F43" s="169">
         <f t="shared" si="23"/>
         <v>0.19122175157580659</v>
       </c>
-      <c r="G43" s="174">
+      <c r="G43" s="169">
         <f t="shared" si="23"/>
         <v>0.18856108069142588</v>
       </c>
-      <c r="H43" s="174">
+      <c r="H43" s="169">
         <f t="shared" si="23"/>
         <v>0.15238149582692045</v>
       </c>
-      <c r="I43" s="174" t="str">
+      <c r="I43" s="169" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="J43" s="174" t="str">
+      <c r="J43" s="169" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="K43" s="174" t="str">
+      <c r="K43" s="169" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="L43" s="174" t="str">
+      <c r="L43" s="169" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="M43" s="174" t="str">
+      <c r="M43" s="169" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
@@ -5111,47 +5184,47 @@
       <c r="B44" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="174">
+      <c r="C44" s="169">
         <f t="shared" ref="C44:M44" si="24">IF(C6="","",(C14+MAX(C15,0))/C6)</f>
         <v>4.413341231043115E-2</v>
       </c>
-      <c r="D44" s="174">
+      <c r="D44" s="169">
         <f t="shared" si="24"/>
         <v>8.9565367523571013E-3</v>
       </c>
-      <c r="E44" s="174">
+      <c r="E44" s="169">
         <f t="shared" si="24"/>
         <v>3.8804791663312119E-2</v>
       </c>
-      <c r="F44" s="174">
+      <c r="F44" s="169">
         <f t="shared" si="24"/>
         <v>1.5679014505150749E-2</v>
       </c>
-      <c r="G44" s="174">
+      <c r="G44" s="169">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="H44" s="174">
+      <c r="H44" s="169">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I44" s="174" t="str">
+      <c r="I44" s="169" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J44" s="174" t="str">
+      <c r="J44" s="169" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="K44" s="174" t="str">
+      <c r="K44" s="169" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="L44" s="174" t="str">
+      <c r="L44" s="169" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="M44" s="174" t="str">
+      <c r="M44" s="169" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -5162,47 +5235,47 @@
       <c r="B45" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="C45" s="174">
+      <c r="C45" s="169">
         <f t="shared" ref="C45:M45" si="25">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>4.0883763120383568E-2</v>
       </c>
-      <c r="D45" s="174">
+      <c r="D45" s="169">
         <f t="shared" si="25"/>
         <v>2.9395857885609465E-2</v>
       </c>
-      <c r="E45" s="174">
+      <c r="E45" s="169">
         <f t="shared" si="25"/>
         <v>8.9049969572670459E-2</v>
       </c>
-      <c r="F45" s="174">
+      <c r="F45" s="169">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="G45" s="174">
+      <c r="G45" s="169">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="H45" s="174">
+      <c r="H45" s="169">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I45" s="174" t="str">
+      <c r="I45" s="169" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="J45" s="174" t="str">
+      <c r="J45" s="169" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="K45" s="174" t="str">
+      <c r="K45" s="169" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="L45" s="174" t="str">
+      <c r="L45" s="169" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="M45" s="174" t="str">
+      <c r="M45" s="169" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
@@ -5213,47 +5286,47 @@
       <c r="B46" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="C46" s="174">
+      <c r="C46" s="169">
         <f t="shared" ref="C46:M46" si="26">IF(C6="","",C17/C6)</f>
         <v>3.8885650375487034E-3</v>
       </c>
-      <c r="D46" s="174">
+      <c r="D46" s="169">
         <f t="shared" si="26"/>
         <v>1.7334505274905901E-3</v>
       </c>
-      <c r="E46" s="174">
+      <c r="E46" s="169">
         <f t="shared" si="26"/>
         <v>1.9677447304235723E-3</v>
       </c>
-      <c r="F46" s="174">
+      <c r="F46" s="169">
         <f t="shared" si="26"/>
         <v>3.2556042627888463E-3</v>
       </c>
-      <c r="G46" s="174">
+      <c r="G46" s="169">
         <f t="shared" si="26"/>
         <v>5.6147664039083583E-3</v>
       </c>
-      <c r="H46" s="174">
+      <c r="H46" s="169">
         <f t="shared" si="26"/>
         <v>2.1597113239037349E-3</v>
       </c>
-      <c r="I46" s="174" t="str">
+      <c r="I46" s="169" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="J46" s="174" t="str">
+      <c r="J46" s="169" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="K46" s="174" t="str">
+      <c r="K46" s="169" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="L46" s="174" t="str">
+      <c r="L46" s="169" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="M46" s="174" t="str">
+      <c r="M46" s="169" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
@@ -5264,48 +5337,48 @@
       <c r="B47" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="C47" s="174">
-        <f>IF(C6="","",MAX(C18,0)/(1-Fin_Analysis!$F$84)/C6)</f>
+      <c r="C47" s="169">
+        <f>IF(C6="","",MAX(C18,0)/(1-Fin_Analysis!$I$84)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="174">
-        <f>IF(D6="","",MAX(D18,0)/(1-Fin_Analysis!$F$84)/D6)</f>
+      <c r="D47" s="169">
+        <f>IF(D6="","",MAX(D18,0)/(1-Fin_Analysis!$I$84)/D6)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="174">
-        <f>IF(E6="","",MAX(E18,0)/(1-Fin_Analysis!$F$84)/E6)</f>
+      <c r="E47" s="169">
+        <f>IF(E6="","",MAX(E18,0)/(1-Fin_Analysis!$I$84)/E6)</f>
         <v>0</v>
       </c>
-      <c r="F47" s="174">
-        <f>IF(F6="","",MAX(F18,0)/(1-Fin_Analysis!$F$84)/F6)</f>
+      <c r="F47" s="169">
+        <f>IF(F6="","",MAX(F18,0)/(1-Fin_Analysis!$I$84)/F6)</f>
         <v>2.7068908541056925E-4</v>
       </c>
-      <c r="G47" s="174">
-        <f>IF(G6="","",MAX(G18,0)/(1-Fin_Analysis!$F$84)/G6)</f>
+      <c r="G47" s="169">
+        <f>IF(G6="","",MAX(G18,0)/(1-Fin_Analysis!$I$84)/G6)</f>
         <v>1.5868817930031392E-4</v>
       </c>
-      <c r="H47" s="174">
-        <f>IF(H6="","",MAX(H18,0)/(1-Fin_Analysis!$F$84)/H6)</f>
+      <c r="H47" s="169">
+        <f>IF(H6="","",MAX(H18,0)/(1-Fin_Analysis!$I$84)/H6)</f>
         <v>9.1702453784649294E-4</v>
       </c>
-      <c r="I47" s="174" t="str">
-        <f>IF(I6="","",MAX(I18,0)/(1-Fin_Analysis!$F$84)/I6)</f>
-        <v/>
-      </c>
-      <c r="J47" s="174" t="str">
-        <f>IF(J6="","",MAX(J18,0)/(1-Fin_Analysis!$F$84)/J6)</f>
-        <v/>
-      </c>
-      <c r="K47" s="174" t="str">
-        <f>IF(K6="","",MAX(K18,0)/(1-Fin_Analysis!$F$84)/K6)</f>
-        <v/>
-      </c>
-      <c r="L47" s="174" t="str">
-        <f>IF(L6="","",MAX(L18,0)/(1-Fin_Analysis!$F$84)/L6)</f>
-        <v/>
-      </c>
-      <c r="M47" s="174" t="str">
-        <f>IF(M6="","",MAX(M18,0)/(1-Fin_Analysis!$F$84)/M6)</f>
+      <c r="I47" s="169" t="str">
+        <f>IF(I6="","",MAX(I18,0)/(1-Fin_Analysis!$I$84)/I6)</f>
+        <v/>
+      </c>
+      <c r="J47" s="169" t="str">
+        <f>IF(J6="","",MAX(J18,0)/(1-Fin_Analysis!$I$84)/J6)</f>
+        <v/>
+      </c>
+      <c r="K47" s="169" t="str">
+        <f>IF(K6="","",MAX(K18,0)/(1-Fin_Analysis!$I$84)/K6)</f>
+        <v/>
+      </c>
+      <c r="L47" s="169" t="str">
+        <f>IF(L6="","",MAX(L18,0)/(1-Fin_Analysis!$I$84)/L6)</f>
+        <v/>
+      </c>
+      <c r="M47" s="169" t="str">
+        <f>IF(M6="","",MAX(M18,0)/(1-Fin_Analysis!$I$84)/M6)</f>
         <v/>
       </c>
       <c r="N47" s="90"/>
@@ -5315,47 +5388,47 @@
       <c r="B48" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="174">
+      <c r="C48" s="169">
         <f t="shared" ref="C48:M48" si="27">IF(C6="","",C21/C6)</f>
         <v>6.3340950473451521E-2</v>
       </c>
-      <c r="D48" s="174">
+      <c r="D48" s="169">
         <f t="shared" si="27"/>
         <v>0.10485451304925995</v>
       </c>
-      <c r="E48" s="174">
+      <c r="E48" s="169">
         <f t="shared" si="27"/>
         <v>-8.9552533808924892E-3</v>
       </c>
-      <c r="F48" s="174">
+      <c r="F48" s="169">
         <f t="shared" si="27"/>
         <v>8.6629196767003327E-2</v>
       </c>
-      <c r="G48" s="174">
+      <c r="G48" s="169">
         <f t="shared" si="27"/>
         <v>0.10147174384570713</v>
       </c>
-      <c r="H48" s="174">
+      <c r="H48" s="169">
         <f t="shared" si="27"/>
         <v>9.8882155663402055E-2</v>
       </c>
-      <c r="I48" s="174" t="str">
+      <c r="I48" s="169" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="J48" s="174" t="str">
+      <c r="J48" s="169" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="K48" s="174" t="str">
+      <c r="K48" s="169" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="L48" s="174" t="str">
+      <c r="L48" s="169" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="M48" s="174" t="str">
+      <c r="M48" s="169" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
@@ -5364,7 +5437,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="107" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -5382,49 +5455,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="99" t="s">
-        <v>159</v>
-      </c>
-      <c r="C50" s="178">
+        <v>157</v>
+      </c>
+      <c r="C50" s="173">
         <f t="shared" ref="C50:M50" si="28">IF(C6="","",C29/C6)</f>
         <v>1.7341358408692387E-2</v>
       </c>
-      <c r="D50" s="178">
+      <c r="D50" s="173">
         <f t="shared" si="28"/>
         <v>1.7851543232655226E-2</v>
       </c>
-      <c r="E50" s="178">
+      <c r="E50" s="173">
         <f t="shared" si="28"/>
         <v>1.5992004636642819E-2</v>
       </c>
-      <c r="F50" s="178">
+      <c r="F50" s="173">
         <f t="shared" si="28"/>
         <v>3.1297541510393184E-2</v>
       </c>
-      <c r="G50" s="178">
+      <c r="G50" s="173">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="H50" s="178">
+      <c r="H50" s="173">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="I50" s="178" t="str">
+      <c r="I50" s="173" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J50" s="178" t="str">
+      <c r="J50" s="173" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="K50" s="178" t="str">
+      <c r="K50" s="173" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="L50" s="178" t="str">
+      <c r="L50" s="173" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="M50" s="178" t="str">
+      <c r="M50" s="173" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -5433,49 +5506,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="98" t="s">
-        <v>160</v>
-      </c>
-      <c r="C51" s="174">
+        <v>158</v>
+      </c>
+      <c r="C51" s="169">
         <f t="shared" ref="C51:M51" si="29">IF(C6="","",C30/C6)</f>
         <v>0.63110270011109249</v>
       </c>
-      <c r="D51" s="174">
+      <c r="D51" s="169">
         <f t="shared" si="29"/>
         <v>0.73908217538982812</v>
       </c>
-      <c r="E51" s="174">
+      <c r="E51" s="169">
         <f t="shared" si="29"/>
         <v>0.74709926550990846</v>
       </c>
-      <c r="F51" s="174">
+      <c r="F51" s="169">
         <f t="shared" si="29"/>
         <v>0.82624277267477186</v>
       </c>
-      <c r="G51" s="174">
+      <c r="G51" s="169">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="H51" s="174">
+      <c r="H51" s="169">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="I51" s="174" t="str">
+      <c r="I51" s="169" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="J51" s="174" t="str">
+      <c r="J51" s="169" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="K51" s="174" t="str">
+      <c r="K51" s="169" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="L51" s="174" t="str">
+      <c r="L51" s="169" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="M51" s="174" t="str">
+      <c r="M51" s="169" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
@@ -5503,47 +5576,47 @@
       <c r="B53" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="178">
+      <c r="C53" s="173">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.23674800333023538</v>
       </c>
-      <c r="D53" s="178">
+      <c r="D53" s="173">
         <f t="shared" ref="D53:M53" si="30">IF(D36="","",(D27-D36)/D27)</f>
         <v>0.1813687183432823</v>
       </c>
-      <c r="E53" s="178">
+      <c r="E53" s="173">
         <f t="shared" si="30"/>
         <v>0.2553435457821322</v>
       </c>
-      <c r="F53" s="178">
+      <c r="F53" s="173">
         <f t="shared" si="30"/>
         <v>0.21966692619831024</v>
       </c>
-      <c r="G53" s="178" t="str">
+      <c r="G53" s="173" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="H53" s="178" t="str">
+      <c r="H53" s="173" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="I53" s="178" t="str">
+      <c r="I53" s="173" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="J53" s="178" t="str">
+      <c r="J53" s="173" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="K53" s="178" t="str">
+      <c r="K53" s="173" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="L53" s="178" t="str">
+      <c r="L53" s="173" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="M53" s="178" t="str">
+      <c r="M53" s="173" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
@@ -5553,47 +5626,47 @@
       <c r="B54" s="98" t="s">
         <v>125</v>
       </c>
-      <c r="C54" s="179">
+      <c r="C54" s="174">
         <f t="shared" ref="C54:M54" si="31">IF(C21="","",IF(C35&lt;=0,"-",C21/C35))</f>
-        <v>1.0016963896000173</v>
-      </c>
-      <c r="D54" s="179">
+        <v>0.4770507174230757</v>
+      </c>
+      <c r="D54" s="174">
         <f t="shared" si="31"/>
         <v>12.201323177958692</v>
       </c>
-      <c r="E54" s="179">
+      <c r="E54" s="174">
         <f t="shared" si="31"/>
         <v>-6.0376151204880865E-2</v>
       </c>
-      <c r="F54" s="179">
+      <c r="F54" s="174">
         <f t="shared" si="31"/>
         <v>0.67817467889821803</v>
       </c>
-      <c r="G54" s="179" t="str">
+      <c r="G54" s="174" t="str">
         <f t="shared" si="31"/>
         <v>-</v>
       </c>
-      <c r="H54" s="179" t="str">
+      <c r="H54" s="174" t="str">
         <f t="shared" si="31"/>
         <v>-</v>
       </c>
-      <c r="I54" s="179" t="str">
+      <c r="I54" s="174" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="J54" s="179" t="str">
+      <c r="J54" s="174" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="K54" s="179" t="str">
+      <c r="K54" s="174" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="L54" s="179" t="str">
+      <c r="L54" s="174" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="M54" s="179" t="str">
+      <c r="M54" s="174" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
@@ -5603,47 +5676,47 @@
       <c r="B55" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="174">
+      <c r="C55" s="169">
         <f t="shared" ref="C55:M55" si="32">IF(C21="","",IF(C17&lt;=0,"-",C17/C21))</f>
         <v>6.1391011793840093E-2</v>
       </c>
-      <c r="D55" s="174">
+      <c r="D55" s="169">
         <f t="shared" si="32"/>
         <v>1.6531959160176794E-2</v>
       </c>
-      <c r="E55" s="174">
+      <c r="E55" s="169">
         <f t="shared" si="32"/>
         <v>-0.21973077106026734</v>
       </c>
-      <c r="F55" s="174">
+      <c r="F55" s="169">
         <f t="shared" si="32"/>
         <v>3.7580912490105083E-2</v>
       </c>
-      <c r="G55" s="174">
+      <c r="G55" s="169">
         <f t="shared" si="32"/>
         <v>5.5333299607483753E-2</v>
       </c>
-      <c r="H55" s="174">
+      <c r="H55" s="169">
         <f t="shared" si="32"/>
         <v>2.1841264578165751E-2</v>
       </c>
-      <c r="I55" s="174" t="str">
+      <c r="I55" s="169" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="J55" s="174" t="str">
+      <c r="J55" s="169" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="K55" s="174" t="str">
+      <c r="K55" s="169" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="L55" s="174" t="str">
+      <c r="L55" s="169" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="M55" s="174" t="str">
+      <c r="M55" s="169" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
@@ -5653,47 +5726,47 @@
       <c r="B56" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="180">
+      <c r="C56" s="175">
         <f t="shared" ref="C56:M56" si="33">IF(C28="","",C28/C31)</f>
         <v>3.5066755118062995</v>
       </c>
-      <c r="D56" s="180">
+      <c r="D56" s="175">
         <f t="shared" si="33"/>
         <v>4.8543433811852026</v>
       </c>
-      <c r="E56" s="180">
+      <c r="E56" s="175">
         <f t="shared" si="33"/>
         <v>3.3265242212912804</v>
       </c>
-      <c r="F56" s="180">
+      <c r="F56" s="175">
         <f t="shared" si="33"/>
         <v>3.9815520169188523</v>
       </c>
-      <c r="G56" s="180" t="str">
+      <c r="G56" s="175" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H56" s="180" t="str">
+      <c r="H56" s="175" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I56" s="180" t="str">
+      <c r="I56" s="175" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J56" s="180" t="str">
+      <c r="J56" s="175" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K56" s="180" t="str">
+      <c r="K56" s="175" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L56" s="180" t="str">
+      <c r="L56" s="175" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M56" s="180" t="str">
+      <c r="M56" s="175" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -6955,22 +7028,22 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="7" priority="4">
+    <cfRule type="containsBlanks" dxfId="9" priority="4">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="6" priority="3">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="5" priority="2">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="4" priority="1">
+    <cfRule type="containsBlanks" dxfId="6" priority="1">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6989,20 +7062,19 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K106"/>
+  <dimension ref="A2:K142"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="18.59765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.59765625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
@@ -7029,7 +7101,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="90"/>
-      <c r="D3" s="124">
+      <c r="D3" s="123">
         <f>C49-I49</f>
         <v>12863898</v>
       </c>
@@ -7141,7 +7213,7 @@
       <c r="D9" s="68">
         <v>45381</v>
       </c>
-      <c r="E9" s="127" t="str">
+      <c r="E9" s="126" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>FY</v>
       </c>
@@ -7159,7 +7231,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="77" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E10" s="77" t="s">
         <v>35</v>
@@ -7196,14 +7268,15 @@
         <v>39</v>
       </c>
       <c r="I11" s="60">
-        <v>362000</v>
+        <f>362000+1065805</f>
+        <v>1427805</v>
       </c>
       <c r="J11" s="90"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C12" s="60"/>
       <c r="D12" s="61">
@@ -7264,7 +7337,7 @@
       <c r="H14" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="128"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="90"/>
       <c r="K14" s="27"/>
     </row>
@@ -7287,13 +7360,13 @@
       </c>
       <c r="I15" s="87">
         <f>SUM(I11:I14)</f>
-        <v>649697</v>
+        <v>1715502</v>
       </c>
       <c r="J15" s="90"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C16" s="60"/>
       <c r="D16" s="61">
@@ -7428,7 +7501,7 @@
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
-        <v>2867112</v>
+        <v>1801307</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -7517,7 +7590,7 @@
       </c>
       <c r="I26" s="64">
         <f>E24/($I$28-I22)</f>
-        <v>3.4028745707614472</v>
+        <v>1.2887407884106226</v>
       </c>
       <c r="J26" s="8" t="str">
         <f>IF(I26&lt;1,"Liquidity Problem!","")</f>
@@ -7661,7 +7734,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C33" s="60"/>
       <c r="D33" s="61">
@@ -7679,7 +7752,7 @@
       <c r="H33" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="128"/>
+      <c r="I33" s="127"/>
       <c r="J33" s="90"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
@@ -7942,7 +8015,7 @@
       </c>
       <c r="I46" s="64">
         <f>(E44+E24)/E64</f>
-        <v>2.2812904943365973</v>
+        <v>1.086448227499629</v>
       </c>
       <c r="J46" s="8" t="str">
         <f>IF(I46&lt;1,"Liquidity Problem!","")</f>
@@ -8005,7 +8078,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -8032,20 +8105,20 @@
       </c>
       <c r="J49" s="90"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="90"/>
       <c r="D50" s="90"/>
       <c r="E50" s="90"/>
       <c r="I50" s="90"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -8057,12 +8130,12 @@
       <c r="E52" s="90"/>
       <c r="F52" s="90"/>
       <c r="G52" s="90"/>
-      <c r="H52" s="50" t="s">
+      <c r="I52" s="90"/>
+      <c r="K52" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="90"/>
-    </row>
-    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -8080,85 +8153,85 @@
       </c>
       <c r="F53" s="90"/>
       <c r="G53" s="90"/>
-      <c r="H53" s="90"/>
       <c r="I53" s="41"/>
-    </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K53" s="33"/>
+    </row>
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="90"/>
       <c r="D54" s="90"/>
       <c r="E54" s="90"/>
       <c r="F54" s="90"/>
       <c r="G54" s="90"/>
-      <c r="H54" s="90"/>
       <c r="I54" s="90"/>
-    </row>
-    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="K54" s="33"/>
+    </row>
+    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="135"/>
+      <c r="E55" s="133"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="90"/>
       <c r="I55" s="90"/>
-    </row>
-    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="K55" s="33"/>
+    </row>
+    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
       <c r="C56" s="90"/>
-      <c r="D56" s="218">
+      <c r="D56" s="224">
         <f>I15+I34</f>
-        <v>969117</v>
-      </c>
-      <c r="E56" s="219"/>
+        <v>2034922</v>
+      </c>
+      <c r="E56" s="225"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
-      <c r="H56" s="90"/>
       <c r="I56" s="56"/>
-    </row>
-    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="K56" s="33"/>
+    </row>
+    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C57" s="90"/>
-      <c r="D57" s="217">
+      <c r="D57" s="223">
         <v>0</v>
       </c>
-      <c r="E57" s="216"/>
+      <c r="E57" s="222"/>
       <c r="G57" s="90"/>
-      <c r="H57" s="90" t="s">
+      <c r="I57" s="90"/>
+      <c r="K57" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="I57" s="90"/>
-    </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C58" s="90"/>
-      <c r="D58" s="217">
+      <c r="D58" s="223">
         <v>0</v>
       </c>
-      <c r="E58" s="216"/>
+      <c r="E58" s="222"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="H58" s="90"/>
       <c r="I58" s="90"/>
-    </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K58" s="33"/>
+    </row>
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="90"/>
       <c r="D59" s="90"/>
       <c r="E59" s="90"/>
       <c r="F59" s="90"/>
       <c r="G59" s="90"/>
-      <c r="H59" s="90"/>
       <c r="I59" s="90"/>
-    </row>
-    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="K59" s="33"/>
+    </row>
+    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="78" t="s">
@@ -8167,10 +8240,10 @@
       <c r="E60" s="90"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="H60" s="90"/>
       <c r="I60" s="90"/>
-    </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K60" s="33"/>
+    </row>
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -8188,14 +8261,14 @@
       </c>
       <c r="F61" s="90"/>
       <c r="G61" s="90"/>
-      <c r="H61" s="90"/>
       <c r="I61" s="90"/>
-    </row>
-    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="K61" s="33"/>
+    </row>
+    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="C62" s="125">
+        <v>150</v>
+      </c>
+      <c r="C62" s="124">
         <f>C11+C30</f>
         <v>1998219</v>
       </c>
@@ -8203,18 +8276,18 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="E62" s="126">
+      <c r="E62" s="125">
         <f>E11+E30</f>
         <v>1998219</v>
       </c>
       <c r="F62" s="90"/>
       <c r="G62" s="90"/>
-      <c r="H62" s="90"/>
       <c r="I62" s="90"/>
-    </row>
-    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="K62" s="33"/>
+    </row>
+    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="71">
         <f>C61+C62</f>
@@ -8230,58 +8303,58 @@
       </c>
       <c r="F63" s="90"/>
       <c r="G63" s="90"/>
-      <c r="H63" s="90"/>
       <c r="I63" s="90"/>
-    </row>
-    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="129" t="s">
-        <v>164</v>
-      </c>
-      <c r="C64" s="130"/>
-      <c r="D64" s="131"/>
+      <c r="K63" s="33"/>
+    </row>
+    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="128" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" s="129"/>
+      <c r="D64" s="130"/>
       <c r="E64" s="72">
         <f>D56+D57+D58</f>
-        <v>969117</v>
+        <v>2034922</v>
       </c>
       <c r="F64" s="90"/>
       <c r="G64" s="90"/>
-      <c r="H64" s="90"/>
       <c r="I64" s="90"/>
-    </row>
-    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="K64" s="33"/>
+    </row>
+    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C65" s="71">
         <f>C63-E64</f>
-        <v>1954828</v>
+        <v>889023</v>
       </c>
       <c r="D65" s="29">
         <f t="shared" si="7"/>
-        <v>0.62115296077199644</v>
+        <v>0.16697228305679401</v>
       </c>
       <c r="E65" s="62">
         <f>E63-E64</f>
-        <v>1214247.2000000002</v>
+        <v>148442.20000000019</v>
       </c>
       <c r="F65" s="90"/>
       <c r="G65" s="90"/>
-      <c r="H65" s="90"/>
       <c r="I65" s="90"/>
-    </row>
-    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="K65" s="33"/>
+    </row>
+    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="71"/>
       <c r="D66" s="29"/>
       <c r="E66" s="62"/>
       <c r="F66" s="90"/>
       <c r="G66" s="90"/>
-      <c r="H66" s="90"/>
       <c r="I66" s="90"/>
-    </row>
-    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="K66" s="33"/>
+    </row>
+    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="78" t="s">
@@ -8290,12 +8363,12 @@
       <c r="E67" s="62"/>
       <c r="F67" s="90"/>
       <c r="G67" s="90"/>
-      <c r="H67" s="90"/>
       <c r="I67" s="90"/>
-    </row>
-    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="K67" s="33"/>
+    </row>
+    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C68" s="71">
         <f>C49-C63</f>
@@ -8311,74 +8384,87 @@
       </c>
       <c r="F68" s="90"/>
       <c r="G68" s="90"/>
-      <c r="H68" s="90"/>
       <c r="I68" s="90"/>
-    </row>
-    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="129" t="s">
-        <v>165</v>
-      </c>
-      <c r="C69" s="130"/>
-      <c r="D69" s="131"/>
-      <c r="E69" s="136">
+      <c r="K68" s="33"/>
+    </row>
+    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="128" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="129"/>
+      <c r="D69" s="130"/>
+      <c r="E69" s="134">
         <f>I49-E64</f>
-        <v>3021049</v>
+        <v>1955244</v>
       </c>
       <c r="F69" s="90"/>
       <c r="G69" s="90"/>
-      <c r="H69" s="90"/>
       <c r="I69" s="90"/>
-    </row>
-    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="K69" s="33"/>
+    </row>
+    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C70" s="71">
         <f>C68-E69</f>
-        <v>10909070</v>
+        <v>11974875</v>
       </c>
       <c r="D70" s="29">
         <f t="shared" si="7"/>
-        <v>0.23085505913886334</v>
+        <v>0.29931160032985732</v>
       </c>
       <c r="E70" s="71">
         <f>E68-E69</f>
-        <v>2518414</v>
+        <v>3584219</v>
       </c>
       <c r="F70" s="90"/>
       <c r="G70" s="90"/>
-      <c r="H70" s="90"/>
       <c r="I70" s="90"/>
-    </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K70" s="33"/>
+    </row>
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="223">
+      <c r="C72" s="228">
         <f>Data!C5</f>
         <v>45381</v>
       </c>
-      <c r="D72" s="223"/>
-      <c r="H72" s="50" t="s">
+      <c r="D72" s="228"/>
+      <c r="E72" s="226" t="s">
+        <v>230</v>
+      </c>
+      <c r="F72" s="226"/>
+      <c r="H72" s="226" t="s">
+        <v>229</v>
+      </c>
+      <c r="I72" s="226"/>
+      <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="222" t="s">
+      <c r="C73" s="227" t="s">
         <v>103</v>
       </c>
-      <c r="D73" s="222"/>
-      <c r="E73" s="224" t="s">
+      <c r="D73" s="227"/>
+      <c r="E73" s="229" t="s">
         <v>104</v>
       </c>
-      <c r="F73" s="222"/>
-    </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F73" s="227"/>
+      <c r="H73" s="229" t="s">
+        <v>104</v>
+      </c>
+      <c r="I73" s="227"/>
+      <c r="K73" s="24"/>
+    </row>
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8386,14 +8472,20 @@
         <f>Data!C6</f>
         <v>15325962</v>
       </c>
-      <c r="D74" s="181"/>
-      <c r="E74" s="182">
+      <c r="D74" s="176"/>
+      <c r="E74" s="177">
+        <f>H74*0.8</f>
+        <v>12260769.600000001</v>
+      </c>
+      <c r="F74" s="176"/>
+      <c r="H74" s="177">
         <f>C74</f>
         <v>15325962</v>
       </c>
-      <c r="F74" s="181"/>
-    </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I74" s="176"/>
+      <c r="K74" s="24"/>
+    </row>
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="109" t="s">
         <v>109</v>
       </c>
@@ -8401,35 +8493,50 @@
         <f>Data!C8</f>
         <v>11151623</v>
       </c>
-      <c r="D75" s="183">
+      <c r="D75" s="178">
         <f>C75/$C$74</f>
         <v>0.72762956087193742</v>
       </c>
-      <c r="E75" s="182">
-        <f>D75*E74</f>
+      <c r="E75" s="205">
+        <f>E74*F75</f>
+        <v>8921298.4000000004</v>
+      </c>
+      <c r="F75" s="179">
+        <f>I75</f>
+        <v>0.72762956087193742</v>
+      </c>
+      <c r="H75" s="177">
+        <f>D75*H74</f>
         <v>11151623</v>
       </c>
-      <c r="F75" s="184">
-        <f>E75/$E$74</f>
+      <c r="I75" s="179">
+        <f>H75/$H$74</f>
         <v>0.72762956087193742</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K75" s="24"/>
+    </row>
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="185">
+      <c r="C76" s="180">
         <f>C74-C75</f>
         <v>4174339</v>
       </c>
-      <c r="D76" s="186"/>
-      <c r="E76" s="187">
+      <c r="D76" s="181"/>
+      <c r="E76" s="182">
         <f>E74-E75</f>
+        <v>3339471.2000000011</v>
+      </c>
+      <c r="F76" s="181"/>
+      <c r="H76" s="182">
+        <f>H74-H75</f>
         <v>4174339</v>
       </c>
-      <c r="F76" s="186"/>
-    </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I76" s="181"/>
+      <c r="K76" s="24"/>
+    </row>
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="109" t="s">
         <v>133</v>
       </c>
@@ -8437,35 +8544,50 @@
         <f>Data!C10-Data!C12</f>
         <v>1841012</v>
       </c>
-      <c r="D77" s="183">
+      <c r="D77" s="178">
         <f>C77/$C$74</f>
         <v>0.12012374818624762</v>
       </c>
-      <c r="E77" s="182">
-        <f>D77*E74</f>
+      <c r="E77" s="205">
+        <f>E74*F77</f>
+        <v>1472809.6</v>
+      </c>
+      <c r="F77" s="179">
+        <f>I77</f>
+        <v>0.12012374818624762</v>
+      </c>
+      <c r="H77" s="177">
+        <f>D77*H74</f>
         <v>1841012</v>
       </c>
-      <c r="F77" s="184">
-        <f>E77/$E$74</f>
+      <c r="I77" s="179">
+        <f>H77/$H$74</f>
         <v>0.12012374818624762</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K77" s="24"/>
+    </row>
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C78" s="185">
+      <c r="C78" s="180">
         <f>C76-C77</f>
         <v>2333327</v>
       </c>
-      <c r="D78" s="186"/>
-      <c r="E78" s="187">
+      <c r="D78" s="181"/>
+      <c r="E78" s="182">
         <f>E76-E77</f>
+        <v>1866661.600000001</v>
+      </c>
+      <c r="F78" s="181"/>
+      <c r="H78" s="182">
+        <f>H76-H77</f>
         <v>2333327</v>
       </c>
-      <c r="F78" s="186"/>
-    </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I78" s="181"/>
+      <c r="K78" s="24"/>
+    </row>
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="109" t="s">
         <v>129</v>
       </c>
@@ -8473,20 +8595,29 @@
         <f>Data!C17</f>
         <v>59596</v>
       </c>
-      <c r="D79" s="183">
+      <c r="D79" s="178">
         <f>C79/$C$74</f>
         <v>3.8885650375487034E-3</v>
       </c>
-      <c r="E79" s="182">
+      <c r="E79" s="205">
+        <f>E74*F79</f>
+        <v>47676.80000000001</v>
+      </c>
+      <c r="F79" s="179">
+        <f t="shared" ref="F79:F84" si="8">I79</f>
+        <v>3.8885650375487034E-3</v>
+      </c>
+      <c r="H79" s="177">
         <f>C79</f>
         <v>59596</v>
       </c>
-      <c r="F79" s="184">
-        <f>E79/$E$74</f>
+      <c r="I79" s="179">
+        <f>H79/$H$74</f>
         <v>3.8885650375487034E-3</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K79" s="24"/>
+    </row>
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8494,20 +8625,29 @@
         <f>Data!C14+MAX(Data!C15,0)</f>
         <v>676387</v>
       </c>
-      <c r="D80" s="183">
+      <c r="D80" s="178">
         <f>C80/$C$74</f>
         <v>4.413341231043115E-2</v>
       </c>
-      <c r="E80" s="182">
-        <f>3%*E74</f>
+      <c r="E80" s="205">
+        <f>E74*F80</f>
+        <v>367823.08800000005</v>
+      </c>
+      <c r="F80" s="179">
+        <f t="shared" si="8"/>
+        <v>0.03</v>
+      </c>
+      <c r="H80" s="177">
+        <f>3%*H74</f>
         <v>459778.86</v>
       </c>
-      <c r="F80" s="184">
-        <f t="shared" ref="F80:F83" si="8">E80/$E$74</f>
+      <c r="I80" s="179">
+        <f>H80/$H$74</f>
         <v>0.03</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K80" s="24"/>
+    </row>
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8515,414 +8655,595 @@
         <f>MAX(Data!C16,0)</f>
         <v>626583</v>
       </c>
-      <c r="D81" s="183">
+      <c r="D81" s="178">
         <f>C81/$C$74</f>
         <v>4.0883763120383568E-2</v>
       </c>
-      <c r="E81" s="182">
+      <c r="E81" s="205">
+        <f>E74*F81</f>
+        <v>501266.4</v>
+      </c>
+      <c r="F81" s="179">
+        <f t="shared" si="8"/>
+        <v>4.0883763120383568E-2</v>
+      </c>
+      <c r="H81" s="177">
         <f>C81</f>
         <v>626583</v>
       </c>
-      <c r="F81" s="184">
-        <f t="shared" si="8"/>
+      <c r="I81" s="179">
+        <f>H81/$H$74</f>
         <v>4.0883763120383568E-2</v>
       </c>
-      <c r="H81" s="115" t="s">
+      <c r="K81" s="206" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="76" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C82" s="80">
         <f>MAX(Data!C18,0)</f>
         <v>0</v>
       </c>
-      <c r="D82" s="183">
+      <c r="D82" s="178">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="182">
+      <c r="E82" s="205">
+        <f>E74*F82</f>
         <v>0</v>
       </c>
-      <c r="F82" s="184">
+      <c r="F82" s="179">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H82" s="177">
+        <v>0</v>
+      </c>
+      <c r="I82" s="179">
+        <f>H82/$H$74</f>
+        <v>0</v>
+      </c>
+      <c r="K82" s="24"/>
+    </row>
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="110" t="s">
         <v>134</v>
       </c>
-      <c r="C83" s="188">
+      <c r="C83" s="183">
         <f>C78-C79-C80-C81-C82</f>
         <v>970761</v>
       </c>
-      <c r="D83" s="189">
+      <c r="D83" s="184">
         <f>C83/$C$74</f>
         <v>6.3340950473451521E-2</v>
       </c>
-      <c r="E83" s="190">
-        <f>E78-E79-E80-E81-E82</f>
-        <v>1187369.1400000001</v>
-      </c>
-      <c r="F83" s="191">
+      <c r="E83" s="185">
+        <f>E74*F83</f>
+        <v>949895.31200000015</v>
+      </c>
+      <c r="F83" s="186">
         <f t="shared" si="8"/>
         <v>7.7474362783882672E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="H83" s="185">
+        <f>H78-H79-H80-H81-H82</f>
+        <v>1187369.1400000001</v>
+      </c>
+      <c r="I83" s="186">
+        <f>H83/$H$74</f>
+        <v>7.7474362783882672E-2</v>
+      </c>
+      <c r="K83" s="24"/>
+    </row>
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C84" s="192"/>
-      <c r="D84" s="193"/>
-      <c r="E84" s="194"/>
-      <c r="F84" s="195">
+      <c r="C84" s="187"/>
+      <c r="D84" s="188"/>
+      <c r="E84" s="189"/>
+      <c r="F84" s="204">
+        <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H84" s="189"/>
+      <c r="I84" s="190">
+        <v>0.25</v>
+      </c>
+      <c r="K84" s="24"/>
+    </row>
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="C85" s="185">
-        <f>C83*(1-F84)</f>
+        <v>176</v>
+      </c>
+      <c r="C85" s="180">
+        <f>C83*(1-I84)</f>
         <v>728070.75</v>
       </c>
-      <c r="D85" s="191">
+      <c r="D85" s="186">
         <f>C85/$C$74</f>
         <v>4.7505712855088637E-2</v>
       </c>
-      <c r="E85" s="196">
+      <c r="E85" s="191">
         <f>E83*(1-F84)</f>
+        <v>712421.48400000017</v>
+      </c>
+      <c r="F85" s="186">
+        <f>E85/$H$74</f>
+        <v>4.648461767032961E-2</v>
+      </c>
+      <c r="H85" s="191">
+        <f>H83*(1-I84)</f>
         <v>890526.8550000001</v>
       </c>
-      <c r="F85" s="191">
-        <f>E85/$E$74</f>
+      <c r="I85" s="186">
+        <f>H85/$H$74</f>
         <v>5.8105772087912011E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K85" s="24"/>
+    </row>
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="90" t="s">
-        <v>174</v>
-      </c>
-      <c r="C86" s="197">
+        <v>172</v>
+      </c>
+      <c r="C86" s="192">
         <f>C85*Data!C4/Common_Shares</f>
         <v>1.2400971133327547</v>
       </c>
-      <c r="D86" s="181"/>
-      <c r="E86" s="198">
+      <c r="D86" s="176"/>
+      <c r="E86" s="193">
         <f>E85*Data!C4/Common_Shares</f>
+        <v>1.2134422729997565</v>
+      </c>
+      <c r="F86" s="176"/>
+      <c r="H86" s="193">
+        <f>H85*Data!C4/Common_Shares</f>
         <v>1.5168028412496957</v>
       </c>
-      <c r="F86" s="181"/>
-    </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="C87" s="199">
+      <c r="I86" s="176"/>
+      <c r="K86" s="24"/>
+    </row>
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B87" s="90" t="s">
+        <v>232</v>
+      </c>
+      <c r="C87" s="207">
+        <f>C86/Dashboard!G3</f>
+        <v>8.2125634569821943E-2</v>
+      </c>
+      <c r="D87" s="176"/>
+      <c r="E87" s="207">
+        <f>E86/Dashboard!G3</f>
+        <v>8.0360413400310693E-2</v>
+      </c>
+      <c r="F87" s="176"/>
+      <c r="H87" s="207">
+        <f>H86/Dashboard!G3</f>
+        <v>0.10045051675038838</v>
+      </c>
+      <c r="I87" s="176"/>
+      <c r="K87" s="24"/>
+    </row>
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B88" s="89" t="s">
+        <v>231</v>
+      </c>
+      <c r="C88" s="194">
         <f>0.72+0.64</f>
         <v>1.3599999999999999</v>
       </c>
-      <c r="D87" s="191">
-        <f>C87/C86</f>
+      <c r="D88" s="186">
+        <f>C88/C86</f>
         <v>1.0966883039869408</v>
       </c>
-      <c r="E87" s="200">
-        <f>C87</f>
+      <c r="E88" s="195">
+        <f>H88*0.85</f>
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="F88" s="186">
+        <f>E88/E86</f>
+        <v>0.95266171759637708</v>
+      </c>
+      <c r="H88" s="195">
+        <f>C88</f>
         <v>1.3599999999999999</v>
       </c>
-      <c r="F87" s="191">
-        <f>E87/E86</f>
+      <c r="I88" s="186">
+        <f>H88/H86</f>
         <v>0.8966227930318843</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="28"/>
-      <c r="C88" s="91"/>
-    </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="5"/>
-      <c r="B89" s="111" t="s">
+      <c r="K88" s="24"/>
+    </row>
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B89" s="90" t="s">
+        <v>233</v>
+      </c>
+      <c r="C89" s="207">
+        <f>C88/Dashboard!G3</f>
+        <v>9.0066222890229308E-2</v>
+      </c>
+      <c r="D89" s="176"/>
+      <c r="E89" s="207">
+        <f>E88/Dashboard!G3</f>
+        <v>7.6556289456694904E-2</v>
+      </c>
+      <c r="F89" s="176"/>
+      <c r="H89" s="207">
+        <f>H88/Dashboard!G3</f>
+        <v>9.0066222890229308E-2</v>
+      </c>
+      <c r="I89" s="176"/>
+      <c r="K89" s="24"/>
+    </row>
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B90" s="28"/>
+      <c r="C90" s="91"/>
+    </row>
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="5"/>
+      <c r="B91" s="111" t="s">
+        <v>166</v>
+      </c>
+      <c r="C91" s="21"/>
+      <c r="K91" s="50" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B92" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C92" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="D92" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C89" s="21"/>
-      <c r="H89" s="50" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B90" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D90" s="220" t="s">
-        <v>170</v>
-      </c>
-      <c r="E90" s="220"/>
-      <c r="G90" s="90"/>
-      <c r="H90" s="24"/>
-    </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B91" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C91" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="D91" s="221" t="s">
-        <v>222</v>
-      </c>
-      <c r="E91" s="221"/>
-      <c r="F91" s="29">
-        <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>9.9397301343345928E-2</v>
-      </c>
-      <c r="H91" s="161"/>
-    </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B92" s="1" t="str">
-        <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
-        <v>Required Return (US)</v>
-      </c>
-      <c r="C92" s="146">
-        <f>IF(C91="CN",Dashboard!C17,IF(C91="US",Dashboard!C12,IF(C91="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="D92" s="160">
+      <c r="E92" s="226" t="s">
+        <v>230</v>
+      </c>
+      <c r="F92" s="226"/>
+      <c r="G92" s="90"/>
+      <c r="H92" s="226" t="s">
+        <v>229</v>
+      </c>
+      <c r="I92" s="226"/>
+      <c r="K92" s="24"/>
+    </row>
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B93" s="1" t="str">
+        <f>C92&amp;" Required Return"</f>
+        <v>HK Required Return</v>
+      </c>
+      <c r="C93" s="144">
+        <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D93" s="210">
         <v>5</v>
       </c>
-      <c r="E92" s="90" t="s">
-        <v>223</v>
-      </c>
-      <c r="F92" s="159">
-        <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>29.001681606426391</v>
-      </c>
-      <c r="H92" s="161"/>
-    </row>
-    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H93" s="24"/>
-    </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="5"/>
-      <c r="B94" s="111" t="str">
+      <c r="E93" s="90" t="s">
+        <v>234</v>
+      </c>
+      <c r="F93" s="157">
+        <f>FV(E87,D93,0,-(E86/C93))</f>
+        <v>25.513168208416136</v>
+      </c>
+      <c r="H93" s="90" t="s">
+        <v>234</v>
+      </c>
+      <c r="I93" s="157">
+        <f>FV(H87,D93,0,-(H86/C93))</f>
+        <v>34.969038154922046</v>
+      </c>
+      <c r="K93" s="24"/>
+    </row>
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B94" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C94" s="208">
+        <f>Dashboard!G20</f>
+        <v>0.15</v>
+      </c>
+      <c r="D94" s="158"/>
+      <c r="E94" s="90" t="s">
+        <v>235</v>
+      </c>
+      <c r="F94" s="157">
+        <f>FV(E89,D93,0,-(E88/C93))</f>
+        <v>23.880505008882196</v>
+      </c>
+      <c r="H94" s="90" t="s">
+        <v>235</v>
+      </c>
+      <c r="I94" s="157">
+        <f>FV(H89,D93,0,-(H88/C93))</f>
+        <v>29.902347331465716</v>
+      </c>
+      <c r="K94" s="24"/>
+    </row>
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E95" s="24"/>
+      <c r="K95" s="24"/>
+    </row>
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="5"/>
+      <c r="B96" s="111" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C94" s="137" t="str">
+      <c r="C96" s="135" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D94" s="167" t="s">
-        <v>224</v>
-      </c>
-      <c r="E94" s="133" t="s">
-        <v>225</v>
-      </c>
-      <c r="H94" s="24"/>
-    </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B95" s="1" t="s">
+      <c r="E96" s="209" t="str">
+        <f>E72</f>
+        <v>Pessimistic Case</v>
+      </c>
+      <c r="F96" s="132" t="s">
+        <v>239</v>
+      </c>
+      <c r="H96" s="209" t="str">
+        <f>H72</f>
+        <v>Base Case</v>
+      </c>
+      <c r="I96" s="132" t="s">
+        <v>238</v>
+      </c>
+      <c r="K96" s="24"/>
+    </row>
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B97" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C95" s="95">
-        <f>D95*Common_Shares/Data!C4</f>
-        <v>11376132.888268054</v>
-      </c>
-      <c r="D95" s="132">
-        <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>19.376564098517935</v>
-      </c>
-      <c r="E95" s="132">
-        <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>14.418961379243537</v>
-      </c>
-      <c r="H95" s="24"/>
-    </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B96" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="C96" s="95">
+      <c r="C97" s="95">
+        <f>H97*Common_Shares/Data!C4</f>
+        <v>14638031.78044465</v>
+      </c>
+      <c r="E97" s="131">
+        <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
+        <v>18.190536327442807</v>
+      </c>
+      <c r="F97" s="131">
+        <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
+        <v>12.684553676976455</v>
+      </c>
+      <c r="H97" s="131">
+        <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
+        <v>24.932440914296496</v>
+      </c>
+      <c r="I97" s="211"/>
+      <c r="K97" s="24"/>
+    </row>
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B98" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C98" s="95">
         <f>E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D96" s="132">
-        <f>C96*Data!$C$4/Common_Shares</f>
+      <c r="E98" s="120"/>
+      <c r="F98" s="120"/>
+      <c r="H98" s="131">
+        <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="E96" s="120"/>
-      <c r="F96" s="121"/>
-      <c r="H96" s="24"/>
-    </row>
-    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B97" s="110" t="s">
-        <v>158</v>
-      </c>
-      <c r="C97" s="113">
+      <c r="I98" s="211"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="110" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99" s="113">
         <f>(E65+MIN(0,E70))*Exchange_Rate</f>
-        <v>1214247.2000000002</v>
-      </c>
-      <c r="D97" s="162">
-        <f>C97*Data!$C$4/Common_Shares</f>
-        <v>2.0681842356561919</v>
-      </c>
-      <c r="E97" s="163"/>
-      <c r="F97" s="134" t="s">
-        <v>144</v>
-      </c>
-      <c r="H97" s="24"/>
-    </row>
-    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B98" s="1" t="s">
+        <v>148442.20000000019</v>
+      </c>
+      <c r="E99" s="160"/>
+      <c r="F99" s="160"/>
+      <c r="H99" s="159">
+        <f>C99*Data!$C$4/Common_Shares</f>
+        <v>0.25283634003531069</v>
+      </c>
+      <c r="I99" s="212"/>
+      <c r="K99" s="24"/>
+    </row>
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B100" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C98" s="95">
-        <f>C95-C96+$C$97</f>
-        <v>12590380.088268053</v>
-      </c>
-      <c r="D98" s="114">
-        <f>MAX(C98*Data!$C$4/Common_Shares,0)</f>
-        <v>21.444748334174125</v>
-      </c>
-      <c r="E98" s="114">
-        <f>E95*Exchange_Rate-D96+D97</f>
-        <v>16.487145614899731</v>
-      </c>
-      <c r="F98" s="114">
-        <f>D98*1.25</f>
-        <v>26.805935417717656</v>
-      </c>
-      <c r="H98" s="24"/>
-    </row>
-    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H99" s="24"/>
-    </row>
-    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B100" s="10" t="s">
+      <c r="C100" s="95">
+        <f>C97-C98+$C$99</f>
+        <v>14786473.980444651</v>
+      </c>
+      <c r="E100" s="114">
+        <f>E97*Exchange_Rate-H98+H99</f>
+        <v>18.443372667478119</v>
+      </c>
+      <c r="F100" s="114">
+        <f>F97*Exchange_Rate-E98+E99</f>
+        <v>12.684553676976455</v>
+      </c>
+      <c r="H100" s="114">
+        <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
+        <v>25.185277254331808</v>
+      </c>
+      <c r="I100" s="114">
+        <f>H100*1.25</f>
+        <v>31.48159656791476</v>
+      </c>
+      <c r="K100" s="24"/>
+    </row>
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E101" s="24"/>
+      <c r="K101" s="24"/>
+    </row>
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B102" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C102" s="135" t="str">
+        <f>C96</f>
+        <v>HKD</v>
+      </c>
+      <c r="E102" s="209" t="str">
+        <f>E96</f>
+        <v>Pessimistic Case</v>
+      </c>
+      <c r="F102" s="132" t="s">
+        <v>239</v>
+      </c>
+      <c r="H102" s="209" t="str">
+        <f>H96</f>
+        <v>Base Case</v>
+      </c>
+      <c r="I102" s="132" t="s">
+        <v>238</v>
+      </c>
+      <c r="K102" s="24"/>
+    </row>
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B103" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C103" s="95">
+        <f>H103*Common_Shares/Data!C4</f>
+        <v>12517116.101641463</v>
+      </c>
+      <c r="E103" s="131">
+        <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
+        <v>17.026470030423521</v>
+      </c>
+      <c r="F103" s="114">
+        <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
+        <v>11.872831517590509</v>
+      </c>
+      <c r="H103" s="131">
+        <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
+        <v>21.319960381455406</v>
+      </c>
+      <c r="I103" s="114">
+        <f>H103*1.25</f>
+        <v>26.649950476819257</v>
+      </c>
+      <c r="K103" s="24"/>
+    </row>
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E104" s="24"/>
+      <c r="K104" s="24"/>
+    </row>
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B105" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C105" s="135" t="str">
+        <f>C102</f>
+        <v>HKD</v>
+      </c>
+      <c r="E105" s="230" t="s">
+        <v>227</v>
+      </c>
+      <c r="F105" s="132" t="s">
+        <v>239</v>
+      </c>
+      <c r="K105" s="24"/>
+    </row>
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B106" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C106" s="95">
+        <f>E106*Common_Shares/Data!C4</f>
+        <v>10412311.543101616</v>
+      </c>
+      <c r="E106" s="131">
+        <f>(E100+E103)/2</f>
+        <v>17.73492134895082</v>
+      </c>
+      <c r="F106" s="114">
+        <f>(F100+F103)/2</f>
+        <v>12.278692597283481</v>
+      </c>
+      <c r="K106" s="24"/>
+    </row>
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K107" s="24"/>
+    </row>
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B108" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C100" s="137" t="str">
-        <f>C94</f>
-        <v>HKD</v>
-      </c>
-      <c r="D100" s="168">
-        <v>0.02</v>
-      </c>
-      <c r="E100" s="133" t="s">
-        <v>143</v>
-      </c>
-      <c r="F100" s="134" t="s">
-        <v>144</v>
-      </c>
-      <c r="H100" s="24"/>
-    </row>
-    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B101" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C101" s="95">
-        <f>D101*Common_Shares/Data!C4</f>
-        <v>12476041.812499998</v>
-      </c>
-      <c r="D101" s="132">
-        <f>E87/(C92-D100)*Exchange_Rate</f>
-        <v>21.249999999999996</v>
-      </c>
-      <c r="E101" s="114">
-        <f>D101*(1-25%)</f>
-        <v>15.937499999999996</v>
-      </c>
-      <c r="F101" s="114">
-        <f>D101*1.25</f>
-        <v>26.562499999999996</v>
-      </c>
-      <c r="H101" s="24"/>
-    </row>
-    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H102" s="24"/>
-    </row>
-    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B103" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C103" s="137" t="str">
-        <f>C100</f>
-        <v>HKD</v>
-      </c>
-      <c r="D103" s="137" t="s">
-        <v>236</v>
-      </c>
-      <c r="E103" s="133" t="s">
-        <v>143</v>
-      </c>
-      <c r="F103" s="134" t="s">
-        <v>144</v>
-      </c>
-      <c r="H103" s="24"/>
-    </row>
-    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B104" s="1" t="s">
+      <c r="C108" s="136" t="s">
+        <v>228</v>
+      </c>
+      <c r="K108" s="24"/>
+    </row>
+    <row r="141" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H141" s="135" t="s">
         <v>227</v>
       </c>
-      <c r="C104" s="95">
-        <f>D104*Common_Shares/Data!C4</f>
-        <v>12533210.950384026</v>
-      </c>
-      <c r="D104" s="132">
-        <f>(D98+D101)/2</f>
-        <v>21.347374167087061</v>
-      </c>
-      <c r="E104" s="114">
-        <f>D104*(1-25%)</f>
-        <v>16.010530625315297</v>
-      </c>
-      <c r="F104" s="114">
-        <f>D104*1.25</f>
-        <v>26.684217708858824</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B106" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C106" s="138" t="s">
-        <v>237</v>
+      <c r="I141" s="132" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="142" spans="8:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H142" s="131">
+        <f>(H100+H103)/2</f>
+        <v>23.252618817893605</v>
+      </c>
+      <c r="I142" s="114">
+        <f>H142*1.25</f>
+        <v>29.065773522367007</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="E92:F92"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="C72:D72"/>
+    <mergeCell ref="H73:I73"/>
     <mergeCell ref="E73:F73"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="E72:F72"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C86:C87">
-    <cfRule type="containsBlanks" dxfId="3" priority="5">
+  <conditionalFormatting sqref="C86 C88">
+    <cfRule type="containsBlanks" dxfId="5" priority="7">
       <formula>LEN(TRIM(C86))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C106">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
-      <formula>LEN(TRIM(C106))=0</formula>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="containsBlanks" dxfId="4" priority="4">
+      <formula>LEN(TRIM(C108))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:E82 F84">
-    <cfRule type="containsBlanks" dxfId="1" priority="9">
+    <cfRule type="containsBlanks" dxfId="3" priority="2">
       <formula>LEN(TRIM(E74))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="containsBlanks" dxfId="0" priority="4">
-      <formula>LEN(TRIM(E87))=0</formula>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
+      <formula>LEN(TRIM(E88))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74:H82 I84">
+    <cfRule type="containsBlanks" dxfId="1" priority="11">
+      <formula>LEN(TRIM(H74))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88">
+    <cfRule type="containsBlanks" dxfId="0" priority="6">
+      <formula>LEN(TRIM(H88))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -8930,15 +9251,15 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F35:F37 F19:F20" xr:uid="{DBDA56F9-BDA2-428A-9035-F60711F90E5E}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C106" xr:uid="{E383D7BB-5EEE-044F-801D-1E55C0035917}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C108" xr:uid="{E383D7BB-5EEE-044F-801D-1E55C0035917}">
       <formula1>"Profit, Dividend, Avg"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C91" xr:uid="{CA293681-B01E-459F-8C40-5799F5EB5C26}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C92" xr:uid="{CA293681-B01E-459F-8C40-5799F5EB5C26}">
       <formula1>"US, CN, HK, Others"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H81" r:id="rId1" xr:uid="{B6C51259-995A-4E8A-8C0F-B82AE723DC52}"/>
+    <hyperlink ref="K81" r:id="rId1" xr:uid="{B6C51259-995A-4E8A-8C0F-B82AE723DC52}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="portrait" r:id="rId2"/>

--- a/financial_models/opportunities/0590.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0590.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE05D5BF-624F-478B-9AA1-91B990BE1B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E48979-ED1E-3546-B1D5-3A3127FBC418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -857,18 +868,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1328,7 +1339,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="231">
@@ -1384,8 +1395,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1408,14 +1419,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1448,7 +1459,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1456,7 +1467,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1500,7 +1511,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1560,7 +1571,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1597,7 +1608,7 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1653,10 +1664,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1665,13 +1676,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1716,7 +1727,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1770,16 +1781,16 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1800,7 +1811,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1822,18 +1833,21 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1847,7 +1861,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1861,23 +1875,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -2229,22 +2240,22 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29:H29"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="90"/>
       <c r="C1" s="90"/>
       <c r="D1" s="90"/>
@@ -2253,7 +2264,7 @@
       <c r="G1" s="90"/>
       <c r="H1" s="90"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2268,14 +2279,14 @@
       <c r="G2" s="89"/>
       <c r="H2" s="89"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="217" t="s">
+      <c r="C3" s="218" t="s">
         <v>215</v>
       </c>
-      <c r="D3" s="218"/>
+      <c r="D3" s="219"/>
       <c r="E3" s="90"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -2287,45 +2298,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="219" t="s">
+      <c r="C4" s="220" t="s">
         <v>214</v>
       </c>
-      <c r="D4" s="220"/>
+      <c r="D4" s="221"/>
       <c r="E4" s="90"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="223">
+      <c r="G4" s="224">
         <v>587107850</v>
       </c>
-      <c r="H4" s="223"/>
+      <c r="H4" s="224"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="221">
+      <c r="C5" s="222">
         <v>45593</v>
       </c>
-      <c r="D5" s="222"/>
+      <c r="D5" s="223"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="215">
+      <c r="G5" s="216">
         <f>G3*G4/1000000</f>
         <v>8865.3287589638712</v>
       </c>
-      <c r="H5" s="215"/>
+      <c r="H5" s="216"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="90" t="s">
         <v>4</v>
       </c>
@@ -2343,13 +2354,13 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="216" t="s">
+      <c r="G6" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="216"/>
+      <c r="H6" s="217"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="89" t="s">
         <v>209</v>
       </c>
@@ -2371,8 +2382,8 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="147" t="s">
         <v>207</v>
       </c>
@@ -2380,7 +2391,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>190</v>
       </c>
@@ -2391,7 +2402,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="129" t="s">
         <v>194</v>
       </c>
@@ -2405,7 +2416,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="90" t="s">
         <v>142</v>
       </c>
@@ -2417,8 +2428,8 @@
       </c>
       <c r="F12" s="115"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>191</v>
       </c>
@@ -2429,7 +2440,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>202</v>
       </c>
@@ -2440,7 +2451,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="129" t="s">
         <v>203</v>
       </c>
@@ -2454,7 +2465,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="90" t="s">
         <v>196</v>
       </c>
@@ -2463,8 +2474,8 @@
       </c>
       <c r="D17" s="201"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="150" t="s">
         <v>199</v>
       </c>
@@ -2479,7 +2490,7 @@
       <c r="G19" s="90"/>
       <c r="H19" s="90"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="145" t="s">
         <v>181</v>
       </c>
@@ -2494,7 +2505,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="145" t="s">
         <v>182</v>
       </c>
@@ -2505,7 +2516,7 @@
       <c r="F21" s="90"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="145" t="s">
         <v>183</v>
       </c>
@@ -2517,7 +2528,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="145" t="s">
         <v>184</v>
       </c>
@@ -2533,7 +2544,7 @@
         <v>0.68916348364732616</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="145" t="s">
         <v>185</v>
       </c>
@@ -2549,7 +2560,7 @@
         <v>0.10045051675038838</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="145" t="s">
         <v>208</v>
       </c>
@@ -2565,7 +2576,7 @@
         <v>0.8966227930318843</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="146" t="s">
         <v>187</v>
       </c>
@@ -2581,8 +2592,8 @@
         <v>9.0066222890229308E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="94" t="s">
         <v>7</v>
@@ -2595,932 +2606,932 @@
       </c>
       <c r="E28" s="59"/>
       <c r="F28" s="53" t="str">
-        <f>Fin_Analysis!E96</f>
+        <f>Fin_Analysis!F96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="G28" s="213" t="str">
+      <c r="G28" s="214" t="str">
         <f>Fin_Analysis!H96</f>
         <v>Base Case</v>
       </c>
-      <c r="H28" s="213"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H28" s="214"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="90" t="s">
         <v>180</v>
       </c>
       <c r="C29" s="138">
-        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
+        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
         <v>12.278692597283481</v>
       </c>
       <c r="D29" s="137">
-        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I142))</f>
+        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>29.065773522367007</v>
       </c>
       <c r="E29" s="90"/>
       <c r="F29" s="139">
-        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
+        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>17.73492134895082</v>
       </c>
-      <c r="G29" s="214">
-        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H142))</f>
+      <c r="G29" s="215">
+        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
         <v>23.252618817893605</v>
       </c>
-      <c r="H29" s="214"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="H29" s="215"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyD